--- a/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20914800</v>
+        <v>20619600</v>
       </c>
       <c r="E8" s="3">
-        <v>20410100</v>
+        <v>20122000</v>
       </c>
       <c r="F8" s="3">
-        <v>19597800</v>
+        <v>19321100</v>
       </c>
       <c r="G8" s="3">
-        <v>20157000</v>
+        <v>19872500</v>
       </c>
       <c r="H8" s="3">
-        <v>20544000</v>
+        <v>20254000</v>
       </c>
       <c r="I8" s="3">
-        <v>19869700</v>
+        <v>19589200</v>
       </c>
       <c r="J8" s="3">
-        <v>19266000</v>
+        <v>18994000</v>
       </c>
       <c r="K8" s="3">
         <v>21605600</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-467100</v>
+        <v>-460500</v>
       </c>
       <c r="E15" s="3">
-        <v>-666300</v>
+        <v>-656900</v>
       </c>
       <c r="F15" s="3">
-        <v>-485200</v>
+        <v>-478400</v>
       </c>
       <c r="G15" s="3">
-        <v>-992700</v>
+        <v>-978700</v>
       </c>
       <c r="H15" s="3">
-        <v>-642700</v>
+        <v>-633600</v>
       </c>
       <c r="I15" s="3">
-        <v>-1147500</v>
+        <v>-1131300</v>
       </c>
       <c r="J15" s="3">
-        <v>-1117900</v>
+        <v>-1102100</v>
       </c>
       <c r="K15" s="3">
         <v>-511500</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11799000</v>
+        <v>11632500</v>
       </c>
       <c r="E17" s="3">
-        <v>11105200</v>
+        <v>10948400</v>
       </c>
       <c r="F17" s="3">
-        <v>10393100</v>
+        <v>10246400</v>
       </c>
       <c r="G17" s="3">
-        <v>11296300</v>
+        <v>11136800</v>
       </c>
       <c r="H17" s="3">
-        <v>11500900</v>
+        <v>11338600</v>
       </c>
       <c r="I17" s="3">
-        <v>11239100</v>
+        <v>11080500</v>
       </c>
       <c r="J17" s="3">
-        <v>11479400</v>
+        <v>11317300</v>
       </c>
       <c r="K17" s="3">
         <v>13885400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9115800</v>
+        <v>8987100</v>
       </c>
       <c r="E18" s="3">
-        <v>9304900</v>
+        <v>9173600</v>
       </c>
       <c r="F18" s="3">
-        <v>9204600</v>
+        <v>9074700</v>
       </c>
       <c r="G18" s="3">
-        <v>8860700</v>
+        <v>8735600</v>
       </c>
       <c r="H18" s="3">
-        <v>9043100</v>
+        <v>8915400</v>
       </c>
       <c r="I18" s="3">
-        <v>8630600</v>
+        <v>8508700</v>
       </c>
       <c r="J18" s="3">
-        <v>7786600</v>
+        <v>7676700</v>
       </c>
       <c r="K18" s="3">
         <v>7720200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3112600</v>
+        <v>-3068700</v>
       </c>
       <c r="E20" s="3">
-        <v>-2645600</v>
+        <v>-2608200</v>
       </c>
       <c r="F20" s="3">
-        <v>-2990800</v>
+        <v>-2948600</v>
       </c>
       <c r="G20" s="3">
-        <v>-3356900</v>
+        <v>-3309500</v>
       </c>
       <c r="H20" s="3">
-        <v>-1954400</v>
+        <v>-1926800</v>
       </c>
       <c r="I20" s="3">
-        <v>-1693300</v>
+        <v>-1669400</v>
       </c>
       <c r="J20" s="3">
-        <v>-1677800</v>
+        <v>-1654100</v>
       </c>
       <c r="K20" s="3">
         <v>-2064500</v>
@@ -1089,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6590600</v>
+        <v>6495000</v>
       </c>
       <c r="E21" s="3">
-        <v>7468100</v>
+        <v>7359100</v>
       </c>
       <c r="F21" s="3">
-        <v>6869400</v>
+        <v>6769600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6003200</v>
+        <v>5918400</v>
       </c>
       <c r="E23" s="3">
-        <v>6659300</v>
+        <v>6565300</v>
       </c>
       <c r="F23" s="3">
-        <v>6213800</v>
+        <v>6126100</v>
       </c>
       <c r="G23" s="3">
-        <v>5503800</v>
+        <v>5426100</v>
       </c>
       <c r="H23" s="3">
-        <v>7088700</v>
+        <v>6988600</v>
       </c>
       <c r="I23" s="3">
-        <v>6937300</v>
+        <v>6839400</v>
       </c>
       <c r="J23" s="3">
-        <v>6108800</v>
+        <v>6022600</v>
       </c>
       <c r="K23" s="3">
         <v>5655800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1755900</v>
+        <v>1731100</v>
       </c>
       <c r="E24" s="3">
-        <v>1873600</v>
+        <v>1847200</v>
       </c>
       <c r="F24" s="3">
-        <v>1934200</v>
+        <v>1906900</v>
       </c>
       <c r="G24" s="3">
-        <v>1654200</v>
+        <v>1630900</v>
       </c>
       <c r="H24" s="3">
-        <v>2036500</v>
+        <v>2007800</v>
       </c>
       <c r="I24" s="3">
-        <v>2035800</v>
+        <v>2007100</v>
       </c>
       <c r="J24" s="3">
-        <v>1855500</v>
+        <v>1829300</v>
       </c>
       <c r="K24" s="3">
         <v>1646400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4247300</v>
+        <v>4187300</v>
       </c>
       <c r="E26" s="3">
-        <v>4785700</v>
+        <v>4718100</v>
       </c>
       <c r="F26" s="3">
-        <v>4279600</v>
+        <v>4219200</v>
       </c>
       <c r="G26" s="3">
-        <v>3849600</v>
+        <v>3795200</v>
       </c>
       <c r="H26" s="3">
-        <v>5052200</v>
+        <v>4980900</v>
       </c>
       <c r="I26" s="3">
-        <v>4901500</v>
+        <v>4832300</v>
       </c>
       <c r="J26" s="3">
-        <v>4253400</v>
+        <v>4193300</v>
       </c>
       <c r="K26" s="3">
         <v>4009400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4237200</v>
+        <v>4177400</v>
       </c>
       <c r="E27" s="3">
-        <v>4774900</v>
+        <v>4707500</v>
       </c>
       <c r="F27" s="3">
-        <v>4269500</v>
+        <v>4209200</v>
       </c>
       <c r="G27" s="3">
-        <v>3842200</v>
+        <v>3787900</v>
       </c>
       <c r="H27" s="3">
-        <v>5042100</v>
+        <v>4970900</v>
       </c>
       <c r="I27" s="3">
-        <v>4889300</v>
+        <v>4820300</v>
       </c>
       <c r="J27" s="3">
-        <v>4242600</v>
+        <v>4182700</v>
       </c>
       <c r="K27" s="3">
         <v>3997400</v>
@@ -1353,13 +1353,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-230800</v>
+        <v>-227600</v>
       </c>
       <c r="E29" s="3">
-        <v>-467700</v>
+        <v>-461100</v>
       </c>
       <c r="F29" s="3">
-        <v>41700</v>
+        <v>41100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3112600</v>
+        <v>3068700</v>
       </c>
       <c r="E32" s="3">
-        <v>2645600</v>
+        <v>2608200</v>
       </c>
       <c r="F32" s="3">
-        <v>2990800</v>
+        <v>2948600</v>
       </c>
       <c r="G32" s="3">
-        <v>3356900</v>
+        <v>3309500</v>
       </c>
       <c r="H32" s="3">
-        <v>1954400</v>
+        <v>1926800</v>
       </c>
       <c r="I32" s="3">
-        <v>1693300</v>
+        <v>1669400</v>
       </c>
       <c r="J32" s="3">
-        <v>1677800</v>
+        <v>1654100</v>
       </c>
       <c r="K32" s="3">
         <v>2064500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4006400</v>
+        <v>3949800</v>
       </c>
       <c r="E33" s="3">
-        <v>4307200</v>
+        <v>4246400</v>
       </c>
       <c r="F33" s="3">
-        <v>4311200</v>
+        <v>4250400</v>
       </c>
       <c r="G33" s="3">
-        <v>3842200</v>
+        <v>3787900</v>
       </c>
       <c r="H33" s="3">
-        <v>5042100</v>
+        <v>4970900</v>
       </c>
       <c r="I33" s="3">
-        <v>4889300</v>
+        <v>4820300</v>
       </c>
       <c r="J33" s="3">
-        <v>4242600</v>
+        <v>4182700</v>
       </c>
       <c r="K33" s="3">
         <v>3997400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4006400</v>
+        <v>3949800</v>
       </c>
       <c r="E35" s="3">
-        <v>4307200</v>
+        <v>4246400</v>
       </c>
       <c r="F35" s="3">
-        <v>4311200</v>
+        <v>4250400</v>
       </c>
       <c r="G35" s="3">
-        <v>3842200</v>
+        <v>3787900</v>
       </c>
       <c r="H35" s="3">
-        <v>5042100</v>
+        <v>4970900</v>
       </c>
       <c r="I35" s="3">
-        <v>4889300</v>
+        <v>4820300</v>
       </c>
       <c r="J35" s="3">
-        <v>4242600</v>
+        <v>4182700</v>
       </c>
       <c r="K35" s="3">
         <v>3997400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45916100</v>
+        <v>45479500</v>
       </c>
       <c r="E41" s="3">
-        <v>101729000</v>
+        <v>100762000</v>
       </c>
       <c r="F41" s="3">
-        <v>41271700</v>
+        <v>40879200</v>
       </c>
       <c r="G41" s="3">
-        <v>40229900</v>
+        <v>39847300</v>
       </c>
       <c r="H41" s="3">
-        <v>47899400</v>
+        <v>47443900</v>
       </c>
       <c r="I41" s="3">
-        <v>35761200</v>
+        <v>35421100</v>
       </c>
       <c r="J41" s="3">
-        <v>89037200</v>
+        <v>88190500</v>
       </c>
       <c r="K41" s="3">
         <v>39025000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>137374000</v>
+        <v>136068000</v>
       </c>
       <c r="E42" s="3">
-        <v>97964600</v>
+        <v>97033000</v>
       </c>
       <c r="F42" s="3">
-        <v>91997100</v>
+        <v>91122200</v>
       </c>
       <c r="G42" s="3">
-        <v>113539000</v>
+        <v>112459000</v>
       </c>
       <c r="H42" s="3">
-        <v>105423000</v>
+        <v>104420000</v>
       </c>
       <c r="I42" s="3">
-        <v>81686700</v>
+        <v>80909900</v>
       </c>
       <c r="J42" s="3">
-        <v>91594000</v>
+        <v>90722900</v>
       </c>
       <c r="K42" s="3">
         <v>49876600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1990100</v>
+        <v>1971100</v>
       </c>
       <c r="E47" s="3">
-        <v>1718200</v>
+        <v>1701800</v>
       </c>
       <c r="F47" s="3">
-        <v>1512900</v>
+        <v>1498500</v>
       </c>
       <c r="G47" s="3">
-        <v>2875100</v>
+        <v>2847700</v>
       </c>
       <c r="H47" s="3">
-        <v>3661100</v>
+        <v>3626300</v>
       </c>
       <c r="I47" s="3">
-        <v>3083700</v>
+        <v>3054400</v>
       </c>
       <c r="J47" s="3">
-        <v>2774800</v>
+        <v>2748400</v>
       </c>
       <c r="K47" s="3">
         <v>2490400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1294900</v>
+        <v>1282500</v>
       </c>
       <c r="E48" s="3">
-        <v>1233600</v>
+        <v>1221900</v>
       </c>
       <c r="F48" s="3">
-        <v>1322400</v>
+        <v>1309900</v>
       </c>
       <c r="G48" s="3">
-        <v>1484000</v>
+        <v>1469900</v>
       </c>
       <c r="H48" s="3">
-        <v>1494700</v>
+        <v>1480500</v>
       </c>
       <c r="I48" s="3">
-        <v>1467800</v>
+        <v>1453900</v>
       </c>
       <c r="J48" s="3">
-        <v>4369100</v>
+        <v>4327600</v>
       </c>
       <c r="K48" s="3">
         <v>1495700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3271500</v>
+        <v>3240300</v>
       </c>
       <c r="E49" s="3">
-        <v>6635800</v>
+        <v>6572700</v>
       </c>
       <c r="F49" s="3">
-        <v>4690800</v>
+        <v>4646200</v>
       </c>
       <c r="G49" s="3">
-        <v>5163300</v>
+        <v>5114200</v>
       </c>
       <c r="H49" s="3">
-        <v>5594000</v>
+        <v>5540800</v>
       </c>
       <c r="I49" s="3">
-        <v>5350400</v>
+        <v>5299500</v>
       </c>
       <c r="J49" s="3">
-        <v>15526100</v>
+        <v>15378500</v>
       </c>
       <c r="K49" s="3">
         <v>5010500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2144900</v>
+        <v>2124500</v>
       </c>
       <c r="E52" s="3">
-        <v>30331400</v>
+        <v>30043000</v>
       </c>
       <c r="F52" s="3">
-        <v>5818100</v>
+        <v>5762800</v>
       </c>
       <c r="G52" s="3">
-        <v>419300</v>
+        <v>415300</v>
       </c>
       <c r="H52" s="3">
-        <v>5698300</v>
+        <v>5644100</v>
       </c>
       <c r="I52" s="3">
-        <v>280600</v>
+        <v>278000</v>
       </c>
       <c r="J52" s="3">
-        <v>973200</v>
+        <v>963900</v>
       </c>
       <c r="K52" s="3">
         <v>555400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>660305000</v>
+        <v>654026000</v>
       </c>
       <c r="E54" s="3">
-        <v>634762000</v>
+        <v>628725000</v>
       </c>
       <c r="F54" s="3">
-        <v>603900000</v>
+        <v>598158000</v>
       </c>
       <c r="G54" s="3">
-        <v>615707000</v>
+        <v>609852000</v>
       </c>
       <c r="H54" s="3">
-        <v>598903000</v>
+        <v>593207000</v>
       </c>
       <c r="I54" s="3">
-        <v>519618000</v>
+        <v>514677000</v>
       </c>
       <c r="J54" s="3">
-        <v>473116000</v>
+        <v>468617000</v>
       </c>
       <c r="K54" s="3">
         <v>454305000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5362500</v>
+        <v>5311500</v>
       </c>
       <c r="E57" s="3">
-        <v>4639700</v>
+        <v>4595500</v>
       </c>
       <c r="F57" s="3">
-        <v>5619600</v>
+        <v>5566100</v>
       </c>
       <c r="G57" s="3">
-        <v>1092300</v>
+        <v>1081900</v>
       </c>
       <c r="H57" s="3">
-        <v>1117900</v>
+        <v>1107200</v>
       </c>
       <c r="I57" s="3">
-        <v>898500</v>
+        <v>889900</v>
       </c>
       <c r="J57" s="3">
-        <v>7687700</v>
+        <v>7614600</v>
       </c>
       <c r="K57" s="3">
         <v>696200</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>175000</v>
+        <v>173300</v>
       </c>
       <c r="E59" s="3">
-        <v>201900</v>
+        <v>200000</v>
       </c>
       <c r="F59" s="3">
-        <v>162200</v>
+        <v>160700</v>
       </c>
       <c r="G59" s="3">
-        <v>2142200</v>
+        <v>2121800</v>
       </c>
       <c r="H59" s="3">
-        <v>2404600</v>
+        <v>2381800</v>
       </c>
       <c r="I59" s="3">
-        <v>2650900</v>
+        <v>2625700</v>
       </c>
       <c r="J59" s="3">
-        <v>5569700</v>
+        <v>5516800</v>
       </c>
       <c r="K59" s="3">
         <v>3394600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>87282000</v>
+        <v>86452000</v>
       </c>
       <c r="E61" s="3">
-        <v>81553500</v>
+        <v>80777900</v>
       </c>
       <c r="F61" s="3">
-        <v>72665800</v>
+        <v>71974800</v>
       </c>
       <c r="G61" s="3">
-        <v>77100200</v>
+        <v>76367000</v>
       </c>
       <c r="H61" s="3">
-        <v>75600800</v>
+        <v>74881800</v>
       </c>
       <c r="I61" s="3">
-        <v>64004300</v>
+        <v>63395700</v>
       </c>
       <c r="J61" s="3">
-        <v>56886700</v>
+        <v>56345700</v>
       </c>
       <c r="K61" s="3">
         <v>53071000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1937600</v>
+        <v>1919100</v>
       </c>
       <c r="E62" s="3">
-        <v>2718200</v>
+        <v>2692400</v>
       </c>
       <c r="F62" s="3">
-        <v>952300</v>
+        <v>943200</v>
       </c>
       <c r="G62" s="3">
-        <v>1000800</v>
+        <v>991200</v>
       </c>
       <c r="H62" s="3">
-        <v>930100</v>
+        <v>921200</v>
       </c>
       <c r="I62" s="3">
-        <v>847300</v>
+        <v>839200</v>
       </c>
       <c r="J62" s="3">
-        <v>1782800</v>
+        <v>1765800</v>
       </c>
       <c r="K62" s="3">
         <v>118200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>619398000</v>
+        <v>613508000</v>
       </c>
       <c r="E66" s="3">
-        <v>594876000</v>
+        <v>589219000</v>
       </c>
       <c r="F66" s="3">
-        <v>564221000</v>
+        <v>558855000</v>
       </c>
       <c r="G66" s="3">
-        <v>576795000</v>
+        <v>571310000</v>
       </c>
       <c r="H66" s="3">
-        <v>560376000</v>
+        <v>555047000</v>
       </c>
       <c r="I66" s="3">
-        <v>486502000</v>
+        <v>481875000</v>
       </c>
       <c r="J66" s="3">
-        <v>442467000</v>
+        <v>438259000</v>
       </c>
       <c r="K66" s="3">
         <v>425176000</v>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>586200</v>
+        <v>580600</v>
       </c>
       <c r="J70" s="3">
-        <v>1172400</v>
+        <v>1161200</v>
       </c>
       <c r="K70" s="3">
         <v>616200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22028000</v>
+        <v>21818500</v>
       </c>
       <c r="E72" s="3">
-        <v>21406800</v>
+        <v>21203200</v>
       </c>
       <c r="F72" s="3">
-        <v>20121400</v>
+        <v>19930000</v>
       </c>
       <c r="G72" s="3">
-        <v>18864900</v>
+        <v>18685500</v>
       </c>
       <c r="H72" s="3">
-        <v>18409200</v>
+        <v>18234200</v>
       </c>
       <c r="I72" s="3">
-        <v>16543000</v>
+        <v>16385700</v>
       </c>
       <c r="J72" s="3">
-        <v>14874000</v>
+        <v>14732500</v>
       </c>
       <c r="K72" s="3">
         <v>14046000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40907000</v>
+        <v>40517900</v>
       </c>
       <c r="E76" s="3">
-        <v>39885300</v>
+        <v>39506000</v>
       </c>
       <c r="F76" s="3">
-        <v>39679400</v>
+        <v>39302100</v>
       </c>
       <c r="G76" s="3">
-        <v>38911500</v>
+        <v>38541500</v>
       </c>
       <c r="H76" s="3">
-        <v>38527200</v>
+        <v>38160900</v>
       </c>
       <c r="I76" s="3">
-        <v>32530100</v>
+        <v>32220800</v>
       </c>
       <c r="J76" s="3">
-        <v>29476700</v>
+        <v>29196400</v>
       </c>
       <c r="K76" s="3">
         <v>28512300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4006400</v>
+        <v>3949800</v>
       </c>
       <c r="E81" s="3">
-        <v>4307200</v>
+        <v>4246400</v>
       </c>
       <c r="F81" s="3">
-        <v>4311200</v>
+        <v>4250400</v>
       </c>
       <c r="G81" s="3">
-        <v>3842200</v>
+        <v>3787900</v>
       </c>
       <c r="H81" s="3">
-        <v>5042100</v>
+        <v>4970900</v>
       </c>
       <c r="I81" s="3">
-        <v>4889300</v>
+        <v>4820300</v>
       </c>
       <c r="J81" s="3">
-        <v>4242600</v>
+        <v>4182700</v>
       </c>
       <c r="K81" s="3">
         <v>3997400</v>
@@ -2905,13 +2905,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>586200</v>
+        <v>577900</v>
       </c>
       <c r="E83" s="3">
-        <v>806900</v>
+        <v>795500</v>
       </c>
       <c r="F83" s="3">
-        <v>654200</v>
+        <v>644900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3062200</v>
+        <v>-3018900</v>
       </c>
       <c r="E89" s="3">
-        <v>7110900</v>
+        <v>7010500</v>
       </c>
       <c r="F89" s="3">
-        <v>16183600</v>
+        <v>15955200</v>
       </c>
       <c r="G89" s="3">
-        <v>7296000</v>
+        <v>7193000</v>
       </c>
       <c r="H89" s="3">
-        <v>14453300</v>
+        <v>14249300</v>
       </c>
       <c r="I89" s="3">
-        <v>3797700</v>
+        <v>3744100</v>
       </c>
       <c r="J89" s="3">
-        <v>10880400</v>
+        <v>10726800</v>
       </c>
       <c r="K89" s="3">
         <v>4500400</v>
@@ -3160,16 +3160,16 @@
         <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-226800</v>
+        <v>-223600</v>
       </c>
       <c r="H91" s="3">
-        <v>-216000</v>
+        <v>-213000</v>
       </c>
       <c r="I91" s="3">
-        <v>-249000</v>
+        <v>-245500</v>
       </c>
       <c r="J91" s="3">
-        <v>-239600</v>
+        <v>-236200</v>
       </c>
       <c r="K91" s="3">
         <v>-225700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-138600</v>
+        <v>-136700</v>
       </c>
       <c r="E94" s="3">
-        <v>111700</v>
+        <v>110100</v>
       </c>
       <c r="F94" s="3">
-        <v>-8634600</v>
+        <v>-8512700</v>
       </c>
       <c r="G94" s="3">
-        <v>-9697900</v>
+        <v>-9561000</v>
       </c>
       <c r="H94" s="3">
-        <v>-6579200</v>
+        <v>-6486400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1296900</v>
+        <v>-1278600</v>
       </c>
       <c r="J94" s="3">
-        <v>-5119500</v>
+        <v>-5047200</v>
       </c>
       <c r="K94" s="3">
         <v>-159200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3009000</v>
+        <v>-2966500</v>
       </c>
       <c r="E96" s="3">
-        <v>-3070900</v>
+        <v>-3027600</v>
       </c>
       <c r="F96" s="3">
-        <v>-2951800</v>
+        <v>-2910100</v>
       </c>
       <c r="G96" s="3">
-        <v>-3071600</v>
+        <v>-3028200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2532500</v>
+        <v>-2496800</v>
       </c>
       <c r="I96" s="3">
-        <v>-2575600</v>
+        <v>-2539200</v>
       </c>
       <c r="J96" s="3">
-        <v>-2171100</v>
+        <v>-2140500</v>
       </c>
       <c r="K96" s="3">
         <v>-1569900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1858200</v>
+        <v>-1831900</v>
       </c>
       <c r="E100" s="3">
-        <v>1763300</v>
+        <v>1738400</v>
       </c>
       <c r="F100" s="3">
-        <v>-4537400</v>
+        <v>-4473300</v>
       </c>
       <c r="G100" s="3">
-        <v>1317700</v>
+        <v>1299100</v>
       </c>
       <c r="H100" s="3">
-        <v>1374900</v>
+        <v>1355500</v>
       </c>
       <c r="I100" s="3">
-        <v>1881000</v>
+        <v>1854500</v>
       </c>
       <c r="J100" s="3">
-        <v>-2756600</v>
+        <v>-2717700</v>
       </c>
       <c r="K100" s="3">
         <v>4713400</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2809100</v>
+        <v>2769400</v>
       </c>
       <c r="E101" s="3">
-        <v>2398600</v>
+        <v>2364700</v>
       </c>
       <c r="F101" s="3">
-        <v>-1781400</v>
+        <v>-1756300</v>
       </c>
       <c r="G101" s="3">
-        <v>-973800</v>
+        <v>-960100</v>
       </c>
       <c r="H101" s="3">
-        <v>4916900</v>
+        <v>4847500</v>
       </c>
       <c r="I101" s="3">
-        <v>408500</v>
+        <v>402700</v>
       </c>
       <c r="J101" s="3">
-        <v>767200</v>
+        <v>756400</v>
       </c>
       <c r="K101" s="3">
         <v>-968600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2249800</v>
+        <v>-2218100</v>
       </c>
       <c r="E102" s="3">
-        <v>11384500</v>
+        <v>11223800</v>
       </c>
       <c r="F102" s="3">
-        <v>1230200</v>
+        <v>1212900</v>
       </c>
       <c r="G102" s="3">
-        <v>-2058000</v>
+        <v>-2029000</v>
       </c>
       <c r="H102" s="3">
-        <v>14166000</v>
+        <v>13966000</v>
       </c>
       <c r="I102" s="3">
-        <v>4790400</v>
+        <v>4722800</v>
       </c>
       <c r="J102" s="3">
-        <v>3771500</v>
+        <v>3718300</v>
       </c>
       <c r="K102" s="3">
         <v>8086000</v>

--- a/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20619600</v>
+        <v>22471800</v>
       </c>
       <c r="E8" s="3">
-        <v>20122000</v>
+        <v>21929500</v>
       </c>
       <c r="F8" s="3">
-        <v>19321100</v>
+        <v>21056700</v>
       </c>
       <c r="G8" s="3">
-        <v>19872500</v>
+        <v>21657600</v>
       </c>
       <c r="H8" s="3">
-        <v>20254000</v>
+        <v>22073400</v>
       </c>
       <c r="I8" s="3">
-        <v>19589200</v>
+        <v>21348800</v>
       </c>
       <c r="J8" s="3">
-        <v>18994000</v>
+        <v>20700200</v>
       </c>
       <c r="K8" s="3">
         <v>21605600</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-460500</v>
+        <v>-501800</v>
       </c>
       <c r="E15" s="3">
-        <v>-656900</v>
+        <v>-715900</v>
       </c>
       <c r="F15" s="3">
-        <v>-478400</v>
+        <v>-521400</v>
       </c>
       <c r="G15" s="3">
-        <v>-978700</v>
+        <v>-1066600</v>
       </c>
       <c r="H15" s="3">
-        <v>-633600</v>
+        <v>-690600</v>
       </c>
       <c r="I15" s="3">
-        <v>-1131300</v>
+        <v>-1232900</v>
       </c>
       <c r="J15" s="3">
-        <v>-1102100</v>
+        <v>-1201100</v>
       </c>
       <c r="K15" s="3">
         <v>-511500</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11632500</v>
+        <v>12677400</v>
       </c>
       <c r="E17" s="3">
-        <v>10948400</v>
+        <v>11931900</v>
       </c>
       <c r="F17" s="3">
-        <v>10246400</v>
+        <v>11166800</v>
       </c>
       <c r="G17" s="3">
-        <v>11136800</v>
+        <v>12137200</v>
       </c>
       <c r="H17" s="3">
-        <v>11338600</v>
+        <v>12357100</v>
       </c>
       <c r="I17" s="3">
-        <v>11080500</v>
+        <v>12075800</v>
       </c>
       <c r="J17" s="3">
-        <v>11317300</v>
+        <v>12333900</v>
       </c>
       <c r="K17" s="3">
         <v>13885400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8987100</v>
+        <v>9794400</v>
       </c>
       <c r="E18" s="3">
-        <v>9173600</v>
+        <v>9997600</v>
       </c>
       <c r="F18" s="3">
-        <v>9074700</v>
+        <v>9889800</v>
       </c>
       <c r="G18" s="3">
-        <v>8735600</v>
+        <v>9520300</v>
       </c>
       <c r="H18" s="3">
-        <v>8915400</v>
+        <v>9716300</v>
       </c>
       <c r="I18" s="3">
-        <v>8508700</v>
+        <v>9273000</v>
       </c>
       <c r="J18" s="3">
-        <v>7676700</v>
+        <v>8366300</v>
       </c>
       <c r="K18" s="3">
         <v>7720200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3068700</v>
+        <v>-3344300</v>
       </c>
       <c r="E20" s="3">
-        <v>-2608200</v>
+        <v>-2842500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2948600</v>
+        <v>-3213500</v>
       </c>
       <c r="G20" s="3">
-        <v>-3309500</v>
+        <v>-3606800</v>
       </c>
       <c r="H20" s="3">
-        <v>-1926800</v>
+        <v>-2099900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1669400</v>
+        <v>-1819300</v>
       </c>
       <c r="J20" s="3">
-        <v>-1654100</v>
+        <v>-1802700</v>
       </c>
       <c r="K20" s="3">
         <v>-2064500</v>
@@ -1089,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6495000</v>
+        <v>7076600</v>
       </c>
       <c r="E21" s="3">
-        <v>7359100</v>
+        <v>8017600</v>
       </c>
       <c r="F21" s="3">
-        <v>6769600</v>
+        <v>7375600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5918400</v>
+        <v>6450100</v>
       </c>
       <c r="E23" s="3">
-        <v>6565300</v>
+        <v>7155100</v>
       </c>
       <c r="F23" s="3">
-        <v>6126100</v>
+        <v>6676400</v>
       </c>
       <c r="G23" s="3">
-        <v>5426100</v>
+        <v>5913500</v>
       </c>
       <c r="H23" s="3">
-        <v>6988600</v>
+        <v>7616400</v>
       </c>
       <c r="I23" s="3">
-        <v>6839400</v>
+        <v>7453700</v>
       </c>
       <c r="J23" s="3">
-        <v>6022600</v>
+        <v>6563600</v>
       </c>
       <c r="K23" s="3">
         <v>5655800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1731100</v>
+        <v>1886600</v>
       </c>
       <c r="E24" s="3">
-        <v>1847200</v>
+        <v>2013100</v>
       </c>
       <c r="F24" s="3">
-        <v>1906900</v>
+        <v>2078200</v>
       </c>
       <c r="G24" s="3">
-        <v>1630900</v>
+        <v>1777400</v>
       </c>
       <c r="H24" s="3">
-        <v>2007800</v>
+        <v>2188100</v>
       </c>
       <c r="I24" s="3">
-        <v>2007100</v>
+        <v>2187400</v>
       </c>
       <c r="J24" s="3">
-        <v>1829300</v>
+        <v>1993600</v>
       </c>
       <c r="K24" s="3">
         <v>1646400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4187300</v>
+        <v>4563500</v>
       </c>
       <c r="E26" s="3">
-        <v>4718100</v>
+        <v>5142000</v>
       </c>
       <c r="F26" s="3">
-        <v>4219200</v>
+        <v>4598200</v>
       </c>
       <c r="G26" s="3">
-        <v>3795200</v>
+        <v>4136100</v>
       </c>
       <c r="H26" s="3">
-        <v>4980900</v>
+        <v>5428300</v>
       </c>
       <c r="I26" s="3">
-        <v>4832300</v>
+        <v>5266300</v>
       </c>
       <c r="J26" s="3">
-        <v>4193300</v>
+        <v>4570000</v>
       </c>
       <c r="K26" s="3">
         <v>4009400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4177400</v>
+        <v>4552600</v>
       </c>
       <c r="E27" s="3">
-        <v>4707500</v>
+        <v>5130400</v>
       </c>
       <c r="F27" s="3">
-        <v>4209200</v>
+        <v>4587300</v>
       </c>
       <c r="G27" s="3">
-        <v>3787900</v>
+        <v>4128200</v>
       </c>
       <c r="H27" s="3">
-        <v>4970900</v>
+        <v>5417500</v>
       </c>
       <c r="I27" s="3">
-        <v>4820300</v>
+        <v>5253300</v>
       </c>
       <c r="J27" s="3">
-        <v>4182700</v>
+        <v>4558400</v>
       </c>
       <c r="K27" s="3">
         <v>3997400</v>
@@ -1353,13 +1353,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-227600</v>
+        <v>-248000</v>
       </c>
       <c r="E29" s="3">
-        <v>-461100</v>
+        <v>-502600</v>
       </c>
       <c r="F29" s="3">
-        <v>41100</v>
+        <v>44800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3068700</v>
+        <v>3344300</v>
       </c>
       <c r="E32" s="3">
-        <v>2608200</v>
+        <v>2842500</v>
       </c>
       <c r="F32" s="3">
-        <v>2948600</v>
+        <v>3213500</v>
       </c>
       <c r="G32" s="3">
-        <v>3309500</v>
+        <v>3606800</v>
       </c>
       <c r="H32" s="3">
-        <v>1926800</v>
+        <v>2099900</v>
       </c>
       <c r="I32" s="3">
-        <v>1669400</v>
+        <v>1819300</v>
       </c>
       <c r="J32" s="3">
-        <v>1654100</v>
+        <v>1802700</v>
       </c>
       <c r="K32" s="3">
         <v>2064500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3949800</v>
+        <v>4304600</v>
       </c>
       <c r="E33" s="3">
-        <v>4246400</v>
+        <v>4627800</v>
       </c>
       <c r="F33" s="3">
-        <v>4250400</v>
+        <v>4632200</v>
       </c>
       <c r="G33" s="3">
-        <v>3787900</v>
+        <v>4128200</v>
       </c>
       <c r="H33" s="3">
-        <v>4970900</v>
+        <v>5417500</v>
       </c>
       <c r="I33" s="3">
-        <v>4820300</v>
+        <v>5253300</v>
       </c>
       <c r="J33" s="3">
-        <v>4182700</v>
+        <v>4558400</v>
       </c>
       <c r="K33" s="3">
         <v>3997400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3949800</v>
+        <v>4304600</v>
       </c>
       <c r="E35" s="3">
-        <v>4246400</v>
+        <v>4627800</v>
       </c>
       <c r="F35" s="3">
-        <v>4250400</v>
+        <v>4632200</v>
       </c>
       <c r="G35" s="3">
-        <v>3787900</v>
+        <v>4128200</v>
       </c>
       <c r="H35" s="3">
-        <v>4970900</v>
+        <v>5417500</v>
       </c>
       <c r="I35" s="3">
-        <v>4820300</v>
+        <v>5253300</v>
       </c>
       <c r="J35" s="3">
-        <v>4182700</v>
+        <v>4558400</v>
       </c>
       <c r="K35" s="3">
         <v>3997400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45479500</v>
+        <v>49334200</v>
       </c>
       <c r="E41" s="3">
-        <v>100762000</v>
+        <v>109302000</v>
       </c>
       <c r="F41" s="3">
-        <v>40879200</v>
+        <v>44344100</v>
       </c>
       <c r="G41" s="3">
-        <v>39847300</v>
+        <v>43224700</v>
       </c>
       <c r="H41" s="3">
-        <v>47443900</v>
+        <v>51465200</v>
       </c>
       <c r="I41" s="3">
-        <v>35421100</v>
+        <v>38423400</v>
       </c>
       <c r="J41" s="3">
-        <v>88190500</v>
+        <v>95665400</v>
       </c>
       <c r="K41" s="3">
         <v>39025000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>136068000</v>
+        <v>147601000</v>
       </c>
       <c r="E42" s="3">
-        <v>97033000</v>
+        <v>105257000</v>
       </c>
       <c r="F42" s="3">
-        <v>91122200</v>
+        <v>98845600</v>
       </c>
       <c r="G42" s="3">
-        <v>112459000</v>
+        <v>121991000</v>
       </c>
       <c r="H42" s="3">
-        <v>104420000</v>
+        <v>113271000</v>
       </c>
       <c r="I42" s="3">
-        <v>80909900</v>
+        <v>87767700</v>
       </c>
       <c r="J42" s="3">
-        <v>90722900</v>
+        <v>98412500</v>
       </c>
       <c r="K42" s="3">
         <v>49876600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1971100</v>
+        <v>2138200</v>
       </c>
       <c r="E47" s="3">
-        <v>1701800</v>
+        <v>1846100</v>
       </c>
       <c r="F47" s="3">
-        <v>1498500</v>
+        <v>1625500</v>
       </c>
       <c r="G47" s="3">
-        <v>2847700</v>
+        <v>3089100</v>
       </c>
       <c r="H47" s="3">
-        <v>3626300</v>
+        <v>3933700</v>
       </c>
       <c r="I47" s="3">
-        <v>3054400</v>
+        <v>3313200</v>
       </c>
       <c r="J47" s="3">
-        <v>2748400</v>
+        <v>2981300</v>
       </c>
       <c r="K47" s="3">
         <v>2490400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1282500</v>
+        <v>1391200</v>
       </c>
       <c r="E48" s="3">
-        <v>1221900</v>
+        <v>1325400</v>
       </c>
       <c r="F48" s="3">
-        <v>1309900</v>
+        <v>1420900</v>
       </c>
       <c r="G48" s="3">
-        <v>1469900</v>
+        <v>1594400</v>
       </c>
       <c r="H48" s="3">
-        <v>1480500</v>
+        <v>1606000</v>
       </c>
       <c r="I48" s="3">
-        <v>1453900</v>
+        <v>1577100</v>
       </c>
       <c r="J48" s="3">
-        <v>4327600</v>
+        <v>4694400</v>
       </c>
       <c r="K48" s="3">
         <v>1495700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3240300</v>
+        <v>3515000</v>
       </c>
       <c r="E49" s="3">
-        <v>6572700</v>
+        <v>7129800</v>
       </c>
       <c r="F49" s="3">
-        <v>4646200</v>
+        <v>5040000</v>
       </c>
       <c r="G49" s="3">
-        <v>5114200</v>
+        <v>5547600</v>
       </c>
       <c r="H49" s="3">
-        <v>5540800</v>
+        <v>6010400</v>
       </c>
       <c r="I49" s="3">
-        <v>5299500</v>
+        <v>5748600</v>
       </c>
       <c r="J49" s="3">
-        <v>15378500</v>
+        <v>16681900</v>
       </c>
       <c r="K49" s="3">
         <v>5010500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2124500</v>
+        <v>2304500</v>
       </c>
       <c r="E52" s="3">
-        <v>30043000</v>
+        <v>32589400</v>
       </c>
       <c r="F52" s="3">
-        <v>5762800</v>
+        <v>6251200</v>
       </c>
       <c r="G52" s="3">
-        <v>415300</v>
+        <v>450500</v>
       </c>
       <c r="H52" s="3">
-        <v>5644100</v>
+        <v>6122500</v>
       </c>
       <c r="I52" s="3">
-        <v>278000</v>
+        <v>301500</v>
       </c>
       <c r="J52" s="3">
-        <v>963900</v>
+        <v>1045600</v>
       </c>
       <c r="K52" s="3">
         <v>555400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>654026000</v>
+        <v>709460000</v>
       </c>
       <c r="E54" s="3">
-        <v>628725000</v>
+        <v>682015000</v>
       </c>
       <c r="F54" s="3">
-        <v>598158000</v>
+        <v>648856000</v>
       </c>
       <c r="G54" s="3">
-        <v>609852000</v>
+        <v>661542000</v>
       </c>
       <c r="H54" s="3">
-        <v>593207000</v>
+        <v>643487000</v>
       </c>
       <c r="I54" s="3">
-        <v>514677000</v>
+        <v>558300000</v>
       </c>
       <c r="J54" s="3">
-        <v>468617000</v>
+        <v>508336000</v>
       </c>
       <c r="K54" s="3">
         <v>454305000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5311500</v>
+        <v>5761700</v>
       </c>
       <c r="E57" s="3">
-        <v>4595500</v>
+        <v>4985100</v>
       </c>
       <c r="F57" s="3">
-        <v>5566100</v>
+        <v>6037900</v>
       </c>
       <c r="G57" s="3">
-        <v>1081900</v>
+        <v>1173600</v>
       </c>
       <c r="H57" s="3">
-        <v>1107200</v>
+        <v>1201100</v>
       </c>
       <c r="I57" s="3">
-        <v>889900</v>
+        <v>965300</v>
       </c>
       <c r="J57" s="3">
-        <v>7614600</v>
+        <v>8260000</v>
       </c>
       <c r="K57" s="3">
         <v>696200</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>173300</v>
+        <v>188000</v>
       </c>
       <c r="E59" s="3">
-        <v>200000</v>
+        <v>216900</v>
       </c>
       <c r="F59" s="3">
-        <v>160700</v>
+        <v>174300</v>
       </c>
       <c r="G59" s="3">
-        <v>2121800</v>
+        <v>2301600</v>
       </c>
       <c r="H59" s="3">
-        <v>2381800</v>
+        <v>2583600</v>
       </c>
       <c r="I59" s="3">
-        <v>2625700</v>
+        <v>2848300</v>
       </c>
       <c r="J59" s="3">
-        <v>5516800</v>
+        <v>5984400</v>
       </c>
       <c r="K59" s="3">
         <v>3394600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>86452000</v>
+        <v>93779600</v>
       </c>
       <c r="E61" s="3">
-        <v>80777900</v>
+        <v>87624500</v>
       </c>
       <c r="F61" s="3">
-        <v>71974800</v>
+        <v>78075300</v>
       </c>
       <c r="G61" s="3">
-        <v>76367000</v>
+        <v>82839800</v>
       </c>
       <c r="H61" s="3">
-        <v>74881800</v>
+        <v>81228700</v>
       </c>
       <c r="I61" s="3">
-        <v>63395700</v>
+        <v>68769000</v>
       </c>
       <c r="J61" s="3">
-        <v>56345700</v>
+        <v>61121500</v>
       </c>
       <c r="K61" s="3">
         <v>53071000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1919100</v>
+        <v>2081800</v>
       </c>
       <c r="E62" s="3">
-        <v>2692400</v>
+        <v>2920600</v>
       </c>
       <c r="F62" s="3">
-        <v>943200</v>
+        <v>1023200</v>
       </c>
       <c r="G62" s="3">
-        <v>991200</v>
+        <v>1075200</v>
       </c>
       <c r="H62" s="3">
-        <v>921200</v>
+        <v>999300</v>
       </c>
       <c r="I62" s="3">
-        <v>839200</v>
+        <v>910400</v>
       </c>
       <c r="J62" s="3">
-        <v>1765800</v>
+        <v>1915500</v>
       </c>
       <c r="K62" s="3">
         <v>118200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>613508000</v>
+        <v>665508000</v>
       </c>
       <c r="E66" s="3">
-        <v>589219000</v>
+        <v>639160000</v>
       </c>
       <c r="F66" s="3">
-        <v>558855000</v>
+        <v>606223000</v>
       </c>
       <c r="G66" s="3">
-        <v>571310000</v>
+        <v>619734000</v>
       </c>
       <c r="H66" s="3">
-        <v>555047000</v>
+        <v>602091000</v>
       </c>
       <c r="I66" s="3">
-        <v>481875000</v>
+        <v>522718000</v>
       </c>
       <c r="J66" s="3">
-        <v>438259000</v>
+        <v>475405000</v>
       </c>
       <c r="K66" s="3">
         <v>425176000</v>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>580600</v>
+        <v>629800</v>
       </c>
       <c r="J70" s="3">
-        <v>1161200</v>
+        <v>1259600</v>
       </c>
       <c r="K70" s="3">
         <v>616200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21818500</v>
+        <v>23667800</v>
       </c>
       <c r="E72" s="3">
-        <v>21203200</v>
+        <v>23000400</v>
       </c>
       <c r="F72" s="3">
-        <v>19930000</v>
+        <v>21619200</v>
       </c>
       <c r="G72" s="3">
-        <v>18685500</v>
+        <v>20269200</v>
       </c>
       <c r="H72" s="3">
-        <v>18234200</v>
+        <v>19779700</v>
       </c>
       <c r="I72" s="3">
-        <v>16385700</v>
+        <v>17774500</v>
       </c>
       <c r="J72" s="3">
-        <v>14732500</v>
+        <v>15981200</v>
       </c>
       <c r="K72" s="3">
         <v>14046000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40517900</v>
+        <v>43952200</v>
       </c>
       <c r="E76" s="3">
-        <v>39506000</v>
+        <v>42854500</v>
       </c>
       <c r="F76" s="3">
-        <v>39302100</v>
+        <v>42633300</v>
       </c>
       <c r="G76" s="3">
-        <v>38541500</v>
+        <v>41808200</v>
       </c>
       <c r="H76" s="3">
-        <v>38160900</v>
+        <v>41395300</v>
       </c>
       <c r="I76" s="3">
-        <v>32220800</v>
+        <v>34951800</v>
       </c>
       <c r="J76" s="3">
-        <v>29196400</v>
+        <v>31671100</v>
       </c>
       <c r="K76" s="3">
         <v>28512300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3949800</v>
+        <v>4304600</v>
       </c>
       <c r="E81" s="3">
-        <v>4246400</v>
+        <v>4627800</v>
       </c>
       <c r="F81" s="3">
-        <v>4250400</v>
+        <v>4632200</v>
       </c>
       <c r="G81" s="3">
-        <v>3787900</v>
+        <v>4128200</v>
       </c>
       <c r="H81" s="3">
-        <v>4970900</v>
+        <v>5417500</v>
       </c>
       <c r="I81" s="3">
-        <v>4820300</v>
+        <v>5253300</v>
       </c>
       <c r="J81" s="3">
-        <v>4182700</v>
+        <v>4558400</v>
       </c>
       <c r="K81" s="3">
         <v>3997400</v>
@@ -2905,13 +2905,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>577900</v>
+        <v>629800</v>
       </c>
       <c r="E83" s="3">
-        <v>795500</v>
+        <v>867000</v>
       </c>
       <c r="F83" s="3">
-        <v>644900</v>
+        <v>702900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3018900</v>
+        <v>-3290100</v>
       </c>
       <c r="E89" s="3">
-        <v>7010500</v>
+        <v>7640300</v>
       </c>
       <c r="F89" s="3">
-        <v>15955200</v>
+        <v>17388400</v>
       </c>
       <c r="G89" s="3">
-        <v>7193000</v>
+        <v>7839100</v>
       </c>
       <c r="H89" s="3">
-        <v>14249300</v>
+        <v>15529300</v>
       </c>
       <c r="I89" s="3">
-        <v>3744100</v>
+        <v>4080500</v>
       </c>
       <c r="J89" s="3">
-        <v>10726800</v>
+        <v>11690400</v>
       </c>
       <c r="K89" s="3">
         <v>4500400</v>
@@ -3160,16 +3160,16 @@
         <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-223600</v>
+        <v>-243700</v>
       </c>
       <c r="H91" s="3">
-        <v>-213000</v>
+        <v>-232100</v>
       </c>
       <c r="I91" s="3">
-        <v>-245500</v>
+        <v>-267500</v>
       </c>
       <c r="J91" s="3">
-        <v>-236200</v>
+        <v>-257400</v>
       </c>
       <c r="K91" s="3">
         <v>-225700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-136700</v>
+        <v>-149000</v>
       </c>
       <c r="E94" s="3">
-        <v>110100</v>
+        <v>120000</v>
       </c>
       <c r="F94" s="3">
-        <v>-8512700</v>
+        <v>-9277400</v>
       </c>
       <c r="G94" s="3">
-        <v>-9561000</v>
+        <v>-10419900</v>
       </c>
       <c r="H94" s="3">
-        <v>-6486400</v>
+        <v>-7069000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1278600</v>
+        <v>-1393400</v>
       </c>
       <c r="J94" s="3">
-        <v>-5047200</v>
+        <v>-5500600</v>
       </c>
       <c r="K94" s="3">
         <v>-159200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2966500</v>
+        <v>-3233000</v>
       </c>
       <c r="E96" s="3">
-        <v>-3027600</v>
+        <v>-3299500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2910100</v>
+        <v>-3171500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3028200</v>
+        <v>-3300200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2496800</v>
+        <v>-2721000</v>
       </c>
       <c r="I96" s="3">
-        <v>-2539200</v>
+        <v>-2767300</v>
       </c>
       <c r="J96" s="3">
-        <v>-2140500</v>
+        <v>-2332700</v>
       </c>
       <c r="K96" s="3">
         <v>-1569900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1831900</v>
+        <v>-1996500</v>
       </c>
       <c r="E100" s="3">
-        <v>1738400</v>
+        <v>1894500</v>
       </c>
       <c r="F100" s="3">
-        <v>-4473300</v>
+        <v>-4875100</v>
       </c>
       <c r="G100" s="3">
-        <v>1299100</v>
+        <v>1415800</v>
       </c>
       <c r="H100" s="3">
-        <v>1355500</v>
+        <v>1477300</v>
       </c>
       <c r="I100" s="3">
-        <v>1854500</v>
+        <v>2021100</v>
       </c>
       <c r="J100" s="3">
-        <v>-2717700</v>
+        <v>-2961800</v>
       </c>
       <c r="K100" s="3">
         <v>4713400</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2769400</v>
+        <v>3018200</v>
       </c>
       <c r="E101" s="3">
-        <v>2364700</v>
+        <v>2577100</v>
       </c>
       <c r="F101" s="3">
-        <v>-1756300</v>
+        <v>-1914000</v>
       </c>
       <c r="G101" s="3">
-        <v>-960100</v>
+        <v>-1046300</v>
       </c>
       <c r="H101" s="3">
-        <v>4847500</v>
+        <v>5283000</v>
       </c>
       <c r="I101" s="3">
-        <v>402700</v>
+        <v>438900</v>
       </c>
       <c r="J101" s="3">
-        <v>756400</v>
+        <v>824300</v>
       </c>
       <c r="K101" s="3">
         <v>-968600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2218100</v>
+        <v>-2417300</v>
       </c>
       <c r="E102" s="3">
-        <v>11223800</v>
+        <v>12232000</v>
       </c>
       <c r="F102" s="3">
-        <v>1212900</v>
+        <v>1321800</v>
       </c>
       <c r="G102" s="3">
-        <v>-2029000</v>
+        <v>-2211200</v>
       </c>
       <c r="H102" s="3">
-        <v>13966000</v>
+        <v>15220500</v>
       </c>
       <c r="I102" s="3">
-        <v>4722800</v>
+        <v>5147000</v>
       </c>
       <c r="J102" s="3">
-        <v>3718300</v>
+        <v>4052300</v>
       </c>
       <c r="K102" s="3">
         <v>8086000</v>

--- a/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>ANZBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42277</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41912</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41547</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41182</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40816</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22471800</v>
+        <v>18041000</v>
       </c>
       <c r="E8" s="3">
-        <v>21929500</v>
+        <v>22953500</v>
       </c>
       <c r="F8" s="3">
-        <v>21056700</v>
+        <v>22399500</v>
       </c>
       <c r="G8" s="3">
-        <v>21657600</v>
+        <v>21508000</v>
       </c>
       <c r="H8" s="3">
-        <v>22073400</v>
+        <v>22121800</v>
       </c>
       <c r="I8" s="3">
-        <v>21348800</v>
+        <v>22546500</v>
       </c>
       <c r="J8" s="3">
+        <v>21806400</v>
+      </c>
+      <c r="K8" s="3">
         <v>20700200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21605600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22089400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-501800</v>
+        <v>-633700</v>
       </c>
       <c r="E15" s="3">
-        <v>-715900</v>
+        <v>-512600</v>
       </c>
       <c r="F15" s="3">
-        <v>-521400</v>
+        <v>-731200</v>
       </c>
       <c r="G15" s="3">
-        <v>-1066600</v>
+        <v>-532500</v>
       </c>
       <c r="H15" s="3">
-        <v>-690600</v>
+        <v>-1089400</v>
       </c>
       <c r="I15" s="3">
-        <v>-1232900</v>
+        <v>-705400</v>
       </c>
       <c r="J15" s="3">
+        <v>-1259300</v>
+      </c>
+      <c r="K15" s="3">
         <v>-1201100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-511500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-476000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12677400</v>
+        <v>9686700</v>
       </c>
       <c r="E17" s="3">
-        <v>11931900</v>
+        <v>12949100</v>
       </c>
       <c r="F17" s="3">
-        <v>11166800</v>
+        <v>12187600</v>
       </c>
       <c r="G17" s="3">
-        <v>12137200</v>
+        <v>11406200</v>
       </c>
       <c r="H17" s="3">
-        <v>12357100</v>
+        <v>12397400</v>
       </c>
       <c r="I17" s="3">
-        <v>12075800</v>
+        <v>12621900</v>
       </c>
       <c r="J17" s="3">
+        <v>12334600</v>
+      </c>
+      <c r="K17" s="3">
         <v>12333900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13885400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14642600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9794400</v>
+        <v>8354300</v>
       </c>
       <c r="E18" s="3">
-        <v>9997600</v>
+        <v>10004300</v>
       </c>
       <c r="F18" s="3">
-        <v>9889800</v>
+        <v>10211900</v>
       </c>
       <c r="G18" s="3">
-        <v>9520300</v>
+        <v>10101800</v>
       </c>
       <c r="H18" s="3">
-        <v>9716300</v>
+        <v>9724400</v>
       </c>
       <c r="I18" s="3">
-        <v>9273000</v>
+        <v>9924600</v>
       </c>
       <c r="J18" s="3">
+        <v>9471800</v>
+      </c>
+      <c r="K18" s="3">
         <v>8366300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7720200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7446800</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,55 +1082,59 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3344300</v>
+        <v>-4280200</v>
       </c>
       <c r="E20" s="3">
-        <v>-2842500</v>
+        <v>-3416000</v>
       </c>
       <c r="F20" s="3">
-        <v>-3213500</v>
+        <v>-2903400</v>
       </c>
       <c r="G20" s="3">
-        <v>-3606800</v>
+        <v>-3282300</v>
       </c>
       <c r="H20" s="3">
-        <v>-2099900</v>
+        <v>-3684100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1819300</v>
+        <v>-2144900</v>
       </c>
       <c r="J20" s="3">
+        <v>-1858300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1802700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2064500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1880000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7076600</v>
+        <v>5098000</v>
       </c>
       <c r="E21" s="3">
-        <v>8017600</v>
+        <v>7229500</v>
       </c>
       <c r="F21" s="3">
-        <v>7375600</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
+        <v>8191000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>7535000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
@@ -1115,9 +1151,12 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6450100</v>
+        <v>4074100</v>
       </c>
       <c r="E23" s="3">
-        <v>7155100</v>
+        <v>6588300</v>
       </c>
       <c r="F23" s="3">
-        <v>6676400</v>
+        <v>7308400</v>
       </c>
       <c r="G23" s="3">
-        <v>5913500</v>
+        <v>6819500</v>
       </c>
       <c r="H23" s="3">
-        <v>7616400</v>
+        <v>6040300</v>
       </c>
       <c r="I23" s="3">
-        <v>7453700</v>
+        <v>7779700</v>
       </c>
       <c r="J23" s="3">
+        <v>7613500</v>
+      </c>
+      <c r="K23" s="3">
         <v>6563600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5655800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5566800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1886600</v>
+        <v>1359000</v>
       </c>
       <c r="E24" s="3">
-        <v>2013100</v>
+        <v>1927000</v>
       </c>
       <c r="F24" s="3">
-        <v>2078200</v>
+        <v>2056300</v>
       </c>
       <c r="G24" s="3">
-        <v>1777400</v>
+        <v>2122700</v>
       </c>
       <c r="H24" s="3">
-        <v>2188100</v>
+        <v>1815500</v>
       </c>
       <c r="I24" s="3">
-        <v>2187400</v>
+        <v>2235000</v>
       </c>
       <c r="J24" s="3">
+        <v>2234300</v>
+      </c>
+      <c r="K24" s="3">
         <v>1993600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1646400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1675400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4563500</v>
+        <v>2715100</v>
       </c>
       <c r="E26" s="3">
-        <v>5142000</v>
+        <v>4661300</v>
       </c>
       <c r="F26" s="3">
-        <v>4598200</v>
+        <v>5252200</v>
       </c>
       <c r="G26" s="3">
-        <v>4136100</v>
+        <v>4696800</v>
       </c>
       <c r="H26" s="3">
-        <v>5428300</v>
+        <v>4224800</v>
       </c>
       <c r="I26" s="3">
-        <v>5266300</v>
+        <v>5544700</v>
       </c>
       <c r="J26" s="3">
+        <v>5379200</v>
+      </c>
+      <c r="K26" s="3">
         <v>4570000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4009400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3891400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4552600</v>
+        <v>2714400</v>
       </c>
       <c r="E27" s="3">
-        <v>5130400</v>
+        <v>4650200</v>
       </c>
       <c r="F27" s="3">
-        <v>4587300</v>
+        <v>5240400</v>
       </c>
       <c r="G27" s="3">
-        <v>4128200</v>
+        <v>4685700</v>
       </c>
       <c r="H27" s="3">
-        <v>5417500</v>
+        <v>4216700</v>
       </c>
       <c r="I27" s="3">
-        <v>5253300</v>
+        <v>5533600</v>
       </c>
       <c r="J27" s="3">
+        <v>5365900</v>
+      </c>
+      <c r="K27" s="3">
         <v>4558400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3997400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3876900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,23 +1403,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-248000</v>
+        <v>-72400</v>
       </c>
       <c r="E29" s="3">
-        <v>-502600</v>
+        <v>-253300</v>
       </c>
       <c r="F29" s="3">
-        <v>44800</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+        <v>-513300</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3344300</v>
+        <v>4280200</v>
       </c>
       <c r="E32" s="3">
-        <v>2842500</v>
+        <v>3416000</v>
       </c>
       <c r="F32" s="3">
-        <v>3213500</v>
+        <v>2903400</v>
       </c>
       <c r="G32" s="3">
-        <v>3606800</v>
+        <v>3282300</v>
       </c>
       <c r="H32" s="3">
-        <v>2099900</v>
+        <v>3684100</v>
       </c>
       <c r="I32" s="3">
-        <v>1819300</v>
+        <v>2144900</v>
       </c>
       <c r="J32" s="3">
+        <v>1858300</v>
+      </c>
+      <c r="K32" s="3">
         <v>1802700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2064500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1880000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4304600</v>
+        <v>2642000</v>
       </c>
       <c r="E33" s="3">
-        <v>4627800</v>
+        <v>4396900</v>
       </c>
       <c r="F33" s="3">
-        <v>4632200</v>
+        <v>4727000</v>
       </c>
       <c r="G33" s="3">
-        <v>4128200</v>
+        <v>4731500</v>
       </c>
       <c r="H33" s="3">
-        <v>5417500</v>
+        <v>4216700</v>
       </c>
       <c r="I33" s="3">
-        <v>5253300</v>
+        <v>5533600</v>
       </c>
       <c r="J33" s="3">
+        <v>5365900</v>
+      </c>
+      <c r="K33" s="3">
         <v>4558400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3997400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3876900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4304600</v>
+        <v>2642000</v>
       </c>
       <c r="E35" s="3">
-        <v>4627800</v>
+        <v>4396900</v>
       </c>
       <c r="F35" s="3">
-        <v>4632200</v>
+        <v>4727000</v>
       </c>
       <c r="G35" s="3">
-        <v>4128200</v>
+        <v>4731500</v>
       </c>
       <c r="H35" s="3">
-        <v>5417500</v>
+        <v>4216700</v>
       </c>
       <c r="I35" s="3">
-        <v>5253300</v>
+        <v>5533600</v>
       </c>
       <c r="J35" s="3">
+        <v>5365900</v>
+      </c>
+      <c r="K35" s="3">
         <v>4558400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3997400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3876900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42277</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41912</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41547</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41182</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40816</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49334200</v>
+        <v>63428000</v>
       </c>
       <c r="E41" s="3">
-        <v>109302000</v>
+        <v>50391700</v>
       </c>
       <c r="F41" s="3">
-        <v>44344100</v>
+        <v>111645000</v>
       </c>
       <c r="G41" s="3">
-        <v>43224700</v>
+        <v>45294600</v>
       </c>
       <c r="H41" s="3">
-        <v>51465200</v>
+        <v>44151300</v>
       </c>
       <c r="I41" s="3">
-        <v>38423400</v>
+        <v>52568400</v>
       </c>
       <c r="J41" s="3">
+        <v>39247000</v>
+      </c>
+      <c r="K41" s="3">
         <v>95665400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39025000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29336000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>147601000</v>
+        <v>174424000</v>
       </c>
       <c r="E42" s="3">
-        <v>105257000</v>
+        <v>150765000</v>
       </c>
       <c r="F42" s="3">
-        <v>98845600</v>
+        <v>107514000</v>
       </c>
       <c r="G42" s="3">
-        <v>121991000</v>
+        <v>100964000</v>
       </c>
       <c r="H42" s="3">
-        <v>113271000</v>
+        <v>124606000</v>
       </c>
       <c r="I42" s="3">
-        <v>87767700</v>
+        <v>115699000</v>
       </c>
       <c r="J42" s="3">
+        <v>89649100</v>
+      </c>
+      <c r="K42" s="3">
         <v>98412500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>49876600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>47841000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1944,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2138200</v>
+        <v>1598300</v>
       </c>
       <c r="E47" s="3">
-        <v>1846100</v>
+        <v>2184000</v>
       </c>
       <c r="F47" s="3">
-        <v>1625500</v>
+        <v>1885600</v>
       </c>
       <c r="G47" s="3">
-        <v>3089100</v>
+        <v>1660400</v>
       </c>
       <c r="H47" s="3">
-        <v>3933700</v>
+        <v>3155300</v>
       </c>
       <c r="I47" s="3">
-        <v>3313200</v>
+        <v>4018000</v>
       </c>
       <c r="J47" s="3">
+        <v>3384300</v>
+      </c>
+      <c r="K47" s="3">
         <v>2981300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2490400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2549000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1391200</v>
+        <v>2225400</v>
       </c>
       <c r="E48" s="3">
-        <v>1325400</v>
+        <v>1421100</v>
       </c>
       <c r="F48" s="3">
-        <v>1420900</v>
+        <v>1353900</v>
       </c>
       <c r="G48" s="3">
-        <v>1594400</v>
+        <v>1451300</v>
       </c>
       <c r="H48" s="3">
-        <v>1606000</v>
+        <v>1628600</v>
       </c>
       <c r="I48" s="3">
-        <v>1577100</v>
+        <v>1640400</v>
       </c>
       <c r="J48" s="3">
+        <v>1610900</v>
+      </c>
+      <c r="K48" s="3">
         <v>4694400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1495700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1541900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3515000</v>
+        <v>3234300</v>
       </c>
       <c r="E49" s="3">
-        <v>7129800</v>
+        <v>3590300</v>
       </c>
       <c r="F49" s="3">
-        <v>5040000</v>
+        <v>7282600</v>
       </c>
       <c r="G49" s="3">
-        <v>5547600</v>
+        <v>5148000</v>
       </c>
       <c r="H49" s="3">
-        <v>6010400</v>
+        <v>5666500</v>
       </c>
       <c r="I49" s="3">
-        <v>5748600</v>
+        <v>6139200</v>
       </c>
       <c r="J49" s="3">
+        <v>5871900</v>
+      </c>
+      <c r="K49" s="3">
         <v>16681900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5010500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5053100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2304500</v>
+        <v>1568800</v>
       </c>
       <c r="E52" s="3">
-        <v>32589400</v>
+        <v>2353900</v>
       </c>
       <c r="F52" s="3">
-        <v>6251200</v>
+        <v>33288000</v>
       </c>
       <c r="G52" s="3">
-        <v>450500</v>
+        <v>6385200</v>
       </c>
       <c r="H52" s="3">
-        <v>6122500</v>
+        <v>460100</v>
       </c>
       <c r="I52" s="3">
-        <v>301500</v>
+        <v>6253700</v>
       </c>
       <c r="J52" s="3">
+        <v>308000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1045600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>555400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>434600</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>709460000</v>
+        <v>769832000</v>
       </c>
       <c r="E54" s="3">
-        <v>682015000</v>
+        <v>724668000</v>
       </c>
       <c r="F54" s="3">
-        <v>648856000</v>
+        <v>696634000</v>
       </c>
       <c r="G54" s="3">
-        <v>661542000</v>
+        <v>662765000</v>
       </c>
       <c r="H54" s="3">
-        <v>643487000</v>
+        <v>675722000</v>
       </c>
       <c r="I54" s="3">
-        <v>558300000</v>
+        <v>657280000</v>
       </c>
       <c r="J54" s="3">
+        <v>570267000</v>
+      </c>
+      <c r="K54" s="3">
         <v>508336000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>454305000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>438417000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,41 +2267,45 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5761700</v>
+        <v>6741900</v>
       </c>
       <c r="E57" s="3">
-        <v>4985100</v>
+        <v>5885200</v>
       </c>
       <c r="F57" s="3">
-        <v>6037900</v>
+        <v>5091900</v>
       </c>
       <c r="G57" s="3">
-        <v>1173600</v>
+        <v>6167300</v>
       </c>
       <c r="H57" s="3">
-        <v>1201100</v>
+        <v>1198700</v>
       </c>
       <c r="I57" s="3">
-        <v>965300</v>
+        <v>1226800</v>
       </c>
       <c r="J57" s="3">
+        <v>986000</v>
+      </c>
+      <c r="K57" s="3">
         <v>8260000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>696200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>650100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2203,42 +2336,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>188000</v>
+        <v>257800</v>
       </c>
       <c r="E59" s="3">
-        <v>216900</v>
+        <v>192000</v>
       </c>
       <c r="F59" s="3">
-        <v>174300</v>
+        <v>221600</v>
       </c>
       <c r="G59" s="3">
-        <v>2301600</v>
+        <v>178000</v>
       </c>
       <c r="H59" s="3">
-        <v>2583600</v>
+        <v>2351000</v>
       </c>
       <c r="I59" s="3">
-        <v>2848300</v>
+        <v>2639000</v>
       </c>
       <c r="J59" s="3">
+        <v>2909300</v>
+      </c>
+      <c r="K59" s="3">
         <v>5984400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3394600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3828300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>93779600</v>
+        <v>88386800</v>
       </c>
       <c r="E61" s="3">
-        <v>87624500</v>
+        <v>95789800</v>
       </c>
       <c r="F61" s="3">
-        <v>78075300</v>
+        <v>89502800</v>
       </c>
       <c r="G61" s="3">
-        <v>82839800</v>
+        <v>79748900</v>
       </c>
       <c r="H61" s="3">
-        <v>81228700</v>
+        <v>84615500</v>
       </c>
       <c r="I61" s="3">
-        <v>68769000</v>
+        <v>82969900</v>
       </c>
       <c r="J61" s="3">
+        <v>70243100</v>
+      </c>
+      <c r="K61" s="3">
         <v>61121500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>53071000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>49735500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2081800</v>
+        <v>2404100</v>
       </c>
       <c r="E62" s="3">
-        <v>2920600</v>
+        <v>2126400</v>
       </c>
       <c r="F62" s="3">
-        <v>1023200</v>
+        <v>2983200</v>
       </c>
       <c r="G62" s="3">
-        <v>1075200</v>
+        <v>1045100</v>
       </c>
       <c r="H62" s="3">
-        <v>999300</v>
+        <v>1098300</v>
       </c>
       <c r="I62" s="3">
-        <v>910400</v>
+        <v>1020700</v>
       </c>
       <c r="J62" s="3">
+        <v>929900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1915500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>118200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>127700</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>665508000</v>
+        <v>724566000</v>
       </c>
       <c r="E66" s="3">
-        <v>639160000</v>
+        <v>679774000</v>
       </c>
       <c r="F66" s="3">
-        <v>606223000</v>
+        <v>652861000</v>
       </c>
       <c r="G66" s="3">
-        <v>619734000</v>
+        <v>619218000</v>
       </c>
       <c r="H66" s="3">
-        <v>602091000</v>
+        <v>633018000</v>
       </c>
       <c r="I66" s="3">
-        <v>522718000</v>
+        <v>614998000</v>
       </c>
       <c r="J66" s="3">
+        <v>533923000</v>
+      </c>
+      <c r="K66" s="3">
         <v>475405000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>425176000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>410912000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2570,20 +2737,23 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>629800</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>643300</v>
+      </c>
+      <c r="K70" s="3">
         <v>1259600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>616200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>632000</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23667800</v>
+        <v>24608700</v>
       </c>
       <c r="E72" s="3">
-        <v>23000400</v>
+        <v>24175100</v>
       </c>
       <c r="F72" s="3">
-        <v>21619200</v>
+        <v>23493400</v>
       </c>
       <c r="G72" s="3">
-        <v>20269200</v>
+        <v>22082700</v>
       </c>
       <c r="H72" s="3">
-        <v>19779700</v>
+        <v>20703700</v>
       </c>
       <c r="I72" s="3">
-        <v>17774500</v>
+        <v>20203700</v>
       </c>
       <c r="J72" s="3">
+        <v>18155500</v>
+      </c>
+      <c r="K72" s="3">
         <v>15981200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14046000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13018000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43952200</v>
+        <v>45266600</v>
       </c>
       <c r="E76" s="3">
-        <v>42854500</v>
+        <v>44894300</v>
       </c>
       <c r="F76" s="3">
-        <v>42633300</v>
+        <v>43773100</v>
       </c>
       <c r="G76" s="3">
-        <v>41808200</v>
+        <v>43547100</v>
       </c>
       <c r="H76" s="3">
-        <v>41395300</v>
+        <v>42704400</v>
       </c>
       <c r="I76" s="3">
-        <v>34951800</v>
+        <v>42282600</v>
       </c>
       <c r="J76" s="3">
+        <v>35701000</v>
+      </c>
+      <c r="K76" s="3">
         <v>31671100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28512300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26872600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42277</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41912</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41547</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41182</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40816</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4304600</v>
+        <v>2642000</v>
       </c>
       <c r="E81" s="3">
-        <v>4627800</v>
+        <v>4396900</v>
       </c>
       <c r="F81" s="3">
-        <v>4632200</v>
+        <v>4727000</v>
       </c>
       <c r="G81" s="3">
-        <v>4128200</v>
+        <v>4731500</v>
       </c>
       <c r="H81" s="3">
-        <v>5417500</v>
+        <v>4216700</v>
       </c>
       <c r="I81" s="3">
-        <v>5253300</v>
+        <v>5533600</v>
       </c>
       <c r="J81" s="3">
+        <v>5365900</v>
+      </c>
+      <c r="K81" s="3">
         <v>4558400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3997400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3876900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,22 +3096,23 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>629800</v>
+        <v>1027400</v>
       </c>
       <c r="E83" s="3">
-        <v>867000</v>
+        <v>643300</v>
       </c>
       <c r="F83" s="3">
-        <v>702900</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
+        <v>885600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>717900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
@@ -2931,9 +3129,12 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3290100</v>
+        <v>38617000</v>
       </c>
       <c r="E89" s="3">
-        <v>7640300</v>
+        <v>-3360600</v>
       </c>
       <c r="F89" s="3">
-        <v>17388400</v>
+        <v>7804000</v>
       </c>
       <c r="G89" s="3">
-        <v>7839100</v>
+        <v>17761100</v>
       </c>
       <c r="H89" s="3">
-        <v>15529300</v>
+        <v>8007200</v>
       </c>
       <c r="I89" s="3">
-        <v>4080500</v>
+        <v>15862200</v>
       </c>
       <c r="J89" s="3">
+        <v>4167900</v>
+      </c>
+      <c r="K89" s="3">
         <v>11690400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4500400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13642000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,8 +3364,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3159,27 +3379,30 @@
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
-        <v>-243700</v>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>-232100</v>
+        <v>-248900</v>
       </c>
       <c r="I91" s="3">
-        <v>-267500</v>
+        <v>-237100</v>
       </c>
       <c r="J91" s="3">
+        <v>-273300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-257400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-225700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-231500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-149000</v>
+        <v>-8468000</v>
       </c>
       <c r="E94" s="3">
-        <v>120000</v>
+        <v>-152200</v>
       </c>
       <c r="F94" s="3">
-        <v>-9277400</v>
+        <v>122600</v>
       </c>
       <c r="G94" s="3">
-        <v>-10419900</v>
+        <v>-9476200</v>
       </c>
       <c r="H94" s="3">
-        <v>-7069000</v>
+        <v>-10643200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1393400</v>
+        <v>-7220600</v>
       </c>
       <c r="J94" s="3">
+        <v>-1423300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5500600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-159200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1836500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3233000</v>
+        <v>-2113100</v>
       </c>
       <c r="E96" s="3">
-        <v>-3299500</v>
+        <v>-3302300</v>
       </c>
       <c r="F96" s="3">
-        <v>-3171500</v>
+        <v>-3370200</v>
       </c>
       <c r="G96" s="3">
-        <v>-3300200</v>
+        <v>-3239500</v>
       </c>
       <c r="H96" s="3">
-        <v>-2721000</v>
+        <v>-3371000</v>
       </c>
       <c r="I96" s="3">
-        <v>-2767300</v>
+        <v>-2779400</v>
       </c>
       <c r="J96" s="3">
+        <v>-2826600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2332700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1569900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1533200</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1996500</v>
+        <v>-9183800</v>
       </c>
       <c r="E100" s="3">
-        <v>1894500</v>
+        <v>-2039300</v>
       </c>
       <c r="F100" s="3">
-        <v>-4875100</v>
+        <v>1935100</v>
       </c>
       <c r="G100" s="3">
-        <v>1415800</v>
+        <v>-4979600</v>
       </c>
       <c r="H100" s="3">
-        <v>1477300</v>
+        <v>1446200</v>
       </c>
       <c r="I100" s="3">
-        <v>2021100</v>
+        <v>1509000</v>
       </c>
       <c r="J100" s="3">
+        <v>2064400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2961800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4713400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5387600</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3018200</v>
+        <v>-1538500</v>
       </c>
       <c r="E101" s="3">
-        <v>2577100</v>
+        <v>3082900</v>
       </c>
       <c r="F101" s="3">
-        <v>-1914000</v>
+        <v>2632400</v>
       </c>
       <c r="G101" s="3">
-        <v>-1046300</v>
+        <v>-1955100</v>
       </c>
       <c r="H101" s="3">
-        <v>5283000</v>
+        <v>-1068800</v>
       </c>
       <c r="I101" s="3">
-        <v>438900</v>
+        <v>5396200</v>
       </c>
       <c r="J101" s="3">
+        <v>448300</v>
+      </c>
+      <c r="K101" s="3">
         <v>824300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-968600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>410700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2417300</v>
+        <v>19426700</v>
       </c>
       <c r="E102" s="3">
-        <v>12232000</v>
+        <v>-2469100</v>
       </c>
       <c r="F102" s="3">
-        <v>1321800</v>
+        <v>12494200</v>
       </c>
       <c r="G102" s="3">
-        <v>-2211200</v>
+        <v>1350200</v>
       </c>
       <c r="H102" s="3">
-        <v>15220500</v>
+        <v>-2258600</v>
       </c>
       <c r="I102" s="3">
-        <v>5147000</v>
+        <v>15546800</v>
       </c>
       <c r="J102" s="3">
+        <v>5257400</v>
+      </c>
+      <c r="K102" s="3">
         <v>4052300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8086000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6828600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18041000</v>
+        <v>18512500</v>
       </c>
       <c r="E8" s="3">
-        <v>22953500</v>
+        <v>23553300</v>
       </c>
       <c r="F8" s="3">
-        <v>22399500</v>
+        <v>22984800</v>
       </c>
       <c r="G8" s="3">
-        <v>21508000</v>
+        <v>22070000</v>
       </c>
       <c r="H8" s="3">
-        <v>22121800</v>
+        <v>22699900</v>
       </c>
       <c r="I8" s="3">
-        <v>22546500</v>
+        <v>23135700</v>
       </c>
       <c r="J8" s="3">
-        <v>21806400</v>
+        <v>22376200</v>
       </c>
       <c r="K8" s="3">
         <v>20700200</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-633700</v>
+        <v>-650300</v>
       </c>
       <c r="E15" s="3">
-        <v>-512600</v>
+        <v>-526000</v>
       </c>
       <c r="F15" s="3">
-        <v>-731200</v>
+        <v>-750300</v>
       </c>
       <c r="G15" s="3">
-        <v>-532500</v>
+        <v>-546400</v>
       </c>
       <c r="H15" s="3">
-        <v>-1089400</v>
+        <v>-1117900</v>
       </c>
       <c r="I15" s="3">
-        <v>-705400</v>
+        <v>-723800</v>
       </c>
       <c r="J15" s="3">
-        <v>-1259300</v>
+        <v>-1292200</v>
       </c>
       <c r="K15" s="3">
         <v>-1201100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9686700</v>
+        <v>9939900</v>
       </c>
       <c r="E17" s="3">
-        <v>12949100</v>
+        <v>13287500</v>
       </c>
       <c r="F17" s="3">
-        <v>12187600</v>
+        <v>12506100</v>
       </c>
       <c r="G17" s="3">
-        <v>11406200</v>
+        <v>11704200</v>
       </c>
       <c r="H17" s="3">
-        <v>12397400</v>
+        <v>12721400</v>
       </c>
       <c r="I17" s="3">
-        <v>12621900</v>
+        <v>12951800</v>
       </c>
       <c r="J17" s="3">
-        <v>12334600</v>
+        <v>12656900</v>
       </c>
       <c r="K17" s="3">
         <v>12333900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8354300</v>
+        <v>8572600</v>
       </c>
       <c r="E18" s="3">
-        <v>10004300</v>
+        <v>10265800</v>
       </c>
       <c r="F18" s="3">
-        <v>10211900</v>
+        <v>10478700</v>
       </c>
       <c r="G18" s="3">
-        <v>10101800</v>
+        <v>10365800</v>
       </c>
       <c r="H18" s="3">
-        <v>9724400</v>
+        <v>9978500</v>
       </c>
       <c r="I18" s="3">
-        <v>9924600</v>
+        <v>10183900</v>
       </c>
       <c r="J18" s="3">
-        <v>9471800</v>
+        <v>9719300</v>
       </c>
       <c r="K18" s="3">
         <v>8366300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4280200</v>
+        <v>-4392000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3416000</v>
+        <v>-3505300</v>
       </c>
       <c r="F20" s="3">
-        <v>-2903400</v>
+        <v>-2979300</v>
       </c>
       <c r="G20" s="3">
-        <v>-3282300</v>
+        <v>-3368100</v>
       </c>
       <c r="H20" s="3">
-        <v>-3684100</v>
+        <v>-3780400</v>
       </c>
       <c r="I20" s="3">
-        <v>-2144900</v>
+        <v>-2200900</v>
       </c>
       <c r="J20" s="3">
-        <v>-1858300</v>
+        <v>-1906900</v>
       </c>
       <c r="K20" s="3">
         <v>-1802700</v>
@@ -1125,16 +1125,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5098000</v>
+        <v>5235200</v>
       </c>
       <c r="E21" s="3">
-        <v>7229500</v>
+        <v>7420900</v>
       </c>
       <c r="F21" s="3">
-        <v>8191000</v>
+        <v>8408500</v>
       </c>
       <c r="G21" s="3">
-        <v>7535000</v>
+        <v>7734700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4074100</v>
+        <v>4180600</v>
       </c>
       <c r="E23" s="3">
-        <v>6588300</v>
+        <v>6760500</v>
       </c>
       <c r="F23" s="3">
-        <v>7308400</v>
+        <v>7499400</v>
       </c>
       <c r="G23" s="3">
-        <v>6819500</v>
+        <v>6997700</v>
       </c>
       <c r="H23" s="3">
-        <v>6040300</v>
+        <v>6198100</v>
       </c>
       <c r="I23" s="3">
-        <v>7779700</v>
+        <v>7983000</v>
       </c>
       <c r="J23" s="3">
-        <v>7613500</v>
+        <v>7812400</v>
       </c>
       <c r="K23" s="3">
         <v>6563600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1359000</v>
+        <v>1394500</v>
       </c>
       <c r="E24" s="3">
-        <v>1927000</v>
+        <v>1977400</v>
       </c>
       <c r="F24" s="3">
-        <v>2056300</v>
+        <v>2110000</v>
       </c>
       <c r="G24" s="3">
-        <v>2122700</v>
+        <v>2178200</v>
       </c>
       <c r="H24" s="3">
-        <v>1815500</v>
+        <v>1862900</v>
       </c>
       <c r="I24" s="3">
-        <v>2235000</v>
+        <v>2293400</v>
       </c>
       <c r="J24" s="3">
-        <v>2234300</v>
+        <v>2292600</v>
       </c>
       <c r="K24" s="3">
         <v>1993600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2715100</v>
+        <v>2786000</v>
       </c>
       <c r="E26" s="3">
-        <v>4661300</v>
+        <v>4783100</v>
       </c>
       <c r="F26" s="3">
-        <v>5252200</v>
+        <v>5389400</v>
       </c>
       <c r="G26" s="3">
-        <v>4696800</v>
+        <v>4819500</v>
       </c>
       <c r="H26" s="3">
-        <v>4224800</v>
+        <v>4335200</v>
       </c>
       <c r="I26" s="3">
-        <v>5544700</v>
+        <v>5689600</v>
       </c>
       <c r="J26" s="3">
-        <v>5379200</v>
+        <v>5519800</v>
       </c>
       <c r="K26" s="3">
         <v>4570000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2714400</v>
+        <v>2785300</v>
       </c>
       <c r="E27" s="3">
-        <v>4650200</v>
+        <v>4771700</v>
       </c>
       <c r="F27" s="3">
-        <v>5240400</v>
+        <v>5377300</v>
       </c>
       <c r="G27" s="3">
-        <v>4685700</v>
+        <v>4808100</v>
       </c>
       <c r="H27" s="3">
-        <v>4216700</v>
+        <v>4326900</v>
       </c>
       <c r="I27" s="3">
-        <v>5533600</v>
+        <v>5678200</v>
       </c>
       <c r="J27" s="3">
-        <v>5365900</v>
+        <v>5506100</v>
       </c>
       <c r="K27" s="3">
         <v>4558400</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-72400</v>
+        <v>-74300</v>
       </c>
       <c r="E29" s="3">
-        <v>-253300</v>
+        <v>-260000</v>
       </c>
       <c r="F29" s="3">
-        <v>-513300</v>
+        <v>-526700</v>
       </c>
       <c r="G29" s="3">
-        <v>45800</v>
+        <v>47000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4280200</v>
+        <v>4392000</v>
       </c>
       <c r="E32" s="3">
-        <v>3416000</v>
+        <v>3505300</v>
       </c>
       <c r="F32" s="3">
-        <v>2903400</v>
+        <v>2979300</v>
       </c>
       <c r="G32" s="3">
-        <v>3282300</v>
+        <v>3368100</v>
       </c>
       <c r="H32" s="3">
-        <v>3684100</v>
+        <v>3780400</v>
       </c>
       <c r="I32" s="3">
-        <v>2144900</v>
+        <v>2200900</v>
       </c>
       <c r="J32" s="3">
-        <v>1858300</v>
+        <v>1906900</v>
       </c>
       <c r="K32" s="3">
         <v>1802700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2642000</v>
+        <v>2711000</v>
       </c>
       <c r="E33" s="3">
-        <v>4396900</v>
+        <v>4511800</v>
       </c>
       <c r="F33" s="3">
-        <v>4727000</v>
+        <v>4850600</v>
       </c>
       <c r="G33" s="3">
-        <v>4731500</v>
+        <v>4855100</v>
       </c>
       <c r="H33" s="3">
-        <v>4216700</v>
+        <v>4326900</v>
       </c>
       <c r="I33" s="3">
-        <v>5533600</v>
+        <v>5678200</v>
       </c>
       <c r="J33" s="3">
-        <v>5365900</v>
+        <v>5506100</v>
       </c>
       <c r="K33" s="3">
         <v>4558400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2642000</v>
+        <v>2711000</v>
       </c>
       <c r="E35" s="3">
-        <v>4396900</v>
+        <v>4511800</v>
       </c>
       <c r="F35" s="3">
-        <v>4727000</v>
+        <v>4850600</v>
       </c>
       <c r="G35" s="3">
-        <v>4731500</v>
+        <v>4855100</v>
       </c>
       <c r="H35" s="3">
-        <v>4216700</v>
+        <v>4326900</v>
       </c>
       <c r="I35" s="3">
-        <v>5533600</v>
+        <v>5678200</v>
       </c>
       <c r="J35" s="3">
-        <v>5365900</v>
+        <v>5506100</v>
       </c>
       <c r="K35" s="3">
         <v>4558400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>63428000</v>
+        <v>65085400</v>
       </c>
       <c r="E41" s="3">
-        <v>50391700</v>
+        <v>51708500</v>
       </c>
       <c r="F41" s="3">
-        <v>111645000</v>
+        <v>114563000</v>
       </c>
       <c r="G41" s="3">
-        <v>45294600</v>
+        <v>46478200</v>
       </c>
       <c r="H41" s="3">
-        <v>44151300</v>
+        <v>45305000</v>
       </c>
       <c r="I41" s="3">
-        <v>52568400</v>
+        <v>53942000</v>
       </c>
       <c r="J41" s="3">
-        <v>39247000</v>
+        <v>40272500</v>
       </c>
       <c r="K41" s="3">
         <v>95665400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>174424000</v>
+        <v>178982000</v>
       </c>
       <c r="E42" s="3">
-        <v>150765000</v>
+        <v>154704000</v>
       </c>
       <c r="F42" s="3">
-        <v>107514000</v>
+        <v>110323000</v>
       </c>
       <c r="G42" s="3">
-        <v>100964000</v>
+        <v>103603000</v>
       </c>
       <c r="H42" s="3">
-        <v>124606000</v>
+        <v>127862000</v>
       </c>
       <c r="I42" s="3">
-        <v>115699000</v>
+        <v>118722000</v>
       </c>
       <c r="J42" s="3">
-        <v>89649100</v>
+        <v>91991600</v>
       </c>
       <c r="K42" s="3">
         <v>98412500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1598300</v>
+        <v>1640100</v>
       </c>
       <c r="E47" s="3">
-        <v>2184000</v>
+        <v>2241100</v>
       </c>
       <c r="F47" s="3">
-        <v>1885600</v>
+        <v>1934900</v>
       </c>
       <c r="G47" s="3">
-        <v>1660400</v>
+        <v>1703800</v>
       </c>
       <c r="H47" s="3">
-        <v>3155300</v>
+        <v>3237700</v>
       </c>
       <c r="I47" s="3">
-        <v>4018000</v>
+        <v>4123000</v>
       </c>
       <c r="J47" s="3">
-        <v>3384300</v>
+        <v>3472700</v>
       </c>
       <c r="K47" s="3">
         <v>2981300</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2225400</v>
+        <v>2283600</v>
       </c>
       <c r="E48" s="3">
-        <v>1421100</v>
+        <v>1458200</v>
       </c>
       <c r="F48" s="3">
-        <v>1353900</v>
+        <v>1389200</v>
       </c>
       <c r="G48" s="3">
-        <v>1451300</v>
+        <v>1489300</v>
       </c>
       <c r="H48" s="3">
-        <v>1628600</v>
+        <v>1671200</v>
       </c>
       <c r="I48" s="3">
-        <v>1640400</v>
+        <v>1683300</v>
       </c>
       <c r="J48" s="3">
-        <v>1610900</v>
+        <v>1653000</v>
       </c>
       <c r="K48" s="3">
         <v>4694400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3234300</v>
+        <v>3318800</v>
       </c>
       <c r="E49" s="3">
-        <v>3590300</v>
+        <v>3684200</v>
       </c>
       <c r="F49" s="3">
-        <v>7282600</v>
+        <v>7472900</v>
       </c>
       <c r="G49" s="3">
-        <v>5148000</v>
+        <v>5282600</v>
       </c>
       <c r="H49" s="3">
-        <v>5666500</v>
+        <v>5814600</v>
       </c>
       <c r="I49" s="3">
-        <v>6139200</v>
+        <v>6299700</v>
       </c>
       <c r="J49" s="3">
-        <v>5871900</v>
+        <v>6025300</v>
       </c>
       <c r="K49" s="3">
         <v>16681900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1568800</v>
+        <v>1609800</v>
       </c>
       <c r="E52" s="3">
-        <v>2353900</v>
+        <v>2415400</v>
       </c>
       <c r="F52" s="3">
-        <v>33288000</v>
+        <v>34157800</v>
       </c>
       <c r="G52" s="3">
-        <v>6385200</v>
+        <v>6552000</v>
       </c>
       <c r="H52" s="3">
-        <v>460100</v>
+        <v>472200</v>
       </c>
       <c r="I52" s="3">
-        <v>6253700</v>
+        <v>6417100</v>
       </c>
       <c r="J52" s="3">
-        <v>308000</v>
+        <v>316000</v>
       </c>
       <c r="K52" s="3">
         <v>1045600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>769832000</v>
+        <v>789949000</v>
       </c>
       <c r="E54" s="3">
-        <v>724668000</v>
+        <v>743604000</v>
       </c>
       <c r="F54" s="3">
-        <v>696634000</v>
+        <v>714838000</v>
       </c>
       <c r="G54" s="3">
-        <v>662765000</v>
+        <v>680083000</v>
       </c>
       <c r="H54" s="3">
-        <v>675722000</v>
+        <v>693379000</v>
       </c>
       <c r="I54" s="3">
-        <v>657280000</v>
+        <v>674455000</v>
       </c>
       <c r="J54" s="3">
-        <v>570267000</v>
+        <v>585169000</v>
       </c>
       <c r="K54" s="3">
         <v>508336000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6741900</v>
+        <v>6918100</v>
       </c>
       <c r="E57" s="3">
-        <v>5885200</v>
+        <v>6038900</v>
       </c>
       <c r="F57" s="3">
-        <v>5091900</v>
+        <v>5225000</v>
       </c>
       <c r="G57" s="3">
-        <v>6167300</v>
+        <v>6328500</v>
       </c>
       <c r="H57" s="3">
-        <v>1198700</v>
+        <v>1230100</v>
       </c>
       <c r="I57" s="3">
-        <v>1226800</v>
+        <v>1258900</v>
       </c>
       <c r="J57" s="3">
-        <v>986000</v>
+        <v>1011800</v>
       </c>
       <c r="K57" s="3">
         <v>8260000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>257800</v>
+        <v>264500</v>
       </c>
       <c r="E59" s="3">
-        <v>192000</v>
+        <v>197100</v>
       </c>
       <c r="F59" s="3">
-        <v>221600</v>
+        <v>227400</v>
       </c>
       <c r="G59" s="3">
-        <v>178000</v>
+        <v>182700</v>
       </c>
       <c r="H59" s="3">
-        <v>2351000</v>
+        <v>2412400</v>
       </c>
       <c r="I59" s="3">
-        <v>2639000</v>
+        <v>2708000</v>
       </c>
       <c r="J59" s="3">
-        <v>2909300</v>
+        <v>2985400</v>
       </c>
       <c r="K59" s="3">
         <v>5984400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>88386800</v>
+        <v>90696400</v>
       </c>
       <c r="E61" s="3">
-        <v>95789800</v>
+        <v>98292800</v>
       </c>
       <c r="F61" s="3">
-        <v>89502800</v>
+        <v>91841600</v>
       </c>
       <c r="G61" s="3">
-        <v>79748900</v>
+        <v>81832700</v>
       </c>
       <c r="H61" s="3">
-        <v>84615500</v>
+        <v>86826500</v>
       </c>
       <c r="I61" s="3">
-        <v>82969900</v>
+        <v>85137900</v>
       </c>
       <c r="J61" s="3">
-        <v>70243100</v>
+        <v>72078600</v>
       </c>
       <c r="K61" s="3">
         <v>61121500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2404100</v>
+        <v>2467000</v>
       </c>
       <c r="E62" s="3">
-        <v>2126400</v>
+        <v>2182000</v>
       </c>
       <c r="F62" s="3">
-        <v>2983200</v>
+        <v>3061200</v>
       </c>
       <c r="G62" s="3">
-        <v>1045100</v>
+        <v>1072400</v>
       </c>
       <c r="H62" s="3">
-        <v>1098300</v>
+        <v>1127000</v>
       </c>
       <c r="I62" s="3">
-        <v>1020700</v>
+        <v>1047400</v>
       </c>
       <c r="J62" s="3">
-        <v>929900</v>
+        <v>954200</v>
       </c>
       <c r="K62" s="3">
         <v>1915500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>724566000</v>
+        <v>743499000</v>
       </c>
       <c r="E66" s="3">
-        <v>679774000</v>
+        <v>697536000</v>
       </c>
       <c r="F66" s="3">
-        <v>652861000</v>
+        <v>669921000</v>
       </c>
       <c r="G66" s="3">
-        <v>619218000</v>
+        <v>635398000</v>
       </c>
       <c r="H66" s="3">
-        <v>633018000</v>
+        <v>649559000</v>
       </c>
       <c r="I66" s="3">
-        <v>614998000</v>
+        <v>631068000</v>
       </c>
       <c r="J66" s="3">
-        <v>533923000</v>
+        <v>547875000</v>
       </c>
       <c r="K66" s="3">
         <v>475405000</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>643300</v>
+        <v>660100</v>
       </c>
       <c r="K70" s="3">
         <v>1259600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24608700</v>
+        <v>25251700</v>
       </c>
       <c r="E72" s="3">
-        <v>24175100</v>
+        <v>24806800</v>
       </c>
       <c r="F72" s="3">
-        <v>23493400</v>
+        <v>24107300</v>
       </c>
       <c r="G72" s="3">
-        <v>22082700</v>
+        <v>22659700</v>
       </c>
       <c r="H72" s="3">
-        <v>20703700</v>
+        <v>21244700</v>
       </c>
       <c r="I72" s="3">
-        <v>20203700</v>
+        <v>20731600</v>
       </c>
       <c r="J72" s="3">
-        <v>18155500</v>
+        <v>18629900</v>
       </c>
       <c r="K72" s="3">
         <v>15981200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45266600</v>
+        <v>46449400</v>
       </c>
       <c r="E76" s="3">
-        <v>44894300</v>
+        <v>46067400</v>
       </c>
       <c r="F76" s="3">
-        <v>43773100</v>
+        <v>44916900</v>
       </c>
       <c r="G76" s="3">
-        <v>43547100</v>
+        <v>44685000</v>
       </c>
       <c r="H76" s="3">
-        <v>42704400</v>
+        <v>43820300</v>
       </c>
       <c r="I76" s="3">
-        <v>42282600</v>
+        <v>43387500</v>
       </c>
       <c r="J76" s="3">
-        <v>35701000</v>
+        <v>36633900</v>
       </c>
       <c r="K76" s="3">
         <v>31671100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2642000</v>
+        <v>2711000</v>
       </c>
       <c r="E81" s="3">
-        <v>4396900</v>
+        <v>4511800</v>
       </c>
       <c r="F81" s="3">
-        <v>4727000</v>
+        <v>4850600</v>
       </c>
       <c r="G81" s="3">
-        <v>4731500</v>
+        <v>4855100</v>
       </c>
       <c r="H81" s="3">
-        <v>4216700</v>
+        <v>4326900</v>
       </c>
       <c r="I81" s="3">
-        <v>5533600</v>
+        <v>5678200</v>
       </c>
       <c r="J81" s="3">
-        <v>5365900</v>
+        <v>5506100</v>
       </c>
       <c r="K81" s="3">
         <v>4558400</v>
@@ -3103,16 +3103,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1027400</v>
+        <v>1054200</v>
       </c>
       <c r="E83" s="3">
-        <v>643300</v>
+        <v>660100</v>
       </c>
       <c r="F83" s="3">
-        <v>885600</v>
+        <v>908700</v>
       </c>
       <c r="G83" s="3">
-        <v>717900</v>
+        <v>736700</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>38617000</v>
+        <v>39626000</v>
       </c>
       <c r="E89" s="3">
-        <v>-3360600</v>
+        <v>-3448400</v>
       </c>
       <c r="F89" s="3">
-        <v>7804000</v>
+        <v>8008000</v>
       </c>
       <c r="G89" s="3">
-        <v>17761100</v>
+        <v>18225200</v>
       </c>
       <c r="H89" s="3">
-        <v>8007200</v>
+        <v>8216400</v>
       </c>
       <c r="I89" s="3">
-        <v>15862200</v>
+        <v>16276700</v>
       </c>
       <c r="J89" s="3">
-        <v>4167900</v>
+        <v>4276800</v>
       </c>
       <c r="K89" s="3">
         <v>11690400</v>
@@ -3383,13 +3383,13 @@
         <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>-248900</v>
+        <v>-255400</v>
       </c>
       <c r="I91" s="3">
-        <v>-237100</v>
+        <v>-243300</v>
       </c>
       <c r="J91" s="3">
-        <v>-273300</v>
+        <v>-280400</v>
       </c>
       <c r="K91" s="3">
         <v>-257400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8468000</v>
+        <v>-8689300</v>
       </c>
       <c r="E94" s="3">
-        <v>-152200</v>
+        <v>-156100</v>
       </c>
       <c r="F94" s="3">
-        <v>122600</v>
+        <v>125800</v>
       </c>
       <c r="G94" s="3">
-        <v>-9476200</v>
+        <v>-9723900</v>
       </c>
       <c r="H94" s="3">
-        <v>-10643200</v>
+        <v>-10921300</v>
       </c>
       <c r="I94" s="3">
-        <v>-7220600</v>
+        <v>-7409200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1423300</v>
+        <v>-1460500</v>
       </c>
       <c r="K94" s="3">
         <v>-5500600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2113100</v>
+        <v>-2168400</v>
       </c>
       <c r="E96" s="3">
-        <v>-3302300</v>
+        <v>-3388600</v>
       </c>
       <c r="F96" s="3">
-        <v>-3370200</v>
+        <v>-3458300</v>
       </c>
       <c r="G96" s="3">
-        <v>-3239500</v>
+        <v>-3324100</v>
       </c>
       <c r="H96" s="3">
-        <v>-3371000</v>
+        <v>-3459100</v>
       </c>
       <c r="I96" s="3">
-        <v>-2779400</v>
+        <v>-2852000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2826600</v>
+        <v>-2900500</v>
       </c>
       <c r="K96" s="3">
         <v>-2332700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9183800</v>
+        <v>-9423700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2039300</v>
+        <v>-2092600</v>
       </c>
       <c r="F100" s="3">
-        <v>1935100</v>
+        <v>1985700</v>
       </c>
       <c r="G100" s="3">
-        <v>-4979600</v>
+        <v>-5109800</v>
       </c>
       <c r="H100" s="3">
-        <v>1446200</v>
+        <v>1484000</v>
       </c>
       <c r="I100" s="3">
-        <v>1509000</v>
+        <v>1548400</v>
       </c>
       <c r="J100" s="3">
-        <v>2064400</v>
+        <v>2118300</v>
       </c>
       <c r="K100" s="3">
         <v>-2961800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1538500</v>
+        <v>-1578700</v>
       </c>
       <c r="E101" s="3">
-        <v>3082900</v>
+        <v>3163500</v>
       </c>
       <c r="F101" s="3">
-        <v>2632400</v>
+        <v>2701200</v>
       </c>
       <c r="G101" s="3">
-        <v>-1955100</v>
+        <v>-2006200</v>
       </c>
       <c r="H101" s="3">
-        <v>-1068800</v>
+        <v>-1096700</v>
       </c>
       <c r="I101" s="3">
-        <v>5396200</v>
+        <v>5537200</v>
       </c>
       <c r="J101" s="3">
-        <v>448300</v>
+        <v>460000</v>
       </c>
       <c r="K101" s="3">
         <v>824300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19426700</v>
+        <v>19934300</v>
       </c>
       <c r="E102" s="3">
-        <v>-2469100</v>
+        <v>-2533700</v>
       </c>
       <c r="F102" s="3">
-        <v>12494200</v>
+        <v>12820600</v>
       </c>
       <c r="G102" s="3">
-        <v>1350200</v>
+        <v>1385400</v>
       </c>
       <c r="H102" s="3">
-        <v>-2258600</v>
+        <v>-2317700</v>
       </c>
       <c r="I102" s="3">
-        <v>15546800</v>
+        <v>15953000</v>
       </c>
       <c r="J102" s="3">
-        <v>5257400</v>
+        <v>5394700</v>
       </c>
       <c r="K102" s="3">
         <v>4052300</v>

--- a/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18512500</v>
+        <v>18930200</v>
       </c>
       <c r="E8" s="3">
-        <v>23553300</v>
+        <v>24084700</v>
       </c>
       <c r="F8" s="3">
-        <v>22984800</v>
+        <v>23503400</v>
       </c>
       <c r="G8" s="3">
-        <v>22070000</v>
+        <v>22568000</v>
       </c>
       <c r="H8" s="3">
-        <v>22699900</v>
+        <v>23212000</v>
       </c>
       <c r="I8" s="3">
-        <v>23135700</v>
+        <v>23657700</v>
       </c>
       <c r="J8" s="3">
-        <v>22376200</v>
+        <v>22881100</v>
       </c>
       <c r="K8" s="3">
         <v>20700200</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-650300</v>
+        <v>-665000</v>
       </c>
       <c r="E15" s="3">
-        <v>-526000</v>
+        <v>-537900</v>
       </c>
       <c r="F15" s="3">
-        <v>-750300</v>
+        <v>-767300</v>
       </c>
       <c r="G15" s="3">
-        <v>-546400</v>
+        <v>-558800</v>
       </c>
       <c r="H15" s="3">
-        <v>-1117900</v>
+        <v>-1143100</v>
       </c>
       <c r="I15" s="3">
-        <v>-723800</v>
+        <v>-740100</v>
       </c>
       <c r="J15" s="3">
-        <v>-1292200</v>
+        <v>-1321400</v>
       </c>
       <c r="K15" s="3">
         <v>-1201100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9939900</v>
+        <v>10164100</v>
       </c>
       <c r="E17" s="3">
-        <v>13287500</v>
+        <v>13587300</v>
       </c>
       <c r="F17" s="3">
-        <v>12506100</v>
+        <v>12788300</v>
       </c>
       <c r="G17" s="3">
-        <v>11704200</v>
+        <v>11968300</v>
       </c>
       <c r="H17" s="3">
-        <v>12721400</v>
+        <v>13008400</v>
       </c>
       <c r="I17" s="3">
-        <v>12951800</v>
+        <v>13244000</v>
       </c>
       <c r="J17" s="3">
-        <v>12656900</v>
+        <v>12942500</v>
       </c>
       <c r="K17" s="3">
         <v>12333900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8572600</v>
+        <v>8766000</v>
       </c>
       <c r="E18" s="3">
-        <v>10265800</v>
+        <v>10497400</v>
       </c>
       <c r="F18" s="3">
-        <v>10478700</v>
+        <v>10715200</v>
       </c>
       <c r="G18" s="3">
-        <v>10365800</v>
+        <v>10599700</v>
       </c>
       <c r="H18" s="3">
-        <v>9978500</v>
+        <v>10203700</v>
       </c>
       <c r="I18" s="3">
-        <v>10183900</v>
+        <v>10413700</v>
       </c>
       <c r="J18" s="3">
-        <v>9719300</v>
+        <v>9938600</v>
       </c>
       <c r="K18" s="3">
         <v>8366300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4392000</v>
+        <v>-4491100</v>
       </c>
       <c r="E20" s="3">
-        <v>-3505300</v>
+        <v>-3584400</v>
       </c>
       <c r="F20" s="3">
-        <v>-2979300</v>
+        <v>-3046500</v>
       </c>
       <c r="G20" s="3">
-        <v>-3368100</v>
+        <v>-3444100</v>
       </c>
       <c r="H20" s="3">
-        <v>-3780400</v>
+        <v>-3865700</v>
       </c>
       <c r="I20" s="3">
-        <v>-2200900</v>
+        <v>-2250600</v>
       </c>
       <c r="J20" s="3">
-        <v>-1906900</v>
+        <v>-1949900</v>
       </c>
       <c r="K20" s="3">
         <v>-1802700</v>
@@ -1125,16 +1125,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5235200</v>
+        <v>5353200</v>
       </c>
       <c r="E21" s="3">
-        <v>7420900</v>
+        <v>7588200</v>
       </c>
       <c r="F21" s="3">
-        <v>8408500</v>
+        <v>8598100</v>
       </c>
       <c r="G21" s="3">
-        <v>7734700</v>
+        <v>7909100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4180600</v>
+        <v>4274900</v>
       </c>
       <c r="E23" s="3">
-        <v>6760500</v>
+        <v>6913000</v>
       </c>
       <c r="F23" s="3">
-        <v>7499400</v>
+        <v>7668600</v>
       </c>
       <c r="G23" s="3">
-        <v>6997700</v>
+        <v>7155600</v>
       </c>
       <c r="H23" s="3">
-        <v>6198100</v>
+        <v>6338000</v>
       </c>
       <c r="I23" s="3">
-        <v>7983000</v>
+        <v>8163100</v>
       </c>
       <c r="J23" s="3">
-        <v>7812400</v>
+        <v>7988700</v>
       </c>
       <c r="K23" s="3">
         <v>6563600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1394500</v>
+        <v>1426000</v>
       </c>
       <c r="E24" s="3">
-        <v>1977400</v>
+        <v>2022000</v>
       </c>
       <c r="F24" s="3">
-        <v>2110000</v>
+        <v>2157600</v>
       </c>
       <c r="G24" s="3">
-        <v>2178200</v>
+        <v>2227400</v>
       </c>
       <c r="H24" s="3">
-        <v>1862900</v>
+        <v>1905000</v>
       </c>
       <c r="I24" s="3">
-        <v>2293400</v>
+        <v>2345200</v>
       </c>
       <c r="J24" s="3">
-        <v>2292600</v>
+        <v>2344400</v>
       </c>
       <c r="K24" s="3">
         <v>1993600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2786000</v>
+        <v>2848900</v>
       </c>
       <c r="E26" s="3">
-        <v>4783100</v>
+        <v>4891000</v>
       </c>
       <c r="F26" s="3">
-        <v>5389400</v>
+        <v>5511000</v>
       </c>
       <c r="G26" s="3">
-        <v>4819500</v>
+        <v>4928200</v>
       </c>
       <c r="H26" s="3">
-        <v>4335200</v>
+        <v>4433000</v>
       </c>
       <c r="I26" s="3">
-        <v>5689600</v>
+        <v>5817900</v>
       </c>
       <c r="J26" s="3">
-        <v>5519800</v>
+        <v>5644300</v>
       </c>
       <c r="K26" s="3">
         <v>4570000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2785300</v>
+        <v>2848100</v>
       </c>
       <c r="E27" s="3">
-        <v>4771700</v>
+        <v>4879400</v>
       </c>
       <c r="F27" s="3">
-        <v>5377300</v>
+        <v>5498600</v>
       </c>
       <c r="G27" s="3">
-        <v>4808100</v>
+        <v>4916600</v>
       </c>
       <c r="H27" s="3">
-        <v>4326900</v>
+        <v>4424500</v>
       </c>
       <c r="I27" s="3">
-        <v>5678200</v>
+        <v>5806300</v>
       </c>
       <c r="J27" s="3">
-        <v>5506100</v>
+        <v>5630400</v>
       </c>
       <c r="K27" s="3">
         <v>4558400</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-74300</v>
+        <v>-76000</v>
       </c>
       <c r="E29" s="3">
-        <v>-260000</v>
+        <v>-265800</v>
       </c>
       <c r="F29" s="3">
-        <v>-526700</v>
+        <v>-538600</v>
       </c>
       <c r="G29" s="3">
-        <v>47000</v>
+        <v>48100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4392000</v>
+        <v>4491100</v>
       </c>
       <c r="E32" s="3">
-        <v>3505300</v>
+        <v>3584400</v>
       </c>
       <c r="F32" s="3">
-        <v>2979300</v>
+        <v>3046500</v>
       </c>
       <c r="G32" s="3">
-        <v>3368100</v>
+        <v>3444100</v>
       </c>
       <c r="H32" s="3">
-        <v>3780400</v>
+        <v>3865700</v>
       </c>
       <c r="I32" s="3">
-        <v>2200900</v>
+        <v>2250600</v>
       </c>
       <c r="J32" s="3">
-        <v>1906900</v>
+        <v>1949900</v>
       </c>
       <c r="K32" s="3">
         <v>1802700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2711000</v>
+        <v>2772200</v>
       </c>
       <c r="E33" s="3">
-        <v>4511800</v>
+        <v>4613600</v>
       </c>
       <c r="F33" s="3">
-        <v>4850600</v>
+        <v>4960000</v>
       </c>
       <c r="G33" s="3">
-        <v>4855100</v>
+        <v>4964700</v>
       </c>
       <c r="H33" s="3">
-        <v>4326900</v>
+        <v>4424500</v>
       </c>
       <c r="I33" s="3">
-        <v>5678200</v>
+        <v>5806300</v>
       </c>
       <c r="J33" s="3">
-        <v>5506100</v>
+        <v>5630400</v>
       </c>
       <c r="K33" s="3">
         <v>4558400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2711000</v>
+        <v>2772200</v>
       </c>
       <c r="E35" s="3">
-        <v>4511800</v>
+        <v>4613600</v>
       </c>
       <c r="F35" s="3">
-        <v>4850600</v>
+        <v>4960000</v>
       </c>
       <c r="G35" s="3">
-        <v>4855100</v>
+        <v>4964700</v>
       </c>
       <c r="H35" s="3">
-        <v>4326900</v>
+        <v>4424500</v>
       </c>
       <c r="I35" s="3">
-        <v>5678200</v>
+        <v>5806300</v>
       </c>
       <c r="J35" s="3">
-        <v>5506100</v>
+        <v>5630400</v>
       </c>
       <c r="K35" s="3">
         <v>4558400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>65085400</v>
+        <v>66553900</v>
       </c>
       <c r="E41" s="3">
-        <v>51708500</v>
+        <v>52875200</v>
       </c>
       <c r="F41" s="3">
-        <v>114563000</v>
+        <v>117147000</v>
       </c>
       <c r="G41" s="3">
-        <v>46478200</v>
+        <v>47526900</v>
       </c>
       <c r="H41" s="3">
-        <v>45305000</v>
+        <v>46327200</v>
       </c>
       <c r="I41" s="3">
-        <v>53942000</v>
+        <v>55159100</v>
       </c>
       <c r="J41" s="3">
-        <v>40272500</v>
+        <v>41181200</v>
       </c>
       <c r="K41" s="3">
         <v>95665400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>178982000</v>
+        <v>183020000</v>
       </c>
       <c r="E42" s="3">
-        <v>154704000</v>
+        <v>158195000</v>
       </c>
       <c r="F42" s="3">
-        <v>110323000</v>
+        <v>112812000</v>
       </c>
       <c r="G42" s="3">
-        <v>103603000</v>
+        <v>105940000</v>
       </c>
       <c r="H42" s="3">
-        <v>127862000</v>
+        <v>130746000</v>
       </c>
       <c r="I42" s="3">
-        <v>118722000</v>
+        <v>121401000</v>
       </c>
       <c r="J42" s="3">
-        <v>91991600</v>
+        <v>94067200</v>
       </c>
       <c r="K42" s="3">
         <v>98412500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1640100</v>
+        <v>1677100</v>
       </c>
       <c r="E47" s="3">
-        <v>2241100</v>
+        <v>2291700</v>
       </c>
       <c r="F47" s="3">
-        <v>1934900</v>
+        <v>1978600</v>
       </c>
       <c r="G47" s="3">
-        <v>1703800</v>
+        <v>1742200</v>
       </c>
       <c r="H47" s="3">
-        <v>3237700</v>
+        <v>3310800</v>
       </c>
       <c r="I47" s="3">
-        <v>4123000</v>
+        <v>4216000</v>
       </c>
       <c r="J47" s="3">
-        <v>3472700</v>
+        <v>3551100</v>
       </c>
       <c r="K47" s="3">
         <v>2981300</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2283600</v>
+        <v>2335100</v>
       </c>
       <c r="E48" s="3">
-        <v>1458200</v>
+        <v>1491100</v>
       </c>
       <c r="F48" s="3">
-        <v>1389200</v>
+        <v>1420600</v>
       </c>
       <c r="G48" s="3">
-        <v>1489300</v>
+        <v>1522900</v>
       </c>
       <c r="H48" s="3">
-        <v>1671200</v>
+        <v>1708900</v>
       </c>
       <c r="I48" s="3">
-        <v>1683300</v>
+        <v>1721300</v>
       </c>
       <c r="J48" s="3">
-        <v>1653000</v>
+        <v>1690300</v>
       </c>
       <c r="K48" s="3">
         <v>4694400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3318800</v>
+        <v>3393700</v>
       </c>
       <c r="E49" s="3">
-        <v>3684200</v>
+        <v>3767300</v>
       </c>
       <c r="F49" s="3">
-        <v>7472900</v>
+        <v>7641500</v>
       </c>
       <c r="G49" s="3">
-        <v>5282600</v>
+        <v>5401800</v>
       </c>
       <c r="H49" s="3">
-        <v>5814600</v>
+        <v>5945800</v>
       </c>
       <c r="I49" s="3">
-        <v>6299700</v>
+        <v>6441800</v>
       </c>
       <c r="J49" s="3">
-        <v>6025300</v>
+        <v>6161300</v>
       </c>
       <c r="K49" s="3">
         <v>16681900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1609800</v>
+        <v>1646100</v>
       </c>
       <c r="E52" s="3">
-        <v>2415400</v>
+        <v>2469900</v>
       </c>
       <c r="F52" s="3">
-        <v>34157800</v>
+        <v>34928500</v>
       </c>
       <c r="G52" s="3">
-        <v>6552000</v>
+        <v>6699900</v>
       </c>
       <c r="H52" s="3">
-        <v>472200</v>
+        <v>482800</v>
       </c>
       <c r="I52" s="3">
-        <v>6417100</v>
+        <v>6561900</v>
       </c>
       <c r="J52" s="3">
-        <v>316000</v>
+        <v>323200</v>
       </c>
       <c r="K52" s="3">
         <v>1045600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>789949000</v>
+        <v>807772000</v>
       </c>
       <c r="E54" s="3">
-        <v>743604000</v>
+        <v>760381000</v>
       </c>
       <c r="F54" s="3">
-        <v>714838000</v>
+        <v>730966000</v>
       </c>
       <c r="G54" s="3">
-        <v>680083000</v>
+        <v>695428000</v>
       </c>
       <c r="H54" s="3">
-        <v>693379000</v>
+        <v>709024000</v>
       </c>
       <c r="I54" s="3">
-        <v>674455000</v>
+        <v>689673000</v>
       </c>
       <c r="J54" s="3">
-        <v>585169000</v>
+        <v>598371000</v>
       </c>
       <c r="K54" s="3">
         <v>508336000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6918100</v>
+        <v>7074200</v>
       </c>
       <c r="E57" s="3">
-        <v>6038900</v>
+        <v>6175200</v>
       </c>
       <c r="F57" s="3">
-        <v>5225000</v>
+        <v>5342900</v>
       </c>
       <c r="G57" s="3">
-        <v>6328500</v>
+        <v>6471300</v>
       </c>
       <c r="H57" s="3">
-        <v>1230100</v>
+        <v>1257800</v>
       </c>
       <c r="I57" s="3">
-        <v>1258900</v>
+        <v>1287300</v>
       </c>
       <c r="J57" s="3">
-        <v>1011800</v>
+        <v>1034600</v>
       </c>
       <c r="K57" s="3">
         <v>8260000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>264500</v>
+        <v>270500</v>
       </c>
       <c r="E59" s="3">
-        <v>197100</v>
+        <v>201500</v>
       </c>
       <c r="F59" s="3">
-        <v>227400</v>
+        <v>232500</v>
       </c>
       <c r="G59" s="3">
-        <v>182700</v>
+        <v>186800</v>
       </c>
       <c r="H59" s="3">
-        <v>2412400</v>
+        <v>2466800</v>
       </c>
       <c r="I59" s="3">
-        <v>2708000</v>
+        <v>2769100</v>
       </c>
       <c r="J59" s="3">
-        <v>2985400</v>
+        <v>3052700</v>
       </c>
       <c r="K59" s="3">
         <v>5984400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>90696400</v>
+        <v>92742700</v>
       </c>
       <c r="E61" s="3">
-        <v>98292800</v>
+        <v>100511000</v>
       </c>
       <c r="F61" s="3">
-        <v>91841600</v>
+        <v>93913700</v>
       </c>
       <c r="G61" s="3">
-        <v>81832700</v>
+        <v>83679100</v>
       </c>
       <c r="H61" s="3">
-        <v>86826500</v>
+        <v>88785600</v>
       </c>
       <c r="I61" s="3">
-        <v>85137900</v>
+        <v>87058900</v>
       </c>
       <c r="J61" s="3">
-        <v>72078600</v>
+        <v>73704800</v>
       </c>
       <c r="K61" s="3">
         <v>61121500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2467000</v>
+        <v>2522600</v>
       </c>
       <c r="E62" s="3">
-        <v>2182000</v>
+        <v>2231200</v>
       </c>
       <c r="F62" s="3">
-        <v>3061200</v>
+        <v>3130200</v>
       </c>
       <c r="G62" s="3">
-        <v>1072400</v>
+        <v>1096600</v>
       </c>
       <c r="H62" s="3">
-        <v>1127000</v>
+        <v>1152400</v>
       </c>
       <c r="I62" s="3">
-        <v>1047400</v>
+        <v>1071000</v>
       </c>
       <c r="J62" s="3">
-        <v>954200</v>
+        <v>975700</v>
       </c>
       <c r="K62" s="3">
         <v>1915500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>743499000</v>
+        <v>760274000</v>
       </c>
       <c r="E66" s="3">
-        <v>697536000</v>
+        <v>713274000</v>
       </c>
       <c r="F66" s="3">
-        <v>669921000</v>
+        <v>685036000</v>
       </c>
       <c r="G66" s="3">
-        <v>635398000</v>
+        <v>649734000</v>
       </c>
       <c r="H66" s="3">
-        <v>649559000</v>
+        <v>664215000</v>
       </c>
       <c r="I66" s="3">
-        <v>631068000</v>
+        <v>645306000</v>
       </c>
       <c r="J66" s="3">
-        <v>547875000</v>
+        <v>560236000</v>
       </c>
       <c r="K66" s="3">
         <v>475405000</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>660100</v>
+        <v>675000</v>
       </c>
       <c r="K70" s="3">
         <v>1259600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25251700</v>
+        <v>25821500</v>
       </c>
       <c r="E72" s="3">
-        <v>24806800</v>
+        <v>25366500</v>
       </c>
       <c r="F72" s="3">
-        <v>24107300</v>
+        <v>24651200</v>
       </c>
       <c r="G72" s="3">
-        <v>22659700</v>
+        <v>23171000</v>
       </c>
       <c r="H72" s="3">
-        <v>21244700</v>
+        <v>21724000</v>
       </c>
       <c r="I72" s="3">
-        <v>20731600</v>
+        <v>21199400</v>
       </c>
       <c r="J72" s="3">
-        <v>18629900</v>
+        <v>19050300</v>
       </c>
       <c r="K72" s="3">
         <v>15981200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46449400</v>
+        <v>47497400</v>
       </c>
       <c r="E76" s="3">
-        <v>46067400</v>
+        <v>47106800</v>
       </c>
       <c r="F76" s="3">
-        <v>44916900</v>
+        <v>45930400</v>
       </c>
       <c r="G76" s="3">
-        <v>44685000</v>
+        <v>45693200</v>
       </c>
       <c r="H76" s="3">
-        <v>43820300</v>
+        <v>44809000</v>
       </c>
       <c r="I76" s="3">
-        <v>43387500</v>
+        <v>44366400</v>
       </c>
       <c r="J76" s="3">
-        <v>36633900</v>
+        <v>37460400</v>
       </c>
       <c r="K76" s="3">
         <v>31671100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2711000</v>
+        <v>2772200</v>
       </c>
       <c r="E81" s="3">
-        <v>4511800</v>
+        <v>4613600</v>
       </c>
       <c r="F81" s="3">
-        <v>4850600</v>
+        <v>4960000</v>
       </c>
       <c r="G81" s="3">
-        <v>4855100</v>
+        <v>4964700</v>
       </c>
       <c r="H81" s="3">
-        <v>4326900</v>
+        <v>4424500</v>
       </c>
       <c r="I81" s="3">
-        <v>5678200</v>
+        <v>5806300</v>
       </c>
       <c r="J81" s="3">
-        <v>5506100</v>
+        <v>5630400</v>
       </c>
       <c r="K81" s="3">
         <v>4558400</v>
@@ -3103,16 +3103,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1054200</v>
+        <v>1078000</v>
       </c>
       <c r="E83" s="3">
-        <v>660100</v>
+        <v>675000</v>
       </c>
       <c r="F83" s="3">
-        <v>908700</v>
+        <v>929200</v>
       </c>
       <c r="G83" s="3">
-        <v>736700</v>
+        <v>753300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>39626000</v>
+        <v>40520100</v>
       </c>
       <c r="E89" s="3">
-        <v>-3448400</v>
+        <v>-3526300</v>
       </c>
       <c r="F89" s="3">
-        <v>8008000</v>
+        <v>8188700</v>
       </c>
       <c r="G89" s="3">
-        <v>18225200</v>
+        <v>18636400</v>
       </c>
       <c r="H89" s="3">
-        <v>8216400</v>
+        <v>8401800</v>
       </c>
       <c r="I89" s="3">
-        <v>16276700</v>
+        <v>16643900</v>
       </c>
       <c r="J89" s="3">
-        <v>4276800</v>
+        <v>4373300</v>
       </c>
       <c r="K89" s="3">
         <v>11690400</v>
@@ -3383,13 +3383,13 @@
         <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>-255400</v>
+        <v>-261200</v>
       </c>
       <c r="I91" s="3">
-        <v>-243300</v>
+        <v>-248800</v>
       </c>
       <c r="J91" s="3">
-        <v>-280400</v>
+        <v>-286800</v>
       </c>
       <c r="K91" s="3">
         <v>-257400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8689300</v>
+        <v>-8885400</v>
       </c>
       <c r="E94" s="3">
-        <v>-156100</v>
+        <v>-159700</v>
       </c>
       <c r="F94" s="3">
-        <v>125800</v>
+        <v>128700</v>
       </c>
       <c r="G94" s="3">
-        <v>-9723900</v>
+        <v>-9943300</v>
       </c>
       <c r="H94" s="3">
-        <v>-10921300</v>
+        <v>-11167800</v>
       </c>
       <c r="I94" s="3">
-        <v>-7409200</v>
+        <v>-7576400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1460500</v>
+        <v>-1493400</v>
       </c>
       <c r="K94" s="3">
         <v>-5500600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2168400</v>
+        <v>-2217300</v>
       </c>
       <c r="E96" s="3">
-        <v>-3388600</v>
+        <v>-3465000</v>
       </c>
       <c r="F96" s="3">
-        <v>-3458300</v>
+        <v>-3536300</v>
       </c>
       <c r="G96" s="3">
-        <v>-3324100</v>
+        <v>-3399200</v>
       </c>
       <c r="H96" s="3">
-        <v>-3459100</v>
+        <v>-3537100</v>
       </c>
       <c r="I96" s="3">
-        <v>-2852000</v>
+        <v>-2916300</v>
       </c>
       <c r="J96" s="3">
-        <v>-2900500</v>
+        <v>-2965900</v>
       </c>
       <c r="K96" s="3">
         <v>-2332700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9423700</v>
+        <v>-9636400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2092600</v>
+        <v>-2139800</v>
       </c>
       <c r="F100" s="3">
-        <v>1985700</v>
+        <v>2030500</v>
       </c>
       <c r="G100" s="3">
-        <v>-5109800</v>
+        <v>-5225100</v>
       </c>
       <c r="H100" s="3">
-        <v>1484000</v>
+        <v>1517500</v>
       </c>
       <c r="I100" s="3">
-        <v>1548400</v>
+        <v>1583300</v>
       </c>
       <c r="J100" s="3">
-        <v>2118300</v>
+        <v>2166100</v>
       </c>
       <c r="K100" s="3">
         <v>-2961800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1578700</v>
+        <v>-1614300</v>
       </c>
       <c r="E101" s="3">
-        <v>3163500</v>
+        <v>3234900</v>
       </c>
       <c r="F101" s="3">
-        <v>2701200</v>
+        <v>2762100</v>
       </c>
       <c r="G101" s="3">
-        <v>-2006200</v>
+        <v>-2051400</v>
       </c>
       <c r="H101" s="3">
-        <v>-1096700</v>
+        <v>-1121400</v>
       </c>
       <c r="I101" s="3">
-        <v>5537200</v>
+        <v>5662200</v>
       </c>
       <c r="J101" s="3">
-        <v>460000</v>
+        <v>470400</v>
       </c>
       <c r="K101" s="3">
         <v>824300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19934300</v>
+        <v>20384100</v>
       </c>
       <c r="E102" s="3">
-        <v>-2533700</v>
+        <v>-2590800</v>
       </c>
       <c r="F102" s="3">
-        <v>12820600</v>
+        <v>13109900</v>
       </c>
       <c r="G102" s="3">
-        <v>1385400</v>
+        <v>1416700</v>
       </c>
       <c r="H102" s="3">
-        <v>-2317700</v>
+        <v>-2370000</v>
       </c>
       <c r="I102" s="3">
-        <v>15953000</v>
+        <v>16313000</v>
       </c>
       <c r="J102" s="3">
-        <v>5394700</v>
+        <v>5516500</v>
       </c>
       <c r="K102" s="3">
         <v>4052300</v>

--- a/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18930200</v>
+        <v>17454800</v>
       </c>
       <c r="E8" s="3">
-        <v>24084700</v>
+        <v>22207600</v>
       </c>
       <c r="F8" s="3">
-        <v>23503400</v>
+        <v>21671700</v>
       </c>
       <c r="G8" s="3">
-        <v>22568000</v>
+        <v>20809200</v>
       </c>
       <c r="H8" s="3">
-        <v>23212000</v>
+        <v>21403000</v>
       </c>
       <c r="I8" s="3">
-        <v>23657700</v>
+        <v>21813900</v>
       </c>
       <c r="J8" s="3">
-        <v>22881100</v>
+        <v>21097900</v>
       </c>
       <c r="K8" s="3">
         <v>20700200</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-665000</v>
+        <v>-613100</v>
       </c>
       <c r="E15" s="3">
-        <v>-537900</v>
+        <v>-495900</v>
       </c>
       <c r="F15" s="3">
-        <v>-767300</v>
+        <v>-707500</v>
       </c>
       <c r="G15" s="3">
-        <v>-558800</v>
+        <v>-515200</v>
       </c>
       <c r="H15" s="3">
-        <v>-1143100</v>
+        <v>-1054000</v>
       </c>
       <c r="I15" s="3">
-        <v>-740100</v>
+        <v>-682400</v>
       </c>
       <c r="J15" s="3">
-        <v>-1321400</v>
+        <v>-1218400</v>
       </c>
       <c r="K15" s="3">
         <v>-1201100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10164100</v>
+        <v>9372000</v>
       </c>
       <c r="E17" s="3">
-        <v>13587300</v>
+        <v>12528400</v>
       </c>
       <c r="F17" s="3">
-        <v>12788300</v>
+        <v>11791600</v>
       </c>
       <c r="G17" s="3">
-        <v>11968300</v>
+        <v>11035600</v>
       </c>
       <c r="H17" s="3">
-        <v>13008400</v>
+        <v>11994600</v>
       </c>
       <c r="I17" s="3">
-        <v>13244000</v>
+        <v>12211800</v>
       </c>
       <c r="J17" s="3">
-        <v>12942500</v>
+        <v>11933800</v>
       </c>
       <c r="K17" s="3">
         <v>12333900</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8766000</v>
+        <v>8082800</v>
       </c>
       <c r="E18" s="3">
-        <v>10497400</v>
+        <v>9679300</v>
       </c>
       <c r="F18" s="3">
-        <v>10715200</v>
+        <v>9880100</v>
       </c>
       <c r="G18" s="3">
-        <v>10599700</v>
+        <v>9773600</v>
       </c>
       <c r="H18" s="3">
-        <v>10203700</v>
+        <v>9408400</v>
       </c>
       <c r="I18" s="3">
-        <v>10413700</v>
+        <v>9602100</v>
       </c>
       <c r="J18" s="3">
-        <v>9938600</v>
+        <v>9164000</v>
       </c>
       <c r="K18" s="3">
         <v>8366300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4491100</v>
+        <v>-4141100</v>
       </c>
       <c r="E20" s="3">
-        <v>-3584400</v>
+        <v>-3305000</v>
       </c>
       <c r="F20" s="3">
-        <v>-3046500</v>
+        <v>-2809100</v>
       </c>
       <c r="G20" s="3">
-        <v>-3444100</v>
+        <v>-3175700</v>
       </c>
       <c r="H20" s="3">
-        <v>-3865700</v>
+        <v>-3564400</v>
       </c>
       <c r="I20" s="3">
-        <v>-2250600</v>
+        <v>-2075200</v>
       </c>
       <c r="J20" s="3">
-        <v>-1949900</v>
+        <v>-1797900</v>
       </c>
       <c r="K20" s="3">
         <v>-1802700</v>
@@ -1125,16 +1125,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5353200</v>
+        <v>4947600</v>
       </c>
       <c r="E21" s="3">
-        <v>7588200</v>
+        <v>7004100</v>
       </c>
       <c r="F21" s="3">
-        <v>8598100</v>
+        <v>7938000</v>
       </c>
       <c r="G21" s="3">
-        <v>7909100</v>
+        <v>7300800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4274900</v>
+        <v>3941700</v>
       </c>
       <c r="E23" s="3">
-        <v>6913000</v>
+        <v>6374200</v>
       </c>
       <c r="F23" s="3">
-        <v>7668600</v>
+        <v>7071000</v>
       </c>
       <c r="G23" s="3">
-        <v>7155600</v>
+        <v>6597900</v>
       </c>
       <c r="H23" s="3">
-        <v>6338000</v>
+        <v>5844000</v>
       </c>
       <c r="I23" s="3">
-        <v>8163100</v>
+        <v>7526900</v>
       </c>
       <c r="J23" s="3">
-        <v>7988700</v>
+        <v>7366100</v>
       </c>
       <c r="K23" s="3">
         <v>6563600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1426000</v>
+        <v>1314900</v>
       </c>
       <c r="E24" s="3">
-        <v>2022000</v>
+        <v>1864400</v>
       </c>
       <c r="F24" s="3">
-        <v>2157600</v>
+        <v>1989400</v>
       </c>
       <c r="G24" s="3">
-        <v>2227400</v>
+        <v>2053800</v>
       </c>
       <c r="H24" s="3">
-        <v>1905000</v>
+        <v>1756500</v>
       </c>
       <c r="I24" s="3">
-        <v>2345200</v>
+        <v>2162400</v>
       </c>
       <c r="J24" s="3">
-        <v>2344400</v>
+        <v>2161700</v>
       </c>
       <c r="K24" s="3">
         <v>1993600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2848900</v>
+        <v>2626900</v>
       </c>
       <c r="E26" s="3">
-        <v>4891000</v>
+        <v>4509800</v>
       </c>
       <c r="F26" s="3">
-        <v>5511000</v>
+        <v>5081500</v>
       </c>
       <c r="G26" s="3">
-        <v>4928200</v>
+        <v>4544100</v>
       </c>
       <c r="H26" s="3">
-        <v>4433000</v>
+        <v>4087500</v>
       </c>
       <c r="I26" s="3">
-        <v>5817900</v>
+        <v>5364500</v>
       </c>
       <c r="J26" s="3">
-        <v>5644300</v>
+        <v>5204400</v>
       </c>
       <c r="K26" s="3">
         <v>4570000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2848100</v>
+        <v>2626200</v>
       </c>
       <c r="E27" s="3">
-        <v>4879400</v>
+        <v>4499100</v>
       </c>
       <c r="F27" s="3">
-        <v>5498600</v>
+        <v>5070100</v>
       </c>
       <c r="G27" s="3">
-        <v>4916600</v>
+        <v>4533400</v>
       </c>
       <c r="H27" s="3">
-        <v>4424500</v>
+        <v>4079700</v>
       </c>
       <c r="I27" s="3">
-        <v>5806300</v>
+        <v>5353800</v>
       </c>
       <c r="J27" s="3">
-        <v>5630400</v>
+        <v>5191600</v>
       </c>
       <c r="K27" s="3">
         <v>4558400</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-76000</v>
+        <v>-70000</v>
       </c>
       <c r="E29" s="3">
-        <v>-265800</v>
+        <v>-245100</v>
       </c>
       <c r="F29" s="3">
-        <v>-538600</v>
+        <v>-496600</v>
       </c>
       <c r="G29" s="3">
-        <v>48100</v>
+        <v>44300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4491100</v>
+        <v>4141100</v>
       </c>
       <c r="E32" s="3">
-        <v>3584400</v>
+        <v>3305000</v>
       </c>
       <c r="F32" s="3">
-        <v>3046500</v>
+        <v>2809100</v>
       </c>
       <c r="G32" s="3">
-        <v>3444100</v>
+        <v>3175700</v>
       </c>
       <c r="H32" s="3">
-        <v>3865700</v>
+        <v>3564400</v>
       </c>
       <c r="I32" s="3">
-        <v>2250600</v>
+        <v>2075200</v>
       </c>
       <c r="J32" s="3">
-        <v>1949900</v>
+        <v>1797900</v>
       </c>
       <c r="K32" s="3">
         <v>1802700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2772200</v>
+        <v>2556100</v>
       </c>
       <c r="E33" s="3">
-        <v>4613600</v>
+        <v>4254000</v>
       </c>
       <c r="F33" s="3">
-        <v>4960000</v>
+        <v>4573400</v>
       </c>
       <c r="G33" s="3">
-        <v>4964700</v>
+        <v>4577700</v>
       </c>
       <c r="H33" s="3">
-        <v>4424500</v>
+        <v>4079700</v>
       </c>
       <c r="I33" s="3">
-        <v>5806300</v>
+        <v>5353800</v>
       </c>
       <c r="J33" s="3">
-        <v>5630400</v>
+        <v>5191600</v>
       </c>
       <c r="K33" s="3">
         <v>4558400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2772200</v>
+        <v>2556100</v>
       </c>
       <c r="E35" s="3">
-        <v>4613600</v>
+        <v>4254000</v>
       </c>
       <c r="F35" s="3">
-        <v>4960000</v>
+        <v>4573400</v>
       </c>
       <c r="G35" s="3">
-        <v>4964700</v>
+        <v>4577700</v>
       </c>
       <c r="H35" s="3">
-        <v>4424500</v>
+        <v>4079700</v>
       </c>
       <c r="I35" s="3">
-        <v>5806300</v>
+        <v>5353800</v>
       </c>
       <c r="J35" s="3">
-        <v>5630400</v>
+        <v>5191600</v>
       </c>
       <c r="K35" s="3">
         <v>4558400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>66553900</v>
+        <v>61367000</v>
       </c>
       <c r="E41" s="3">
-        <v>52875200</v>
+        <v>48754300</v>
       </c>
       <c r="F41" s="3">
-        <v>117147000</v>
+        <v>108018000</v>
       </c>
       <c r="G41" s="3">
-        <v>47526900</v>
+        <v>43822800</v>
       </c>
       <c r="H41" s="3">
-        <v>46327200</v>
+        <v>42716600</v>
       </c>
       <c r="I41" s="3">
-        <v>55159100</v>
+        <v>50860200</v>
       </c>
       <c r="J41" s="3">
-        <v>41181200</v>
+        <v>37971700</v>
       </c>
       <c r="K41" s="3">
         <v>95665400</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>183020000</v>
+        <v>168756000</v>
       </c>
       <c r="E42" s="3">
-        <v>158195000</v>
+        <v>145866000</v>
       </c>
       <c r="F42" s="3">
-        <v>112812000</v>
+        <v>104020000</v>
       </c>
       <c r="G42" s="3">
-        <v>105940000</v>
+        <v>97683700</v>
       </c>
       <c r="H42" s="3">
-        <v>130746000</v>
+        <v>120557000</v>
       </c>
       <c r="I42" s="3">
-        <v>121401000</v>
+        <v>111939000</v>
       </c>
       <c r="J42" s="3">
-        <v>94067200</v>
+        <v>86736000</v>
       </c>
       <c r="K42" s="3">
         <v>98412500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1677100</v>
+        <v>1546400</v>
       </c>
       <c r="E47" s="3">
-        <v>2291700</v>
+        <v>2113100</v>
       </c>
       <c r="F47" s="3">
-        <v>1978600</v>
+        <v>1824400</v>
       </c>
       <c r="G47" s="3">
-        <v>1742200</v>
+        <v>1606400</v>
       </c>
       <c r="H47" s="3">
-        <v>3310800</v>
+        <v>3052800</v>
       </c>
       <c r="I47" s="3">
-        <v>4216000</v>
+        <v>3887400</v>
       </c>
       <c r="J47" s="3">
-        <v>3551100</v>
+        <v>3274300</v>
       </c>
       <c r="K47" s="3">
         <v>2981300</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2335100</v>
+        <v>2153100</v>
       </c>
       <c r="E48" s="3">
-        <v>1491100</v>
+        <v>1374900</v>
       </c>
       <c r="F48" s="3">
-        <v>1420600</v>
+        <v>1309900</v>
       </c>
       <c r="G48" s="3">
-        <v>1522900</v>
+        <v>1404200</v>
       </c>
       <c r="H48" s="3">
-        <v>1708900</v>
+        <v>1575700</v>
       </c>
       <c r="I48" s="3">
-        <v>1721300</v>
+        <v>1587100</v>
       </c>
       <c r="J48" s="3">
-        <v>1690300</v>
+        <v>1558500</v>
       </c>
       <c r="K48" s="3">
         <v>4694400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3393700</v>
+        <v>3129200</v>
       </c>
       <c r="E49" s="3">
-        <v>3767300</v>
+        <v>3473700</v>
       </c>
       <c r="F49" s="3">
-        <v>7641500</v>
+        <v>7046000</v>
       </c>
       <c r="G49" s="3">
-        <v>5401800</v>
+        <v>4980800</v>
       </c>
       <c r="H49" s="3">
-        <v>5945800</v>
+        <v>5482400</v>
       </c>
       <c r="I49" s="3">
-        <v>6441800</v>
+        <v>5939800</v>
       </c>
       <c r="J49" s="3">
-        <v>6161300</v>
+        <v>5681100</v>
       </c>
       <c r="K49" s="3">
         <v>16681900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1646100</v>
+        <v>1517800</v>
       </c>
       <c r="E52" s="3">
-        <v>2469900</v>
+        <v>2277400</v>
       </c>
       <c r="F52" s="3">
-        <v>34928500</v>
+        <v>32206300</v>
       </c>
       <c r="G52" s="3">
-        <v>6699900</v>
+        <v>6177700</v>
       </c>
       <c r="H52" s="3">
-        <v>482800</v>
+        <v>445200</v>
       </c>
       <c r="I52" s="3">
-        <v>6561900</v>
+        <v>6050500</v>
       </c>
       <c r="J52" s="3">
-        <v>323200</v>
+        <v>298000</v>
       </c>
       <c r="K52" s="3">
         <v>1045600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>807772000</v>
+        <v>744818000</v>
       </c>
       <c r="E54" s="3">
-        <v>760381000</v>
+        <v>701121000</v>
       </c>
       <c r="F54" s="3">
-        <v>730966000</v>
+        <v>673998000</v>
       </c>
       <c r="G54" s="3">
-        <v>695428000</v>
+        <v>641229000</v>
       </c>
       <c r="H54" s="3">
-        <v>709024000</v>
+        <v>653765000</v>
       </c>
       <c r="I54" s="3">
-        <v>689673000</v>
+        <v>635923000</v>
       </c>
       <c r="J54" s="3">
-        <v>598371000</v>
+        <v>551737000</v>
       </c>
       <c r="K54" s="3">
         <v>508336000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7074200</v>
+        <v>6522900</v>
       </c>
       <c r="E57" s="3">
-        <v>6175200</v>
+        <v>5693900</v>
       </c>
       <c r="F57" s="3">
-        <v>5342900</v>
+        <v>4926500</v>
       </c>
       <c r="G57" s="3">
-        <v>6471300</v>
+        <v>5966900</v>
       </c>
       <c r="H57" s="3">
-        <v>1257800</v>
+        <v>1159800</v>
       </c>
       <c r="I57" s="3">
-        <v>1287300</v>
+        <v>1187000</v>
       </c>
       <c r="J57" s="3">
-        <v>1034600</v>
+        <v>954000</v>
       </c>
       <c r="K57" s="3">
         <v>8260000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>270500</v>
+        <v>249400</v>
       </c>
       <c r="E59" s="3">
-        <v>201500</v>
+        <v>185800</v>
       </c>
       <c r="F59" s="3">
-        <v>232500</v>
+        <v>214400</v>
       </c>
       <c r="G59" s="3">
-        <v>186800</v>
+        <v>172200</v>
       </c>
       <c r="H59" s="3">
-        <v>2466800</v>
+        <v>2274600</v>
       </c>
       <c r="I59" s="3">
-        <v>2769100</v>
+        <v>2553300</v>
       </c>
       <c r="J59" s="3">
-        <v>3052700</v>
+        <v>2814800</v>
       </c>
       <c r="K59" s="3">
         <v>5984400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>92742700</v>
+        <v>85514800</v>
       </c>
       <c r="E61" s="3">
-        <v>100511000</v>
+        <v>92677200</v>
       </c>
       <c r="F61" s="3">
-        <v>93913700</v>
+        <v>86594500</v>
       </c>
       <c r="G61" s="3">
-        <v>83679100</v>
+        <v>77157500</v>
       </c>
       <c r="H61" s="3">
-        <v>88785600</v>
+        <v>81866000</v>
       </c>
       <c r="I61" s="3">
-        <v>87058900</v>
+        <v>80273900</v>
       </c>
       <c r="J61" s="3">
-        <v>73704800</v>
+        <v>67960600</v>
       </c>
       <c r="K61" s="3">
         <v>61121500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2522600</v>
+        <v>2326000</v>
       </c>
       <c r="E62" s="3">
-        <v>2231200</v>
+        <v>2057300</v>
       </c>
       <c r="F62" s="3">
-        <v>3130200</v>
+        <v>2886300</v>
       </c>
       <c r="G62" s="3">
-        <v>1096600</v>
+        <v>1011200</v>
       </c>
       <c r="H62" s="3">
-        <v>1152400</v>
+        <v>1062600</v>
       </c>
       <c r="I62" s="3">
-        <v>1071000</v>
+        <v>987600</v>
       </c>
       <c r="J62" s="3">
-        <v>975700</v>
+        <v>899700</v>
       </c>
       <c r="K62" s="3">
         <v>1915500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>760274000</v>
+        <v>701022000</v>
       </c>
       <c r="E66" s="3">
-        <v>713274000</v>
+        <v>657685000</v>
       </c>
       <c r="F66" s="3">
-        <v>685036000</v>
+        <v>631647000</v>
       </c>
       <c r="G66" s="3">
-        <v>649734000</v>
+        <v>599097000</v>
       </c>
       <c r="H66" s="3">
-        <v>664215000</v>
+        <v>612449000</v>
       </c>
       <c r="I66" s="3">
-        <v>645306000</v>
+        <v>595014000</v>
       </c>
       <c r="J66" s="3">
-        <v>560236000</v>
+        <v>516574000</v>
       </c>
       <c r="K66" s="3">
         <v>475405000</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>675000</v>
+        <v>622400</v>
       </c>
       <c r="K70" s="3">
         <v>1259600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25821500</v>
+        <v>23809000</v>
       </c>
       <c r="E72" s="3">
-        <v>25366500</v>
+        <v>23389600</v>
       </c>
       <c r="F72" s="3">
-        <v>24651200</v>
+        <v>22730000</v>
       </c>
       <c r="G72" s="3">
-        <v>23171000</v>
+        <v>21365100</v>
       </c>
       <c r="H72" s="3">
-        <v>21724000</v>
+        <v>20031000</v>
       </c>
       <c r="I72" s="3">
-        <v>21199400</v>
+        <v>19547200</v>
       </c>
       <c r="J72" s="3">
-        <v>19050300</v>
+        <v>17565600</v>
       </c>
       <c r="K72" s="3">
         <v>15981200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47497400</v>
+        <v>43795700</v>
       </c>
       <c r="E76" s="3">
-        <v>47106800</v>
+        <v>43435500</v>
       </c>
       <c r="F76" s="3">
-        <v>45930400</v>
+        <v>42350800</v>
       </c>
       <c r="G76" s="3">
-        <v>45693200</v>
+        <v>42132100</v>
       </c>
       <c r="H76" s="3">
-        <v>44809000</v>
+        <v>41316700</v>
       </c>
       <c r="I76" s="3">
-        <v>44366400</v>
+        <v>40908700</v>
       </c>
       <c r="J76" s="3">
-        <v>37460400</v>
+        <v>34540900</v>
       </c>
       <c r="K76" s="3">
         <v>31671100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2772200</v>
+        <v>2556100</v>
       </c>
       <c r="E81" s="3">
-        <v>4613600</v>
+        <v>4254000</v>
       </c>
       <c r="F81" s="3">
-        <v>4960000</v>
+        <v>4573400</v>
       </c>
       <c r="G81" s="3">
-        <v>4964700</v>
+        <v>4577700</v>
       </c>
       <c r="H81" s="3">
-        <v>4424500</v>
+        <v>4079700</v>
       </c>
       <c r="I81" s="3">
-        <v>5806300</v>
+        <v>5353800</v>
       </c>
       <c r="J81" s="3">
-        <v>5630400</v>
+        <v>5191600</v>
       </c>
       <c r="K81" s="3">
         <v>4558400</v>
@@ -3103,16 +3103,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1078000</v>
+        <v>994000</v>
       </c>
       <c r="E83" s="3">
-        <v>675000</v>
+        <v>622400</v>
       </c>
       <c r="F83" s="3">
-        <v>929200</v>
+        <v>856800</v>
       </c>
       <c r="G83" s="3">
-        <v>753300</v>
+        <v>694600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>40520100</v>
+        <v>37362100</v>
       </c>
       <c r="E89" s="3">
-        <v>-3526300</v>
+        <v>-3251400</v>
       </c>
       <c r="F89" s="3">
-        <v>8188700</v>
+        <v>7550500</v>
       </c>
       <c r="G89" s="3">
-        <v>18636400</v>
+        <v>17184000</v>
       </c>
       <c r="H89" s="3">
-        <v>8401800</v>
+        <v>7747000</v>
       </c>
       <c r="I89" s="3">
-        <v>16643900</v>
+        <v>15346700</v>
       </c>
       <c r="J89" s="3">
-        <v>4373300</v>
+        <v>4032500</v>
       </c>
       <c r="K89" s="3">
         <v>11690400</v>
@@ -3383,13 +3383,13 @@
         <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>-261200</v>
+        <v>-240800</v>
       </c>
       <c r="I91" s="3">
-        <v>-248800</v>
+        <v>-229400</v>
       </c>
       <c r="J91" s="3">
-        <v>-286800</v>
+        <v>-264400</v>
       </c>
       <c r="K91" s="3">
         <v>-257400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8885400</v>
+        <v>-8192900</v>
       </c>
       <c r="E94" s="3">
-        <v>-159700</v>
+        <v>-147200</v>
       </c>
       <c r="F94" s="3">
-        <v>128700</v>
+        <v>118600</v>
       </c>
       <c r="G94" s="3">
-        <v>-9943300</v>
+        <v>-9168300</v>
       </c>
       <c r="H94" s="3">
-        <v>-11167800</v>
+        <v>-10297400</v>
       </c>
       <c r="I94" s="3">
-        <v>-7576400</v>
+        <v>-6985900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1493400</v>
+        <v>-1377000</v>
       </c>
       <c r="K94" s="3">
         <v>-5500600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2217300</v>
+        <v>-2044500</v>
       </c>
       <c r="E96" s="3">
-        <v>-3465000</v>
+        <v>-3195000</v>
       </c>
       <c r="F96" s="3">
-        <v>-3536300</v>
+        <v>-3260700</v>
       </c>
       <c r="G96" s="3">
-        <v>-3399200</v>
+        <v>-3134200</v>
       </c>
       <c r="H96" s="3">
-        <v>-3537100</v>
+        <v>-3261400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2916300</v>
+        <v>-2689000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2965900</v>
+        <v>-2734800</v>
       </c>
       <c r="K96" s="3">
         <v>-2332700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9636400</v>
+        <v>-8885300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2139800</v>
+        <v>-1973000</v>
       </c>
       <c r="F100" s="3">
-        <v>2030500</v>
+        <v>1872300</v>
       </c>
       <c r="G100" s="3">
-        <v>-5225100</v>
+        <v>-4817800</v>
       </c>
       <c r="H100" s="3">
-        <v>1517500</v>
+        <v>1399200</v>
       </c>
       <c r="I100" s="3">
-        <v>1583300</v>
+        <v>1459900</v>
       </c>
       <c r="J100" s="3">
-        <v>2166100</v>
+        <v>1997300</v>
       </c>
       <c r="K100" s="3">
         <v>-2961800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1614300</v>
+        <v>-1488500</v>
       </c>
       <c r="E101" s="3">
-        <v>3234900</v>
+        <v>2982700</v>
       </c>
       <c r="F101" s="3">
-        <v>2762100</v>
+        <v>2546800</v>
       </c>
       <c r="G101" s="3">
-        <v>-2051400</v>
+        <v>-1891500</v>
       </c>
       <c r="H101" s="3">
-        <v>-1121400</v>
+        <v>-1034000</v>
       </c>
       <c r="I101" s="3">
-        <v>5662200</v>
+        <v>5220900</v>
       </c>
       <c r="J101" s="3">
-        <v>470400</v>
+        <v>433800</v>
       </c>
       <c r="K101" s="3">
         <v>824300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20384100</v>
+        <v>18795400</v>
       </c>
       <c r="E102" s="3">
-        <v>-2590800</v>
+        <v>-2388900</v>
       </c>
       <c r="F102" s="3">
-        <v>13109900</v>
+        <v>12088200</v>
       </c>
       <c r="G102" s="3">
-        <v>1416700</v>
+        <v>1306300</v>
       </c>
       <c r="H102" s="3">
-        <v>-2370000</v>
+        <v>-2185200</v>
       </c>
       <c r="I102" s="3">
-        <v>16313000</v>
+        <v>15041600</v>
       </c>
       <c r="J102" s="3">
-        <v>5516500</v>
+        <v>5086500</v>
       </c>
       <c r="K102" s="3">
         <v>4052300</v>

--- a/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>ANZBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42277</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41912</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41547</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41182</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40816</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17454800</v>
+        <v>13943700</v>
       </c>
       <c r="E8" s="3">
-        <v>22207600</v>
+        <v>17440200</v>
       </c>
       <c r="F8" s="3">
-        <v>21671700</v>
+        <v>22189000</v>
       </c>
       <c r="G8" s="3">
-        <v>20809200</v>
+        <v>21653500</v>
       </c>
       <c r="H8" s="3">
-        <v>21403000</v>
+        <v>20791700</v>
       </c>
       <c r="I8" s="3">
-        <v>21813900</v>
+        <v>21385000</v>
       </c>
       <c r="J8" s="3">
+        <v>21795600</v>
+      </c>
+      <c r="K8" s="3">
         <v>21097900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20700200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21605600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22089400</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-613100</v>
+        <v>-455500</v>
       </c>
       <c r="E15" s="3">
-        <v>-495900</v>
+        <v>-612600</v>
       </c>
       <c r="F15" s="3">
-        <v>-707500</v>
+        <v>-495500</v>
       </c>
       <c r="G15" s="3">
-        <v>-515200</v>
+        <v>-706900</v>
       </c>
       <c r="H15" s="3">
-        <v>-1054000</v>
+        <v>-514800</v>
       </c>
       <c r="I15" s="3">
-        <v>-682400</v>
+        <v>-1053200</v>
       </c>
       <c r="J15" s="3">
+        <v>-681900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-1218400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-1201100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-511500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-476000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9372000</v>
+        <v>3427900</v>
       </c>
       <c r="E17" s="3">
-        <v>12528400</v>
+        <v>9364100</v>
       </c>
       <c r="F17" s="3">
-        <v>11791600</v>
+        <v>12517800</v>
       </c>
       <c r="G17" s="3">
-        <v>11035600</v>
+        <v>11781700</v>
       </c>
       <c r="H17" s="3">
-        <v>11994600</v>
+        <v>11026300</v>
       </c>
       <c r="I17" s="3">
-        <v>12211800</v>
+        <v>11984500</v>
       </c>
       <c r="J17" s="3">
+        <v>12201500</v>
+      </c>
+      <c r="K17" s="3">
         <v>11933800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12333900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13885400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14642600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8082800</v>
+        <v>10515800</v>
       </c>
       <c r="E18" s="3">
-        <v>9679300</v>
+        <v>8076100</v>
       </c>
       <c r="F18" s="3">
-        <v>9880100</v>
+        <v>9671100</v>
       </c>
       <c r="G18" s="3">
-        <v>9773600</v>
+        <v>9871800</v>
       </c>
       <c r="H18" s="3">
-        <v>9408400</v>
+        <v>9765400</v>
       </c>
       <c r="I18" s="3">
-        <v>9602100</v>
+        <v>9400500</v>
       </c>
       <c r="J18" s="3">
+        <v>9594000</v>
+      </c>
+      <c r="K18" s="3">
         <v>9164000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8366300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7720200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7446800</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,61 +1115,65 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4141100</v>
+        <v>-4135500</v>
       </c>
       <c r="E20" s="3">
-        <v>-3305000</v>
+        <v>-4137600</v>
       </c>
       <c r="F20" s="3">
-        <v>-2809100</v>
+        <v>-3302300</v>
       </c>
       <c r="G20" s="3">
-        <v>-3175700</v>
+        <v>-2806700</v>
       </c>
       <c r="H20" s="3">
-        <v>-3564400</v>
+        <v>-3173000</v>
       </c>
       <c r="I20" s="3">
-        <v>-2075200</v>
+        <v>-3561400</v>
       </c>
       <c r="J20" s="3">
+        <v>-2073500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1797900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1802700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2064500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1880000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4947600</v>
+        <v>7154600</v>
       </c>
       <c r="E21" s="3">
-        <v>7004100</v>
+        <v>4929200</v>
       </c>
       <c r="F21" s="3">
-        <v>7938000</v>
+        <v>6989300</v>
       </c>
       <c r="G21" s="3">
-        <v>7300800</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
+        <v>7919100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>7284700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
@@ -1154,9 +1190,12 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3941700</v>
+        <v>6380300</v>
       </c>
       <c r="E23" s="3">
-        <v>6374200</v>
+        <v>3938400</v>
       </c>
       <c r="F23" s="3">
-        <v>7071000</v>
+        <v>6368900</v>
       </c>
       <c r="G23" s="3">
-        <v>6597900</v>
+        <v>7065000</v>
       </c>
       <c r="H23" s="3">
-        <v>5844000</v>
+        <v>6592400</v>
       </c>
       <c r="I23" s="3">
-        <v>7526900</v>
+        <v>5839100</v>
       </c>
       <c r="J23" s="3">
+        <v>7520600</v>
+      </c>
+      <c r="K23" s="3">
         <v>7366100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6563600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5655800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5566800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1314900</v>
+        <v>1967800</v>
       </c>
       <c r="E24" s="3">
-        <v>1864400</v>
+        <v>1313800</v>
       </c>
       <c r="F24" s="3">
-        <v>1989400</v>
+        <v>1862800</v>
       </c>
       <c r="G24" s="3">
-        <v>2053800</v>
+        <v>1987800</v>
       </c>
       <c r="H24" s="3">
-        <v>1756500</v>
+        <v>2052000</v>
       </c>
       <c r="I24" s="3">
-        <v>2162400</v>
+        <v>1755000</v>
       </c>
       <c r="J24" s="3">
+        <v>2160600</v>
+      </c>
+      <c r="K24" s="3">
         <v>2161700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1993600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1646400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1675400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2626900</v>
+        <v>4412500</v>
       </c>
       <c r="E26" s="3">
-        <v>4509800</v>
+        <v>2624700</v>
       </c>
       <c r="F26" s="3">
-        <v>5081500</v>
+        <v>4506100</v>
       </c>
       <c r="G26" s="3">
-        <v>4544100</v>
+        <v>5077300</v>
       </c>
       <c r="H26" s="3">
-        <v>4087500</v>
+        <v>4540300</v>
       </c>
       <c r="I26" s="3">
-        <v>5364500</v>
+        <v>4084100</v>
       </c>
       <c r="J26" s="3">
+        <v>5360000</v>
+      </c>
+      <c r="K26" s="3">
         <v>5204400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4570000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4009400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3891400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2626200</v>
+        <v>4411800</v>
       </c>
       <c r="E27" s="3">
-        <v>4499100</v>
+        <v>2624000</v>
       </c>
       <c r="F27" s="3">
-        <v>5070100</v>
+        <v>4495300</v>
       </c>
       <c r="G27" s="3">
-        <v>4533400</v>
+        <v>5065800</v>
       </c>
       <c r="H27" s="3">
-        <v>4079700</v>
+        <v>4529600</v>
       </c>
       <c r="I27" s="3">
-        <v>5353800</v>
+        <v>4076200</v>
       </c>
       <c r="J27" s="3">
+        <v>5349300</v>
+      </c>
+      <c r="K27" s="3">
         <v>5191600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4558400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3997400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3876900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,27 +1463,30 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E29" s="3">
         <v>-70000</v>
       </c>
-      <c r="E29" s="3">
-        <v>-245100</v>
-      </c>
       <c r="F29" s="3">
-        <v>-496600</v>
+        <v>-244900</v>
       </c>
       <c r="G29" s="3">
+        <v>-496200</v>
+      </c>
+      <c r="H29" s="3">
         <v>44300</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4141100</v>
+        <v>4135500</v>
       </c>
       <c r="E32" s="3">
-        <v>3305000</v>
+        <v>4137600</v>
       </c>
       <c r="F32" s="3">
-        <v>2809100</v>
+        <v>3302300</v>
       </c>
       <c r="G32" s="3">
-        <v>3175700</v>
+        <v>2806700</v>
       </c>
       <c r="H32" s="3">
-        <v>3564400</v>
+        <v>3173000</v>
       </c>
       <c r="I32" s="3">
-        <v>2075200</v>
+        <v>3561400</v>
       </c>
       <c r="J32" s="3">
+        <v>2073500</v>
+      </c>
+      <c r="K32" s="3">
         <v>1797900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1802700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2064500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1880000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2556100</v>
+        <v>4399700</v>
       </c>
       <c r="E33" s="3">
-        <v>4254000</v>
+        <v>2554000</v>
       </c>
       <c r="F33" s="3">
-        <v>4573400</v>
+        <v>4250400</v>
       </c>
       <c r="G33" s="3">
-        <v>4577700</v>
+        <v>4569600</v>
       </c>
       <c r="H33" s="3">
-        <v>4079700</v>
+        <v>4573900</v>
       </c>
       <c r="I33" s="3">
-        <v>5353800</v>
+        <v>4076200</v>
       </c>
       <c r="J33" s="3">
+        <v>5349300</v>
+      </c>
+      <c r="K33" s="3">
         <v>5191600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4558400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3997400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3876900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2556100</v>
+        <v>4399700</v>
       </c>
       <c r="E35" s="3">
-        <v>4254000</v>
+        <v>2554000</v>
       </c>
       <c r="F35" s="3">
-        <v>4573400</v>
+        <v>4250400</v>
       </c>
       <c r="G35" s="3">
-        <v>4577700</v>
+        <v>4569600</v>
       </c>
       <c r="H35" s="3">
-        <v>4079700</v>
+        <v>4573900</v>
       </c>
       <c r="I35" s="3">
-        <v>5353800</v>
+        <v>4076200</v>
       </c>
       <c r="J35" s="3">
+        <v>5349300</v>
+      </c>
+      <c r="K35" s="3">
         <v>5191600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4558400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3997400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3876900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42277</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41912</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41547</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41182</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40816</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>61367000</v>
+        <v>105137000</v>
       </c>
       <c r="E41" s="3">
-        <v>48754300</v>
+        <v>61315500</v>
       </c>
       <c r="F41" s="3">
-        <v>108018000</v>
+        <v>48713400</v>
       </c>
       <c r="G41" s="3">
-        <v>43822800</v>
+        <v>107927000</v>
       </c>
       <c r="H41" s="3">
-        <v>42716600</v>
+        <v>43786000</v>
       </c>
       <c r="I41" s="3">
-        <v>50860200</v>
+        <v>42680800</v>
       </c>
       <c r="J41" s="3">
+        <v>50817500</v>
+      </c>
+      <c r="K41" s="3">
         <v>37971700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>95665400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39025000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29336000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>168756000</v>
+        <v>78655000</v>
       </c>
       <c r="E42" s="3">
-        <v>145866000</v>
+        <v>168615000</v>
       </c>
       <c r="F42" s="3">
-        <v>104020000</v>
+        <v>145743000</v>
       </c>
       <c r="G42" s="3">
-        <v>97683700</v>
+        <v>103933000</v>
       </c>
       <c r="H42" s="3">
-        <v>120557000</v>
+        <v>97601700</v>
       </c>
       <c r="I42" s="3">
-        <v>111939000</v>
+        <v>120455000</v>
       </c>
       <c r="J42" s="3">
+        <v>111845000</v>
+      </c>
+      <c r="K42" s="3">
         <v>86736000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>98412500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>49876600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>47841000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1546400</v>
+        <v>1408000</v>
       </c>
       <c r="E47" s="3">
-        <v>2113100</v>
+        <v>1545100</v>
       </c>
       <c r="F47" s="3">
-        <v>1824400</v>
+        <v>2111300</v>
       </c>
       <c r="G47" s="3">
-        <v>1606400</v>
+        <v>1822800</v>
       </c>
       <c r="H47" s="3">
-        <v>3052800</v>
+        <v>1605100</v>
       </c>
       <c r="I47" s="3">
-        <v>3887400</v>
+        <v>3050200</v>
       </c>
       <c r="J47" s="3">
+        <v>3884200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3274300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2981300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2490400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2549000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2153100</v>
+        <v>1952100</v>
       </c>
       <c r="E48" s="3">
-        <v>1374900</v>
+        <v>2151300</v>
       </c>
       <c r="F48" s="3">
-        <v>1309900</v>
+        <v>1373700</v>
       </c>
       <c r="G48" s="3">
-        <v>1404200</v>
+        <v>1308800</v>
       </c>
       <c r="H48" s="3">
-        <v>1575700</v>
+        <v>1403000</v>
       </c>
       <c r="I48" s="3">
-        <v>1587100</v>
+        <v>1574400</v>
       </c>
       <c r="J48" s="3">
+        <v>1585800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1558500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4694400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1495700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1541900</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3129200</v>
+        <v>2944500</v>
       </c>
       <c r="E49" s="3">
-        <v>3473700</v>
+        <v>3126600</v>
       </c>
       <c r="F49" s="3">
-        <v>7046000</v>
+        <v>3470800</v>
       </c>
       <c r="G49" s="3">
-        <v>4980800</v>
+        <v>7040000</v>
       </c>
       <c r="H49" s="3">
-        <v>5482400</v>
+        <v>4976600</v>
       </c>
       <c r="I49" s="3">
-        <v>5939800</v>
+        <v>5477800</v>
       </c>
       <c r="J49" s="3">
+        <v>5934800</v>
+      </c>
+      <c r="K49" s="3">
         <v>5681100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16681900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5010500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5053100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1517800</v>
+        <v>1670000</v>
       </c>
       <c r="E52" s="3">
-        <v>2277400</v>
+        <v>1516500</v>
       </c>
       <c r="F52" s="3">
-        <v>32206300</v>
+        <v>2275500</v>
       </c>
       <c r="G52" s="3">
-        <v>6177700</v>
+        <v>32179300</v>
       </c>
       <c r="H52" s="3">
-        <v>445200</v>
+        <v>6172500</v>
       </c>
       <c r="I52" s="3">
-        <v>6050500</v>
+        <v>444800</v>
       </c>
       <c r="J52" s="3">
+        <v>6045400</v>
+      </c>
+      <c r="K52" s="3">
         <v>298000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1045600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>555400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>434600</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>744818000</v>
+        <v>698904000</v>
       </c>
       <c r="E54" s="3">
-        <v>701121000</v>
+        <v>744192000</v>
       </c>
       <c r="F54" s="3">
-        <v>673998000</v>
+        <v>700532000</v>
       </c>
       <c r="G54" s="3">
-        <v>641229000</v>
+        <v>673432000</v>
       </c>
       <c r="H54" s="3">
-        <v>653765000</v>
+        <v>640691000</v>
       </c>
       <c r="I54" s="3">
-        <v>635923000</v>
+        <v>653217000</v>
       </c>
       <c r="J54" s="3">
+        <v>635389000</v>
+      </c>
+      <c r="K54" s="3">
         <v>551737000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>508336000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>454305000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>438417000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,44 +2397,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6522900</v>
+        <v>6174000</v>
       </c>
       <c r="E57" s="3">
-        <v>5693900</v>
+        <v>6517400</v>
       </c>
       <c r="F57" s="3">
-        <v>4926500</v>
+        <v>5689200</v>
       </c>
       <c r="G57" s="3">
-        <v>5966900</v>
+        <v>4922300</v>
       </c>
       <c r="H57" s="3">
-        <v>1159800</v>
+        <v>5961900</v>
       </c>
       <c r="I57" s="3">
-        <v>1187000</v>
+        <v>1158800</v>
       </c>
       <c r="J57" s="3">
+        <v>1186000</v>
+      </c>
+      <c r="K57" s="3">
         <v>954000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8260000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>696200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>650100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2339,45 +2472,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>249400</v>
+        <v>299200</v>
       </c>
       <c r="E59" s="3">
-        <v>185800</v>
+        <v>249200</v>
       </c>
       <c r="F59" s="3">
-        <v>214400</v>
+        <v>185600</v>
       </c>
       <c r="G59" s="3">
-        <v>172200</v>
+        <v>214200</v>
       </c>
       <c r="H59" s="3">
-        <v>2274600</v>
+        <v>172100</v>
       </c>
       <c r="I59" s="3">
-        <v>2553300</v>
+        <v>2272700</v>
       </c>
       <c r="J59" s="3">
+        <v>2551100</v>
+      </c>
+      <c r="K59" s="3">
         <v>2814800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5984400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3394600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3828300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>85514800</v>
+        <v>72152600</v>
       </c>
       <c r="E61" s="3">
-        <v>92677200</v>
+        <v>85443000</v>
       </c>
       <c r="F61" s="3">
-        <v>86594500</v>
+        <v>92599400</v>
       </c>
       <c r="G61" s="3">
-        <v>77157500</v>
+        <v>86521800</v>
       </c>
       <c r="H61" s="3">
-        <v>81866000</v>
+        <v>77092700</v>
       </c>
       <c r="I61" s="3">
-        <v>80273900</v>
+        <v>81797300</v>
       </c>
       <c r="J61" s="3">
+        <v>80206500</v>
+      </c>
+      <c r="K61" s="3">
         <v>67960600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>61121500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>53071000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>49735500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2326000</v>
+        <v>2060600</v>
       </c>
       <c r="E62" s="3">
-        <v>2057300</v>
+        <v>2324100</v>
       </c>
       <c r="F62" s="3">
-        <v>2886300</v>
+        <v>2055600</v>
       </c>
       <c r="G62" s="3">
-        <v>1011200</v>
+        <v>2883800</v>
       </c>
       <c r="H62" s="3">
-        <v>1062600</v>
+        <v>1010300</v>
       </c>
       <c r="I62" s="3">
-        <v>987600</v>
+        <v>1061700</v>
       </c>
       <c r="J62" s="3">
+        <v>986700</v>
+      </c>
+      <c r="K62" s="3">
         <v>899700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1915500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>118200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>127700</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>701022000</v>
+        <v>653447000</v>
       </c>
       <c r="E66" s="3">
-        <v>657685000</v>
+        <v>700433000</v>
       </c>
       <c r="F66" s="3">
-        <v>631647000</v>
+        <v>657133000</v>
       </c>
       <c r="G66" s="3">
-        <v>599097000</v>
+        <v>631117000</v>
       </c>
       <c r="H66" s="3">
-        <v>612449000</v>
+        <v>598594000</v>
       </c>
       <c r="I66" s="3">
-        <v>595014000</v>
+        <v>611934000</v>
       </c>
       <c r="J66" s="3">
+        <v>594514000</v>
+      </c>
+      <c r="K66" s="3">
         <v>516574000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>475405000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>425176000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>410912000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2740,20 +2907,23 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>622400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1259600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>616200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>632000</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23809000</v>
+        <v>26066000</v>
       </c>
       <c r="E72" s="3">
-        <v>23389600</v>
+        <v>23789100</v>
       </c>
       <c r="F72" s="3">
-        <v>22730000</v>
+        <v>23369900</v>
       </c>
       <c r="G72" s="3">
-        <v>21365100</v>
+        <v>22710900</v>
       </c>
       <c r="H72" s="3">
-        <v>20031000</v>
+        <v>21347200</v>
       </c>
       <c r="I72" s="3">
-        <v>19547200</v>
+        <v>20014100</v>
       </c>
       <c r="J72" s="3">
+        <v>19530800</v>
+      </c>
+      <c r="K72" s="3">
         <v>17565600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15981200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14046000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13018000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43795700</v>
+        <v>45456800</v>
       </c>
       <c r="E76" s="3">
-        <v>43435500</v>
+        <v>43758900</v>
       </c>
       <c r="F76" s="3">
-        <v>42350800</v>
+        <v>43399100</v>
       </c>
       <c r="G76" s="3">
-        <v>42132100</v>
+        <v>42315200</v>
       </c>
       <c r="H76" s="3">
-        <v>41316700</v>
+        <v>42096700</v>
       </c>
       <c r="I76" s="3">
-        <v>40908700</v>
+        <v>41282100</v>
       </c>
       <c r="J76" s="3">
+        <v>40874400</v>
+      </c>
+      <c r="K76" s="3">
         <v>34540900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31671100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28512300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26872600</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42277</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41912</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41547</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41182</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40816</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2556100</v>
+        <v>4399700</v>
       </c>
       <c r="E81" s="3">
-        <v>4254000</v>
+        <v>2554000</v>
       </c>
       <c r="F81" s="3">
-        <v>4573400</v>
+        <v>4250400</v>
       </c>
       <c r="G81" s="3">
-        <v>4577700</v>
+        <v>4569600</v>
       </c>
       <c r="H81" s="3">
-        <v>4079700</v>
+        <v>4573900</v>
       </c>
       <c r="I81" s="3">
-        <v>5353800</v>
+        <v>4076200</v>
       </c>
       <c r="J81" s="3">
+        <v>5349300</v>
+      </c>
+      <c r="K81" s="3">
         <v>5191600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4558400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3997400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3876900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,25 +3294,26 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>994000</v>
+        <v>776100</v>
       </c>
       <c r="E83" s="3">
-        <v>622400</v>
+        <v>993200</v>
       </c>
       <c r="F83" s="3">
-        <v>856800</v>
+        <v>621900</v>
       </c>
       <c r="G83" s="3">
-        <v>694600</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
+        <v>856100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>694000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
@@ -3132,9 +3330,12 @@
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>37362100</v>
+        <v>31288900</v>
       </c>
       <c r="E89" s="3">
-        <v>-3251400</v>
+        <v>28761300</v>
       </c>
       <c r="F89" s="3">
-        <v>7550500</v>
+        <v>-3248700</v>
       </c>
       <c r="G89" s="3">
-        <v>17184000</v>
+        <v>7544100</v>
       </c>
       <c r="H89" s="3">
-        <v>7747000</v>
+        <v>17169600</v>
       </c>
       <c r="I89" s="3">
-        <v>15346700</v>
+        <v>7740500</v>
       </c>
       <c r="J89" s="3">
+        <v>15333900</v>
+      </c>
+      <c r="K89" s="3">
         <v>4032500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11690400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4500400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13642000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,8 +3584,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3382,27 +3602,30 @@
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
-        <v>-240800</v>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
-        <v>-229400</v>
+        <v>-240600</v>
       </c>
       <c r="J91" s="3">
+        <v>-229200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-264400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-257400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-225700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-231500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8192900</v>
+        <v>7324200</v>
       </c>
       <c r="E94" s="3">
-        <v>-147200</v>
+        <v>-8186000</v>
       </c>
       <c r="F94" s="3">
-        <v>118600</v>
+        <v>-147100</v>
       </c>
       <c r="G94" s="3">
-        <v>-9168300</v>
+        <v>118500</v>
       </c>
       <c r="H94" s="3">
-        <v>-10297400</v>
+        <v>-9160600</v>
       </c>
       <c r="I94" s="3">
-        <v>-6985900</v>
+        <v>-10288700</v>
       </c>
       <c r="J94" s="3">
+        <v>-6980100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1377000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5500600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-159200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1836500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2044500</v>
+        <v>-2023500</v>
       </c>
       <c r="E96" s="3">
-        <v>-3195000</v>
+        <v>-2042800</v>
       </c>
       <c r="F96" s="3">
-        <v>-3260700</v>
+        <v>-3192300</v>
       </c>
       <c r="G96" s="3">
-        <v>-3134200</v>
+        <v>-3258000</v>
       </c>
       <c r="H96" s="3">
-        <v>-3261400</v>
+        <v>-3131600</v>
       </c>
       <c r="I96" s="3">
-        <v>-2689000</v>
+        <v>-3258700</v>
       </c>
       <c r="J96" s="3">
+        <v>-2686800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2734800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2332700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1569900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1533200</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8885300</v>
+        <v>-6905800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1973000</v>
+        <v>-308400</v>
       </c>
       <c r="F100" s="3">
-        <v>1872300</v>
+        <v>-1971400</v>
       </c>
       <c r="G100" s="3">
-        <v>-4817800</v>
+        <v>1870700</v>
       </c>
       <c r="H100" s="3">
-        <v>1399200</v>
+        <v>-4813800</v>
       </c>
       <c r="I100" s="3">
-        <v>1459900</v>
+        <v>1398000</v>
       </c>
       <c r="J100" s="3">
+        <v>1458700</v>
+      </c>
+      <c r="K100" s="3">
         <v>1997300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2961800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4713400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5387600</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1488500</v>
+        <v>-764700</v>
       </c>
       <c r="E101" s="3">
-        <v>2982700</v>
+        <v>-1487300</v>
       </c>
       <c r="F101" s="3">
-        <v>2546800</v>
+        <v>2980200</v>
       </c>
       <c r="G101" s="3">
-        <v>-1891500</v>
+        <v>2544700</v>
       </c>
       <c r="H101" s="3">
-        <v>-1034000</v>
+        <v>-1890000</v>
       </c>
       <c r="I101" s="3">
-        <v>5220900</v>
+        <v>-1033200</v>
       </c>
       <c r="J101" s="3">
+        <v>5216500</v>
+      </c>
+      <c r="K101" s="3">
         <v>433800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>824300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-968600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>410700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>18795400</v>
+        <v>30942600</v>
       </c>
       <c r="E102" s="3">
-        <v>-2388900</v>
+        <v>18779600</v>
       </c>
       <c r="F102" s="3">
-        <v>12088200</v>
+        <v>-2386900</v>
       </c>
       <c r="G102" s="3">
-        <v>1306300</v>
+        <v>12078000</v>
       </c>
       <c r="H102" s="3">
-        <v>-2185200</v>
+        <v>1305200</v>
       </c>
       <c r="I102" s="3">
-        <v>15041600</v>
+        <v>-2183400</v>
       </c>
       <c r="J102" s="3">
+        <v>15029000</v>
+      </c>
+      <c r="K102" s="3">
         <v>5086500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4052300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8086000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6828600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13943700</v>
+        <v>14236600</v>
       </c>
       <c r="E8" s="3">
-        <v>17440200</v>
+        <v>17806600</v>
       </c>
       <c r="F8" s="3">
-        <v>22189000</v>
+        <v>22655100</v>
       </c>
       <c r="G8" s="3">
-        <v>21653500</v>
+        <v>22108400</v>
       </c>
       <c r="H8" s="3">
-        <v>20791700</v>
+        <v>21228500</v>
       </c>
       <c r="I8" s="3">
-        <v>21385000</v>
+        <v>21834300</v>
       </c>
       <c r="J8" s="3">
-        <v>21795600</v>
+        <v>22253500</v>
       </c>
       <c r="K8" s="3">
         <v>21097900</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-455500</v>
+        <v>-465100</v>
       </c>
       <c r="E15" s="3">
-        <v>-612600</v>
+        <v>-625500</v>
       </c>
       <c r="F15" s="3">
-        <v>-495500</v>
+        <v>-505900</v>
       </c>
       <c r="G15" s="3">
-        <v>-706900</v>
+        <v>-721700</v>
       </c>
       <c r="H15" s="3">
-        <v>-514800</v>
+        <v>-525600</v>
       </c>
       <c r="I15" s="3">
-        <v>-1053200</v>
+        <v>-1075300</v>
       </c>
       <c r="J15" s="3">
-        <v>-681900</v>
+        <v>-696200</v>
       </c>
       <c r="K15" s="3">
         <v>-1218400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3427900</v>
+        <v>3499900</v>
       </c>
       <c r="E17" s="3">
-        <v>9364100</v>
+        <v>9560800</v>
       </c>
       <c r="F17" s="3">
-        <v>12517800</v>
+        <v>12780800</v>
       </c>
       <c r="G17" s="3">
-        <v>11781700</v>
+        <v>12029200</v>
       </c>
       <c r="H17" s="3">
-        <v>11026300</v>
+        <v>11257900</v>
       </c>
       <c r="I17" s="3">
-        <v>11984500</v>
+        <v>12236300</v>
       </c>
       <c r="J17" s="3">
-        <v>12201500</v>
+        <v>12457900</v>
       </c>
       <c r="K17" s="3">
         <v>11933800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10515800</v>
+        <v>10736700</v>
       </c>
       <c r="E18" s="3">
-        <v>8076100</v>
+        <v>8245700</v>
       </c>
       <c r="F18" s="3">
-        <v>9671100</v>
+        <v>9874300</v>
       </c>
       <c r="G18" s="3">
-        <v>9871800</v>
+        <v>10079200</v>
       </c>
       <c r="H18" s="3">
-        <v>9765400</v>
+        <v>9970500</v>
       </c>
       <c r="I18" s="3">
-        <v>9400500</v>
+        <v>9598000</v>
       </c>
       <c r="J18" s="3">
-        <v>9594000</v>
+        <v>9795600</v>
       </c>
       <c r="K18" s="3">
         <v>9164000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4135500</v>
+        <v>-4222400</v>
       </c>
       <c r="E20" s="3">
-        <v>-4137600</v>
+        <v>-4224600</v>
       </c>
       <c r="F20" s="3">
-        <v>-3302300</v>
+        <v>-3371600</v>
       </c>
       <c r="G20" s="3">
-        <v>-2806700</v>
+        <v>-2865700</v>
       </c>
       <c r="H20" s="3">
-        <v>-3173000</v>
+        <v>-3239700</v>
       </c>
       <c r="I20" s="3">
-        <v>-3561400</v>
+        <v>-3636300</v>
       </c>
       <c r="J20" s="3">
-        <v>-2073500</v>
+        <v>-2117000</v>
       </c>
       <c r="K20" s="3">
         <v>-1797900</v>
@@ -1161,19 +1161,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7154600</v>
+        <v>7310200</v>
       </c>
       <c r="E21" s="3">
-        <v>4929200</v>
+        <v>5039700</v>
       </c>
       <c r="F21" s="3">
-        <v>6989300</v>
+        <v>7140400</v>
       </c>
       <c r="G21" s="3">
-        <v>7919100</v>
+        <v>8091400</v>
       </c>
       <c r="H21" s="3">
-        <v>7284700</v>
+        <v>7442600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6380300</v>
+        <v>6514300</v>
       </c>
       <c r="E23" s="3">
-        <v>3938400</v>
+        <v>4021200</v>
       </c>
       <c r="F23" s="3">
-        <v>6368900</v>
+        <v>6502700</v>
       </c>
       <c r="G23" s="3">
-        <v>7065000</v>
+        <v>7213500</v>
       </c>
       <c r="H23" s="3">
-        <v>6592400</v>
+        <v>6730900</v>
       </c>
       <c r="I23" s="3">
-        <v>5839100</v>
+        <v>5961800</v>
       </c>
       <c r="J23" s="3">
-        <v>7520600</v>
+        <v>7678600</v>
       </c>
       <c r="K23" s="3">
         <v>7366100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1967800</v>
+        <v>2009100</v>
       </c>
       <c r="E24" s="3">
-        <v>1313800</v>
+        <v>1341400</v>
       </c>
       <c r="F24" s="3">
-        <v>1862800</v>
+        <v>1902000</v>
       </c>
       <c r="G24" s="3">
-        <v>1987800</v>
+        <v>2029500</v>
       </c>
       <c r="H24" s="3">
-        <v>2052000</v>
+        <v>2095100</v>
       </c>
       <c r="I24" s="3">
-        <v>1755000</v>
+        <v>1791900</v>
       </c>
       <c r="J24" s="3">
-        <v>2160600</v>
+        <v>2206000</v>
       </c>
       <c r="K24" s="3">
         <v>2161700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4412500</v>
+        <v>4505200</v>
       </c>
       <c r="E26" s="3">
-        <v>2624700</v>
+        <v>2679800</v>
       </c>
       <c r="F26" s="3">
-        <v>4506100</v>
+        <v>4600700</v>
       </c>
       <c r="G26" s="3">
-        <v>5077300</v>
+        <v>5183900</v>
       </c>
       <c r="H26" s="3">
-        <v>4540300</v>
+        <v>4635700</v>
       </c>
       <c r="I26" s="3">
-        <v>4084100</v>
+        <v>4169900</v>
       </c>
       <c r="J26" s="3">
-        <v>5360000</v>
+        <v>5472600</v>
       </c>
       <c r="K26" s="3">
         <v>5204400</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4411800</v>
+        <v>4504500</v>
       </c>
       <c r="E27" s="3">
-        <v>2624000</v>
+        <v>2679100</v>
       </c>
       <c r="F27" s="3">
-        <v>4495300</v>
+        <v>4589800</v>
       </c>
       <c r="G27" s="3">
-        <v>5065800</v>
+        <v>5172300</v>
       </c>
       <c r="H27" s="3">
-        <v>4529600</v>
+        <v>4624800</v>
       </c>
       <c r="I27" s="3">
-        <v>4076200</v>
+        <v>4161900</v>
       </c>
       <c r="J27" s="3">
-        <v>5349300</v>
+        <v>5461700</v>
       </c>
       <c r="K27" s="3">
         <v>5191600</v>
@@ -1473,19 +1473,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-12100</v>
+        <v>-12400</v>
       </c>
       <c r="E29" s="3">
-        <v>-70000</v>
+        <v>-71400</v>
       </c>
       <c r="F29" s="3">
-        <v>-244900</v>
+        <v>-250000</v>
       </c>
       <c r="G29" s="3">
-        <v>-496200</v>
+        <v>-506700</v>
       </c>
       <c r="H29" s="3">
-        <v>44300</v>
+        <v>45200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4135500</v>
+        <v>4222400</v>
       </c>
       <c r="E32" s="3">
-        <v>4137600</v>
+        <v>4224600</v>
       </c>
       <c r="F32" s="3">
-        <v>3302300</v>
+        <v>3371600</v>
       </c>
       <c r="G32" s="3">
-        <v>2806700</v>
+        <v>2865700</v>
       </c>
       <c r="H32" s="3">
-        <v>3173000</v>
+        <v>3239700</v>
       </c>
       <c r="I32" s="3">
-        <v>3561400</v>
+        <v>3636300</v>
       </c>
       <c r="J32" s="3">
-        <v>2073500</v>
+        <v>2117000</v>
       </c>
       <c r="K32" s="3">
         <v>1797900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4399700</v>
+        <v>4492100</v>
       </c>
       <c r="E33" s="3">
-        <v>2554000</v>
+        <v>2607600</v>
       </c>
       <c r="F33" s="3">
-        <v>4250400</v>
+        <v>4339700</v>
       </c>
       <c r="G33" s="3">
-        <v>4569600</v>
+        <v>4665600</v>
       </c>
       <c r="H33" s="3">
-        <v>4573900</v>
+        <v>4670000</v>
       </c>
       <c r="I33" s="3">
-        <v>4076200</v>
+        <v>4161900</v>
       </c>
       <c r="J33" s="3">
-        <v>5349300</v>
+        <v>5461700</v>
       </c>
       <c r="K33" s="3">
         <v>5191600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4399700</v>
+        <v>4492100</v>
       </c>
       <c r="E35" s="3">
-        <v>2554000</v>
+        <v>2607600</v>
       </c>
       <c r="F35" s="3">
-        <v>4250400</v>
+        <v>4339700</v>
       </c>
       <c r="G35" s="3">
-        <v>4569600</v>
+        <v>4665600</v>
       </c>
       <c r="H35" s="3">
-        <v>4573900</v>
+        <v>4670000</v>
       </c>
       <c r="I35" s="3">
-        <v>4076200</v>
+        <v>4161900</v>
       </c>
       <c r="J35" s="3">
-        <v>5349300</v>
+        <v>5461700</v>
       </c>
       <c r="K35" s="3">
         <v>5191600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>105137000</v>
+        <v>107345000</v>
       </c>
       <c r="E41" s="3">
-        <v>61315500</v>
+        <v>62603600</v>
       </c>
       <c r="F41" s="3">
-        <v>48713400</v>
+        <v>49736800</v>
       </c>
       <c r="G41" s="3">
-        <v>107927000</v>
+        <v>110194000</v>
       </c>
       <c r="H41" s="3">
-        <v>43786000</v>
+        <v>44705900</v>
       </c>
       <c r="I41" s="3">
-        <v>42680800</v>
+        <v>43577400</v>
       </c>
       <c r="J41" s="3">
-        <v>50817500</v>
+        <v>51885100</v>
       </c>
       <c r="K41" s="3">
         <v>37971700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>78655000</v>
+        <v>80307400</v>
       </c>
       <c r="E42" s="3">
-        <v>168615000</v>
+        <v>172157000</v>
       </c>
       <c r="F42" s="3">
-        <v>145743000</v>
+        <v>148805000</v>
       </c>
       <c r="G42" s="3">
-        <v>103933000</v>
+        <v>106116000</v>
       </c>
       <c r="H42" s="3">
-        <v>97601700</v>
+        <v>99652100</v>
       </c>
       <c r="I42" s="3">
-        <v>120455000</v>
+        <v>122986000</v>
       </c>
       <c r="J42" s="3">
-        <v>111845000</v>
+        <v>114195000</v>
       </c>
       <c r="K42" s="3">
         <v>86736000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1408000</v>
+        <v>1437600</v>
       </c>
       <c r="E47" s="3">
-        <v>1545100</v>
+        <v>1577600</v>
       </c>
       <c r="F47" s="3">
-        <v>2111300</v>
+        <v>2155700</v>
       </c>
       <c r="G47" s="3">
-        <v>1822800</v>
+        <v>1861100</v>
       </c>
       <c r="H47" s="3">
-        <v>1605100</v>
+        <v>1638800</v>
       </c>
       <c r="I47" s="3">
-        <v>3050200</v>
+        <v>3114300</v>
       </c>
       <c r="J47" s="3">
-        <v>3884200</v>
+        <v>3965800</v>
       </c>
       <c r="K47" s="3">
         <v>3274300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1952100</v>
+        <v>1993100</v>
       </c>
       <c r="E48" s="3">
-        <v>2151300</v>
+        <v>2196500</v>
       </c>
       <c r="F48" s="3">
-        <v>1373700</v>
+        <v>1402600</v>
       </c>
       <c r="G48" s="3">
-        <v>1308800</v>
+        <v>1336300</v>
       </c>
       <c r="H48" s="3">
-        <v>1403000</v>
+        <v>1432500</v>
       </c>
       <c r="I48" s="3">
-        <v>1574400</v>
+        <v>1607400</v>
       </c>
       <c r="J48" s="3">
-        <v>1585800</v>
+        <v>1619100</v>
       </c>
       <c r="K48" s="3">
         <v>1558500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2944500</v>
+        <v>3006400</v>
       </c>
       <c r="E49" s="3">
-        <v>3126600</v>
+        <v>3192300</v>
       </c>
       <c r="F49" s="3">
-        <v>3470800</v>
+        <v>3543700</v>
       </c>
       <c r="G49" s="3">
-        <v>7040000</v>
+        <v>7187900</v>
       </c>
       <c r="H49" s="3">
-        <v>4976600</v>
+        <v>5081100</v>
       </c>
       <c r="I49" s="3">
-        <v>5477800</v>
+        <v>5592900</v>
       </c>
       <c r="J49" s="3">
-        <v>5934800</v>
+        <v>6059400</v>
       </c>
       <c r="K49" s="3">
         <v>5681100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1670000</v>
+        <v>1705100</v>
       </c>
       <c r="E52" s="3">
-        <v>1516500</v>
+        <v>1548400</v>
       </c>
       <c r="F52" s="3">
-        <v>2275500</v>
+        <v>2323300</v>
       </c>
       <c r="G52" s="3">
-        <v>32179300</v>
+        <v>32855300</v>
       </c>
       <c r="H52" s="3">
-        <v>6172500</v>
+        <v>6302200</v>
       </c>
       <c r="I52" s="3">
-        <v>444800</v>
+        <v>454200</v>
       </c>
       <c r="J52" s="3">
-        <v>6045400</v>
+        <v>6172400</v>
       </c>
       <c r="K52" s="3">
         <v>298000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>698904000</v>
+        <v>713587000</v>
       </c>
       <c r="E54" s="3">
-        <v>744192000</v>
+        <v>759827000</v>
       </c>
       <c r="F54" s="3">
-        <v>700532000</v>
+        <v>715249000</v>
       </c>
       <c r="G54" s="3">
-        <v>673432000</v>
+        <v>687580000</v>
       </c>
       <c r="H54" s="3">
-        <v>640691000</v>
+        <v>654151000</v>
       </c>
       <c r="I54" s="3">
-        <v>653217000</v>
+        <v>666940000</v>
       </c>
       <c r="J54" s="3">
-        <v>635389000</v>
+        <v>648737000</v>
       </c>
       <c r="K54" s="3">
         <v>551737000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6174000</v>
+        <v>6303700</v>
       </c>
       <c r="E57" s="3">
-        <v>6517400</v>
+        <v>6654300</v>
       </c>
       <c r="F57" s="3">
-        <v>5689200</v>
+        <v>5808700</v>
       </c>
       <c r="G57" s="3">
-        <v>4922300</v>
+        <v>5025700</v>
       </c>
       <c r="H57" s="3">
-        <v>5961900</v>
+        <v>6087100</v>
       </c>
       <c r="I57" s="3">
-        <v>1158800</v>
+        <v>1183200</v>
       </c>
       <c r="J57" s="3">
-        <v>1186000</v>
+        <v>1210900</v>
       </c>
       <c r="K57" s="3">
         <v>954000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>299200</v>
+        <v>305500</v>
       </c>
       <c r="E59" s="3">
-        <v>249200</v>
+        <v>254400</v>
       </c>
       <c r="F59" s="3">
-        <v>185600</v>
+        <v>189500</v>
       </c>
       <c r="G59" s="3">
-        <v>214200</v>
+        <v>218700</v>
       </c>
       <c r="H59" s="3">
-        <v>172100</v>
+        <v>175700</v>
       </c>
       <c r="I59" s="3">
-        <v>2272700</v>
+        <v>2320400</v>
       </c>
       <c r="J59" s="3">
-        <v>2551100</v>
+        <v>2604700</v>
       </c>
       <c r="K59" s="3">
         <v>2814800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>72152600</v>
+        <v>73668400</v>
       </c>
       <c r="E61" s="3">
-        <v>85443000</v>
+        <v>87238000</v>
       </c>
       <c r="F61" s="3">
-        <v>92599400</v>
+        <v>94544700</v>
       </c>
       <c r="G61" s="3">
-        <v>86521800</v>
+        <v>88339500</v>
       </c>
       <c r="H61" s="3">
-        <v>77092700</v>
+        <v>78712300</v>
       </c>
       <c r="I61" s="3">
-        <v>81797300</v>
+        <v>83515700</v>
       </c>
       <c r="J61" s="3">
-        <v>80206500</v>
+        <v>81891500</v>
       </c>
       <c r="K61" s="3">
         <v>67960600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2060600</v>
+        <v>2103900</v>
       </c>
       <c r="E62" s="3">
-        <v>2324100</v>
+        <v>2372900</v>
       </c>
       <c r="F62" s="3">
-        <v>2055600</v>
+        <v>2098800</v>
       </c>
       <c r="G62" s="3">
-        <v>2883800</v>
+        <v>2944400</v>
       </c>
       <c r="H62" s="3">
-        <v>1010300</v>
+        <v>1031500</v>
       </c>
       <c r="I62" s="3">
-        <v>1061700</v>
+        <v>1084000</v>
       </c>
       <c r="J62" s="3">
-        <v>986700</v>
+        <v>1007500</v>
       </c>
       <c r="K62" s="3">
         <v>899700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>653447000</v>
+        <v>667175000</v>
       </c>
       <c r="E66" s="3">
-        <v>700433000</v>
+        <v>715148000</v>
       </c>
       <c r="F66" s="3">
-        <v>657133000</v>
+        <v>670938000</v>
       </c>
       <c r="G66" s="3">
-        <v>631117000</v>
+        <v>644376000</v>
       </c>
       <c r="H66" s="3">
-        <v>598594000</v>
+        <v>611170000</v>
       </c>
       <c r="I66" s="3">
-        <v>611934000</v>
+        <v>624790000</v>
       </c>
       <c r="J66" s="3">
-        <v>594514000</v>
+        <v>607004000</v>
       </c>
       <c r="K66" s="3">
         <v>516574000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26066000</v>
+        <v>26613600</v>
       </c>
       <c r="E72" s="3">
-        <v>23789100</v>
+        <v>24288800</v>
       </c>
       <c r="F72" s="3">
-        <v>23369900</v>
+        <v>23860900</v>
       </c>
       <c r="G72" s="3">
-        <v>22710900</v>
+        <v>23188000</v>
       </c>
       <c r="H72" s="3">
-        <v>21347200</v>
+        <v>21795600</v>
       </c>
       <c r="I72" s="3">
-        <v>20014100</v>
+        <v>20434600</v>
       </c>
       <c r="J72" s="3">
-        <v>19530800</v>
+        <v>19941100</v>
       </c>
       <c r="K72" s="3">
         <v>17565600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45456800</v>
+        <v>46411800</v>
       </c>
       <c r="E76" s="3">
-        <v>43758900</v>
+        <v>44678200</v>
       </c>
       <c r="F76" s="3">
-        <v>43399100</v>
+        <v>44310800</v>
       </c>
       <c r="G76" s="3">
-        <v>42315200</v>
+        <v>43204200</v>
       </c>
       <c r="H76" s="3">
-        <v>42096700</v>
+        <v>42981100</v>
       </c>
       <c r="I76" s="3">
-        <v>41282100</v>
+        <v>42149300</v>
       </c>
       <c r="J76" s="3">
-        <v>40874400</v>
+        <v>41733100</v>
       </c>
       <c r="K76" s="3">
         <v>34540900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4399700</v>
+        <v>4492100</v>
       </c>
       <c r="E81" s="3">
-        <v>2554000</v>
+        <v>2607600</v>
       </c>
       <c r="F81" s="3">
-        <v>4250400</v>
+        <v>4339700</v>
       </c>
       <c r="G81" s="3">
-        <v>4569600</v>
+        <v>4665600</v>
       </c>
       <c r="H81" s="3">
-        <v>4573900</v>
+        <v>4670000</v>
       </c>
       <c r="I81" s="3">
-        <v>4076200</v>
+        <v>4161900</v>
       </c>
       <c r="J81" s="3">
-        <v>5349300</v>
+        <v>5461700</v>
       </c>
       <c r="K81" s="3">
         <v>5191600</v>
@@ -3301,19 +3301,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>776100</v>
+        <v>792400</v>
       </c>
       <c r="E83" s="3">
-        <v>993200</v>
+        <v>1014000</v>
       </c>
       <c r="F83" s="3">
-        <v>621900</v>
+        <v>635000</v>
       </c>
       <c r="G83" s="3">
-        <v>856100</v>
+        <v>874100</v>
       </c>
       <c r="H83" s="3">
-        <v>694000</v>
+        <v>708600</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>31288900</v>
+        <v>31946200</v>
       </c>
       <c r="E89" s="3">
-        <v>28761300</v>
+        <v>29365600</v>
       </c>
       <c r="F89" s="3">
-        <v>-3248700</v>
+        <v>-3317000</v>
       </c>
       <c r="G89" s="3">
-        <v>7544100</v>
+        <v>7702600</v>
       </c>
       <c r="H89" s="3">
-        <v>17169600</v>
+        <v>17530300</v>
       </c>
       <c r="I89" s="3">
-        <v>7740500</v>
+        <v>7903100</v>
       </c>
       <c r="J89" s="3">
-        <v>15333900</v>
+        <v>15656000</v>
       </c>
       <c r="K89" s="3">
         <v>4032500</v>
@@ -3606,10 +3606,10 @@
         <v>5</v>
       </c>
       <c r="I91" s="3">
-        <v>-240600</v>
+        <v>-245700</v>
       </c>
       <c r="J91" s="3">
-        <v>-229200</v>
+        <v>-234000</v>
       </c>
       <c r="K91" s="3">
         <v>-264400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>7324200</v>
+        <v>7478100</v>
       </c>
       <c r="E94" s="3">
-        <v>-8186000</v>
+        <v>-8358000</v>
       </c>
       <c r="F94" s="3">
-        <v>-147100</v>
+        <v>-150200</v>
       </c>
       <c r="G94" s="3">
-        <v>118500</v>
+        <v>121000</v>
       </c>
       <c r="H94" s="3">
-        <v>-9160600</v>
+        <v>-9353100</v>
       </c>
       <c r="I94" s="3">
-        <v>-10288700</v>
+        <v>-10504900</v>
       </c>
       <c r="J94" s="3">
-        <v>-6980100</v>
+        <v>-7126700</v>
       </c>
       <c r="K94" s="3">
         <v>-1377000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2023500</v>
+        <v>-2066000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2042800</v>
+        <v>-2085700</v>
       </c>
       <c r="F96" s="3">
-        <v>-3192300</v>
+        <v>-3259400</v>
       </c>
       <c r="G96" s="3">
-        <v>-3258000</v>
+        <v>-3326400</v>
       </c>
       <c r="H96" s="3">
-        <v>-3131600</v>
+        <v>-3197400</v>
       </c>
       <c r="I96" s="3">
-        <v>-3258700</v>
+        <v>-3327200</v>
       </c>
       <c r="J96" s="3">
-        <v>-2686800</v>
+        <v>-2743200</v>
       </c>
       <c r="K96" s="3">
         <v>-2734800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6905800</v>
+        <v>-7050900</v>
       </c>
       <c r="E100" s="3">
-        <v>-308400</v>
+        <v>-314900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1971400</v>
+        <v>-2012800</v>
       </c>
       <c r="G100" s="3">
-        <v>1870700</v>
+        <v>1910000</v>
       </c>
       <c r="H100" s="3">
-        <v>-4813800</v>
+        <v>-4914900</v>
       </c>
       <c r="I100" s="3">
-        <v>1398000</v>
+        <v>1427400</v>
       </c>
       <c r="J100" s="3">
-        <v>1458700</v>
+        <v>1489300</v>
       </c>
       <c r="K100" s="3">
         <v>1997300</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-764700</v>
+        <v>-780800</v>
       </c>
       <c r="E101" s="3">
-        <v>-1487300</v>
+        <v>-1518500</v>
       </c>
       <c r="F101" s="3">
-        <v>2980200</v>
+        <v>3042800</v>
       </c>
       <c r="G101" s="3">
-        <v>2544700</v>
+        <v>2598200</v>
       </c>
       <c r="H101" s="3">
-        <v>-1890000</v>
+        <v>-1929700</v>
       </c>
       <c r="I101" s="3">
-        <v>-1033200</v>
+        <v>-1054900</v>
       </c>
       <c r="J101" s="3">
-        <v>5216500</v>
+        <v>5326100</v>
       </c>
       <c r="K101" s="3">
         <v>433800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>30942600</v>
+        <v>31592700</v>
       </c>
       <c r="E102" s="3">
-        <v>18779600</v>
+        <v>19174200</v>
       </c>
       <c r="F102" s="3">
-        <v>-2386900</v>
+        <v>-2437000</v>
       </c>
       <c r="G102" s="3">
-        <v>12078000</v>
+        <v>12331800</v>
       </c>
       <c r="H102" s="3">
-        <v>1305200</v>
+        <v>1332600</v>
       </c>
       <c r="I102" s="3">
-        <v>-2183400</v>
+        <v>-2229300</v>
       </c>
       <c r="J102" s="3">
-        <v>15029000</v>
+        <v>15344700</v>
       </c>
       <c r="K102" s="3">
         <v>5086500</v>

--- a/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14236600</v>
+        <v>13385200</v>
       </c>
       <c r="E8" s="3">
-        <v>17806600</v>
+        <v>16741600</v>
       </c>
       <c r="F8" s="3">
-        <v>22655100</v>
+        <v>21300200</v>
       </c>
       <c r="G8" s="3">
-        <v>22108400</v>
+        <v>20786100</v>
       </c>
       <c r="H8" s="3">
-        <v>21228500</v>
+        <v>19958800</v>
       </c>
       <c r="I8" s="3">
-        <v>21834300</v>
+        <v>20528400</v>
       </c>
       <c r="J8" s="3">
-        <v>22253500</v>
+        <v>20922500</v>
       </c>
       <c r="K8" s="3">
         <v>21097900</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-465100</v>
+        <v>-437300</v>
       </c>
       <c r="E15" s="3">
-        <v>-625500</v>
+        <v>-588100</v>
       </c>
       <c r="F15" s="3">
-        <v>-505900</v>
+        <v>-475700</v>
       </c>
       <c r="G15" s="3">
-        <v>-721700</v>
+        <v>-678500</v>
       </c>
       <c r="H15" s="3">
-        <v>-525600</v>
+        <v>-494200</v>
       </c>
       <c r="I15" s="3">
-        <v>-1075300</v>
+        <v>-1011000</v>
       </c>
       <c r="J15" s="3">
-        <v>-696200</v>
+        <v>-654600</v>
       </c>
       <c r="K15" s="3">
         <v>-1218400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3499900</v>
+        <v>3290600</v>
       </c>
       <c r="E17" s="3">
-        <v>9560800</v>
+        <v>8989000</v>
       </c>
       <c r="F17" s="3">
-        <v>12780800</v>
+        <v>12016400</v>
       </c>
       <c r="G17" s="3">
-        <v>12029200</v>
+        <v>11309800</v>
       </c>
       <c r="H17" s="3">
-        <v>11257900</v>
+        <v>10584600</v>
       </c>
       <c r="I17" s="3">
-        <v>12236300</v>
+        <v>11504400</v>
       </c>
       <c r="J17" s="3">
-        <v>12457900</v>
+        <v>11712800</v>
       </c>
       <c r="K17" s="3">
         <v>11933800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10736700</v>
+        <v>10094600</v>
       </c>
       <c r="E18" s="3">
-        <v>8245700</v>
+        <v>7752600</v>
       </c>
       <c r="F18" s="3">
-        <v>9874300</v>
+        <v>9283700</v>
       </c>
       <c r="G18" s="3">
-        <v>10079200</v>
+        <v>9476300</v>
       </c>
       <c r="H18" s="3">
-        <v>9970500</v>
+        <v>9374200</v>
       </c>
       <c r="I18" s="3">
-        <v>9598000</v>
+        <v>9024000</v>
       </c>
       <c r="J18" s="3">
-        <v>9795600</v>
+        <v>9209700</v>
       </c>
       <c r="K18" s="3">
         <v>9164000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4222400</v>
+        <v>-3969800</v>
       </c>
       <c r="E20" s="3">
-        <v>-4224600</v>
+        <v>-3971900</v>
       </c>
       <c r="F20" s="3">
-        <v>-3371600</v>
+        <v>-3170000</v>
       </c>
       <c r="G20" s="3">
-        <v>-2865700</v>
+        <v>-2694300</v>
       </c>
       <c r="H20" s="3">
-        <v>-3239700</v>
+        <v>-3045900</v>
       </c>
       <c r="I20" s="3">
-        <v>-3636300</v>
+        <v>-3418800</v>
       </c>
       <c r="J20" s="3">
-        <v>-2117000</v>
+        <v>-1990400</v>
       </c>
       <c r="K20" s="3">
         <v>-1797900</v>
@@ -1161,19 +1161,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7310200</v>
+        <v>6878800</v>
       </c>
       <c r="E21" s="3">
-        <v>5039700</v>
+        <v>4745600</v>
       </c>
       <c r="F21" s="3">
-        <v>7140400</v>
+        <v>6718000</v>
       </c>
       <c r="G21" s="3">
-        <v>8091400</v>
+        <v>7613800</v>
       </c>
       <c r="H21" s="3">
-        <v>7442600</v>
+        <v>7002600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6514300</v>
+        <v>6124700</v>
       </c>
       <c r="E23" s="3">
-        <v>4021200</v>
+        <v>3780700</v>
       </c>
       <c r="F23" s="3">
-        <v>6502700</v>
+        <v>6113800</v>
       </c>
       <c r="G23" s="3">
-        <v>7213500</v>
+        <v>6782000</v>
       </c>
       <c r="H23" s="3">
-        <v>6730900</v>
+        <v>6328300</v>
       </c>
       <c r="I23" s="3">
-        <v>5961800</v>
+        <v>5605200</v>
       </c>
       <c r="J23" s="3">
-        <v>7678600</v>
+        <v>7219300</v>
       </c>
       <c r="K23" s="3">
         <v>7366100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2009100</v>
+        <v>1889000</v>
       </c>
       <c r="E24" s="3">
-        <v>1341400</v>
+        <v>1261100</v>
       </c>
       <c r="F24" s="3">
-        <v>1902000</v>
+        <v>1788200</v>
       </c>
       <c r="G24" s="3">
-        <v>2029500</v>
+        <v>1908200</v>
       </c>
       <c r="H24" s="3">
-        <v>2095100</v>
+        <v>1969800</v>
       </c>
       <c r="I24" s="3">
-        <v>1791900</v>
+        <v>1684700</v>
       </c>
       <c r="J24" s="3">
-        <v>2206000</v>
+        <v>2074000</v>
       </c>
       <c r="K24" s="3">
         <v>2161700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4505200</v>
+        <v>4235800</v>
       </c>
       <c r="E26" s="3">
-        <v>2679800</v>
+        <v>2519500</v>
       </c>
       <c r="F26" s="3">
-        <v>4600700</v>
+        <v>4325600</v>
       </c>
       <c r="G26" s="3">
-        <v>5183900</v>
+        <v>4873900</v>
       </c>
       <c r="H26" s="3">
-        <v>4635700</v>
+        <v>4358500</v>
       </c>
       <c r="I26" s="3">
-        <v>4169900</v>
+        <v>3920500</v>
       </c>
       <c r="J26" s="3">
-        <v>5472600</v>
+        <v>5145300</v>
       </c>
       <c r="K26" s="3">
         <v>5204400</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4504500</v>
+        <v>4235100</v>
       </c>
       <c r="E27" s="3">
-        <v>2679100</v>
+        <v>2518800</v>
       </c>
       <c r="F27" s="3">
-        <v>4589800</v>
+        <v>4315300</v>
       </c>
       <c r="G27" s="3">
-        <v>5172300</v>
+        <v>4862900</v>
       </c>
       <c r="H27" s="3">
-        <v>4624800</v>
+        <v>4348200</v>
       </c>
       <c r="I27" s="3">
-        <v>4161900</v>
+        <v>3912900</v>
       </c>
       <c r="J27" s="3">
-        <v>5461700</v>
+        <v>5135000</v>
       </c>
       <c r="K27" s="3">
         <v>5191600</v>
@@ -1473,19 +1473,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-12400</v>
+        <v>-11700</v>
       </c>
       <c r="E29" s="3">
-        <v>-71400</v>
+        <v>-67200</v>
       </c>
       <c r="F29" s="3">
-        <v>-250000</v>
+        <v>-235100</v>
       </c>
       <c r="G29" s="3">
-        <v>-506700</v>
+        <v>-476400</v>
       </c>
       <c r="H29" s="3">
-        <v>45200</v>
+        <v>42500</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4222400</v>
+        <v>3969800</v>
       </c>
       <c r="E32" s="3">
-        <v>4224600</v>
+        <v>3971900</v>
       </c>
       <c r="F32" s="3">
-        <v>3371600</v>
+        <v>3170000</v>
       </c>
       <c r="G32" s="3">
-        <v>2865700</v>
+        <v>2694300</v>
       </c>
       <c r="H32" s="3">
-        <v>3239700</v>
+        <v>3045900</v>
       </c>
       <c r="I32" s="3">
-        <v>3636300</v>
+        <v>3418800</v>
       </c>
       <c r="J32" s="3">
-        <v>2117000</v>
+        <v>1990400</v>
       </c>
       <c r="K32" s="3">
         <v>1797900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4492100</v>
+        <v>4223400</v>
       </c>
       <c r="E33" s="3">
-        <v>2607600</v>
+        <v>2451700</v>
       </c>
       <c r="F33" s="3">
-        <v>4339700</v>
+        <v>4080200</v>
       </c>
       <c r="G33" s="3">
-        <v>4665600</v>
+        <v>4386600</v>
       </c>
       <c r="H33" s="3">
-        <v>4670000</v>
+        <v>4390700</v>
       </c>
       <c r="I33" s="3">
-        <v>4161900</v>
+        <v>3912900</v>
       </c>
       <c r="J33" s="3">
-        <v>5461700</v>
+        <v>5135000</v>
       </c>
       <c r="K33" s="3">
         <v>5191600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4492100</v>
+        <v>4223400</v>
       </c>
       <c r="E35" s="3">
-        <v>2607600</v>
+        <v>2451700</v>
       </c>
       <c r="F35" s="3">
-        <v>4339700</v>
+        <v>4080200</v>
       </c>
       <c r="G35" s="3">
-        <v>4665600</v>
+        <v>4386600</v>
       </c>
       <c r="H35" s="3">
-        <v>4670000</v>
+        <v>4390700</v>
       </c>
       <c r="I35" s="3">
-        <v>4161900</v>
+        <v>3912900</v>
       </c>
       <c r="J35" s="3">
-        <v>5461700</v>
+        <v>5135000</v>
       </c>
       <c r="K35" s="3">
         <v>5191600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>107345000</v>
+        <v>100925000</v>
       </c>
       <c r="E41" s="3">
-        <v>62603600</v>
+        <v>58859400</v>
       </c>
       <c r="F41" s="3">
-        <v>49736800</v>
+        <v>46762100</v>
       </c>
       <c r="G41" s="3">
-        <v>110194000</v>
+        <v>103604000</v>
       </c>
       <c r="H41" s="3">
-        <v>44705900</v>
+        <v>42032200</v>
       </c>
       <c r="I41" s="3">
-        <v>43577400</v>
+        <v>40971200</v>
       </c>
       <c r="J41" s="3">
-        <v>51885100</v>
+        <v>48782000</v>
       </c>
       <c r="K41" s="3">
         <v>37971700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>80307400</v>
+        <v>75504300</v>
       </c>
       <c r="E42" s="3">
-        <v>172157000</v>
+        <v>161861000</v>
       </c>
       <c r="F42" s="3">
-        <v>148805000</v>
+        <v>139905000</v>
       </c>
       <c r="G42" s="3">
-        <v>106116000</v>
+        <v>99769600</v>
       </c>
       <c r="H42" s="3">
-        <v>99652100</v>
+        <v>93692100</v>
       </c>
       <c r="I42" s="3">
-        <v>122986000</v>
+        <v>115630000</v>
       </c>
       <c r="J42" s="3">
-        <v>114195000</v>
+        <v>107365000</v>
       </c>
       <c r="K42" s="3">
         <v>86736000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1437600</v>
+        <v>1351600</v>
       </c>
       <c r="E47" s="3">
-        <v>1577600</v>
+        <v>1483200</v>
       </c>
       <c r="F47" s="3">
-        <v>2155700</v>
+        <v>2026700</v>
       </c>
       <c r="G47" s="3">
-        <v>1861100</v>
+        <v>1749800</v>
       </c>
       <c r="H47" s="3">
-        <v>1638800</v>
+        <v>1540800</v>
       </c>
       <c r="I47" s="3">
-        <v>3114300</v>
+        <v>2928000</v>
       </c>
       <c r="J47" s="3">
-        <v>3965800</v>
+        <v>3728600</v>
       </c>
       <c r="K47" s="3">
         <v>3274300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1993100</v>
+        <v>1873900</v>
       </c>
       <c r="E48" s="3">
-        <v>2196500</v>
+        <v>2065100</v>
       </c>
       <c r="F48" s="3">
-        <v>1402600</v>
+        <v>1318700</v>
       </c>
       <c r="G48" s="3">
-        <v>1336300</v>
+        <v>1256300</v>
       </c>
       <c r="H48" s="3">
-        <v>1432500</v>
+        <v>1346800</v>
       </c>
       <c r="I48" s="3">
-        <v>1607400</v>
+        <v>1511300</v>
       </c>
       <c r="J48" s="3">
-        <v>1619100</v>
+        <v>1522300</v>
       </c>
       <c r="K48" s="3">
         <v>1558500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3006400</v>
+        <v>2826600</v>
       </c>
       <c r="E49" s="3">
-        <v>3192300</v>
+        <v>3001400</v>
       </c>
       <c r="F49" s="3">
-        <v>3543700</v>
+        <v>3331700</v>
       </c>
       <c r="G49" s="3">
-        <v>7187900</v>
+        <v>6758000</v>
       </c>
       <c r="H49" s="3">
-        <v>5081100</v>
+        <v>4777200</v>
       </c>
       <c r="I49" s="3">
-        <v>5592900</v>
+        <v>5258400</v>
       </c>
       <c r="J49" s="3">
-        <v>6059400</v>
+        <v>5697000</v>
       </c>
       <c r="K49" s="3">
         <v>5681100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1705100</v>
+        <v>1603200</v>
       </c>
       <c r="E52" s="3">
-        <v>1548400</v>
+        <v>1455800</v>
       </c>
       <c r="F52" s="3">
-        <v>2323300</v>
+        <v>2184400</v>
       </c>
       <c r="G52" s="3">
-        <v>32855300</v>
+        <v>30890300</v>
       </c>
       <c r="H52" s="3">
-        <v>6302200</v>
+        <v>5925300</v>
       </c>
       <c r="I52" s="3">
-        <v>454200</v>
+        <v>427000</v>
       </c>
       <c r="J52" s="3">
-        <v>6172400</v>
+        <v>5803300</v>
       </c>
       <c r="K52" s="3">
         <v>298000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>713587000</v>
+        <v>670909000</v>
       </c>
       <c r="E54" s="3">
-        <v>759827000</v>
+        <v>714383000</v>
       </c>
       <c r="F54" s="3">
-        <v>715249000</v>
+        <v>672471000</v>
       </c>
       <c r="G54" s="3">
-        <v>687580000</v>
+        <v>646457000</v>
       </c>
       <c r="H54" s="3">
-        <v>654151000</v>
+        <v>615027000</v>
       </c>
       <c r="I54" s="3">
-        <v>666940000</v>
+        <v>627051000</v>
       </c>
       <c r="J54" s="3">
-        <v>648737000</v>
+        <v>609938000</v>
       </c>
       <c r="K54" s="3">
         <v>551737000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6303700</v>
+        <v>5926700</v>
       </c>
       <c r="E57" s="3">
-        <v>6654300</v>
+        <v>6256300</v>
       </c>
       <c r="F57" s="3">
-        <v>5808700</v>
+        <v>5461300</v>
       </c>
       <c r="G57" s="3">
-        <v>5025700</v>
+        <v>4725100</v>
       </c>
       <c r="H57" s="3">
-        <v>6087100</v>
+        <v>5723100</v>
       </c>
       <c r="I57" s="3">
-        <v>1183200</v>
+        <v>1112400</v>
       </c>
       <c r="J57" s="3">
-        <v>1210900</v>
+        <v>1138400</v>
       </c>
       <c r="K57" s="3">
         <v>954000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>305500</v>
+        <v>287200</v>
       </c>
       <c r="E59" s="3">
-        <v>254400</v>
+        <v>239200</v>
       </c>
       <c r="F59" s="3">
-        <v>189500</v>
+        <v>178200</v>
       </c>
       <c r="G59" s="3">
-        <v>218700</v>
+        <v>205600</v>
       </c>
       <c r="H59" s="3">
-        <v>175700</v>
+        <v>165200</v>
       </c>
       <c r="I59" s="3">
-        <v>2320400</v>
+        <v>2181600</v>
       </c>
       <c r="J59" s="3">
-        <v>2604700</v>
+        <v>2448900</v>
       </c>
       <c r="K59" s="3">
         <v>2814800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>73668400</v>
+        <v>69262400</v>
       </c>
       <c r="E61" s="3">
-        <v>87238000</v>
+        <v>82020400</v>
       </c>
       <c r="F61" s="3">
-        <v>94544700</v>
+        <v>88890200</v>
       </c>
       <c r="G61" s="3">
-        <v>88339500</v>
+        <v>83056100</v>
       </c>
       <c r="H61" s="3">
-        <v>78712300</v>
+        <v>74004700</v>
       </c>
       <c r="I61" s="3">
-        <v>83515700</v>
+        <v>78520800</v>
       </c>
       <c r="J61" s="3">
-        <v>81891500</v>
+        <v>76993700</v>
       </c>
       <c r="K61" s="3">
         <v>67960600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2103900</v>
+        <v>1978100</v>
       </c>
       <c r="E62" s="3">
-        <v>2372900</v>
+        <v>2231000</v>
       </c>
       <c r="F62" s="3">
-        <v>2098800</v>
+        <v>1973300</v>
       </c>
       <c r="G62" s="3">
-        <v>2944400</v>
+        <v>2768300</v>
       </c>
       <c r="H62" s="3">
-        <v>1031500</v>
+        <v>969800</v>
       </c>
       <c r="I62" s="3">
-        <v>1084000</v>
+        <v>1019200</v>
       </c>
       <c r="J62" s="3">
-        <v>1007500</v>
+        <v>947200</v>
       </c>
       <c r="K62" s="3">
         <v>899700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>667175000</v>
+        <v>627273000</v>
       </c>
       <c r="E66" s="3">
-        <v>715148000</v>
+        <v>672377000</v>
       </c>
       <c r="F66" s="3">
-        <v>670938000</v>
+        <v>630811000</v>
       </c>
       <c r="G66" s="3">
-        <v>644376000</v>
+        <v>605837000</v>
       </c>
       <c r="H66" s="3">
-        <v>611170000</v>
+        <v>574617000</v>
       </c>
       <c r="I66" s="3">
-        <v>624790000</v>
+        <v>587423000</v>
       </c>
       <c r="J66" s="3">
-        <v>607004000</v>
+        <v>570700000</v>
       </c>
       <c r="K66" s="3">
         <v>516574000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26613600</v>
+        <v>25021900</v>
       </c>
       <c r="E72" s="3">
-        <v>24288800</v>
+        <v>22836200</v>
       </c>
       <c r="F72" s="3">
-        <v>23860900</v>
+        <v>22433800</v>
       </c>
       <c r="G72" s="3">
-        <v>23188000</v>
+        <v>21801200</v>
       </c>
       <c r="H72" s="3">
-        <v>21795600</v>
+        <v>20492100</v>
       </c>
       <c r="I72" s="3">
-        <v>20434600</v>
+        <v>19212400</v>
       </c>
       <c r="J72" s="3">
-        <v>19941100</v>
+        <v>18748400</v>
       </c>
       <c r="K72" s="3">
         <v>17565600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46411800</v>
+        <v>43636000</v>
       </c>
       <c r="E76" s="3">
-        <v>44678200</v>
+        <v>42006100</v>
       </c>
       <c r="F76" s="3">
-        <v>44310800</v>
+        <v>41660700</v>
       </c>
       <c r="G76" s="3">
-        <v>43204200</v>
+        <v>40620200</v>
       </c>
       <c r="H76" s="3">
-        <v>42981100</v>
+        <v>40410500</v>
       </c>
       <c r="I76" s="3">
-        <v>42149300</v>
+        <v>39628500</v>
       </c>
       <c r="J76" s="3">
-        <v>41733100</v>
+        <v>39237100</v>
       </c>
       <c r="K76" s="3">
         <v>34540900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4492100</v>
+        <v>4223400</v>
       </c>
       <c r="E81" s="3">
-        <v>2607600</v>
+        <v>2451700</v>
       </c>
       <c r="F81" s="3">
-        <v>4339700</v>
+        <v>4080200</v>
       </c>
       <c r="G81" s="3">
-        <v>4665600</v>
+        <v>4386600</v>
       </c>
       <c r="H81" s="3">
-        <v>4670000</v>
+        <v>4390700</v>
       </c>
       <c r="I81" s="3">
-        <v>4161900</v>
+        <v>3912900</v>
       </c>
       <c r="J81" s="3">
-        <v>5461700</v>
+        <v>5135000</v>
       </c>
       <c r="K81" s="3">
         <v>5191600</v>
@@ -3301,19 +3301,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>792400</v>
+        <v>745000</v>
       </c>
       <c r="E83" s="3">
-        <v>1014000</v>
+        <v>953400</v>
       </c>
       <c r="F83" s="3">
-        <v>635000</v>
+        <v>597000</v>
       </c>
       <c r="G83" s="3">
-        <v>874100</v>
+        <v>821800</v>
       </c>
       <c r="H83" s="3">
-        <v>708600</v>
+        <v>666200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>31946200</v>
+        <v>30035600</v>
       </c>
       <c r="E89" s="3">
-        <v>29365600</v>
+        <v>27609300</v>
       </c>
       <c r="F89" s="3">
-        <v>-3317000</v>
+        <v>-3118600</v>
       </c>
       <c r="G89" s="3">
-        <v>7702600</v>
+        <v>7241900</v>
       </c>
       <c r="H89" s="3">
-        <v>17530300</v>
+        <v>16481800</v>
       </c>
       <c r="I89" s="3">
-        <v>7903100</v>
+        <v>7430400</v>
       </c>
       <c r="J89" s="3">
-        <v>15656000</v>
+        <v>14719700</v>
       </c>
       <c r="K89" s="3">
         <v>4032500</v>
@@ -3606,10 +3606,10 @@
         <v>5</v>
       </c>
       <c r="I91" s="3">
-        <v>-245700</v>
+        <v>-231000</v>
       </c>
       <c r="J91" s="3">
-        <v>-234000</v>
+        <v>-220000</v>
       </c>
       <c r="K91" s="3">
         <v>-264400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>7478100</v>
+        <v>7030800</v>
       </c>
       <c r="E94" s="3">
-        <v>-8358000</v>
+        <v>-7858100</v>
       </c>
       <c r="F94" s="3">
-        <v>-150200</v>
+        <v>-141200</v>
       </c>
       <c r="G94" s="3">
-        <v>121000</v>
+        <v>113800</v>
       </c>
       <c r="H94" s="3">
-        <v>-9353100</v>
+        <v>-8793700</v>
       </c>
       <c r="I94" s="3">
-        <v>-10504900</v>
+        <v>-9876600</v>
       </c>
       <c r="J94" s="3">
-        <v>-7126700</v>
+        <v>-6700500</v>
       </c>
       <c r="K94" s="3">
         <v>-1377000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2066000</v>
+        <v>-1942400</v>
       </c>
       <c r="E96" s="3">
-        <v>-2085700</v>
+        <v>-1960900</v>
       </c>
       <c r="F96" s="3">
-        <v>-3259400</v>
+        <v>-3064400</v>
       </c>
       <c r="G96" s="3">
-        <v>-3326400</v>
+        <v>-3127500</v>
       </c>
       <c r="H96" s="3">
-        <v>-3197400</v>
+        <v>-3006200</v>
       </c>
       <c r="I96" s="3">
-        <v>-3327200</v>
+        <v>-3128200</v>
       </c>
       <c r="J96" s="3">
-        <v>-2743200</v>
+        <v>-2579200</v>
       </c>
       <c r="K96" s="3">
         <v>-2734800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7050900</v>
+        <v>-6629200</v>
       </c>
       <c r="E100" s="3">
-        <v>-314900</v>
+        <v>-296100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2012800</v>
+        <v>-1892400</v>
       </c>
       <c r="G100" s="3">
-        <v>1910000</v>
+        <v>1795700</v>
       </c>
       <c r="H100" s="3">
-        <v>-4914900</v>
+        <v>-4621000</v>
       </c>
       <c r="I100" s="3">
-        <v>1427400</v>
+        <v>1342000</v>
       </c>
       <c r="J100" s="3">
-        <v>1489300</v>
+        <v>1400300</v>
       </c>
       <c r="K100" s="3">
         <v>1997300</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-780800</v>
+        <v>-734100</v>
       </c>
       <c r="E101" s="3">
-        <v>-1518500</v>
+        <v>-1427700</v>
       </c>
       <c r="F101" s="3">
-        <v>3042800</v>
+        <v>2860900</v>
       </c>
       <c r="G101" s="3">
-        <v>2598200</v>
+        <v>2442800</v>
       </c>
       <c r="H101" s="3">
-        <v>-1929700</v>
+        <v>-1814300</v>
       </c>
       <c r="I101" s="3">
-        <v>-1054900</v>
+        <v>-991800</v>
       </c>
       <c r="J101" s="3">
-        <v>5326100</v>
+        <v>5007500</v>
       </c>
       <c r="K101" s="3">
         <v>433800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>31592700</v>
+        <v>29703200</v>
       </c>
       <c r="E102" s="3">
-        <v>19174200</v>
+        <v>18027400</v>
       </c>
       <c r="F102" s="3">
-        <v>-2437000</v>
+        <v>-2291300</v>
       </c>
       <c r="G102" s="3">
-        <v>12331800</v>
+        <v>11594200</v>
       </c>
       <c r="H102" s="3">
-        <v>1332600</v>
+        <v>1252900</v>
       </c>
       <c r="I102" s="3">
-        <v>-2229300</v>
+        <v>-2096000</v>
       </c>
       <c r="J102" s="3">
-        <v>15344700</v>
+        <v>14427000</v>
       </c>
       <c r="K102" s="3">
         <v>5086500</v>

--- a/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13385200</v>
+        <v>13631200</v>
       </c>
       <c r="E8" s="3">
-        <v>16741600</v>
+        <v>17049300</v>
       </c>
       <c r="F8" s="3">
-        <v>21300200</v>
+        <v>21691700</v>
       </c>
       <c r="G8" s="3">
-        <v>20786100</v>
+        <v>21168200</v>
       </c>
       <c r="H8" s="3">
-        <v>19958800</v>
+        <v>20325800</v>
       </c>
       <c r="I8" s="3">
-        <v>20528400</v>
+        <v>20905800</v>
       </c>
       <c r="J8" s="3">
-        <v>20922500</v>
+        <v>21307100</v>
       </c>
       <c r="K8" s="3">
         <v>21097900</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-437300</v>
+        <v>-445300</v>
       </c>
       <c r="E15" s="3">
-        <v>-588100</v>
+        <v>-598900</v>
       </c>
       <c r="F15" s="3">
-        <v>-475700</v>
+        <v>-484400</v>
       </c>
       <c r="G15" s="3">
-        <v>-678500</v>
+        <v>-691000</v>
       </c>
       <c r="H15" s="3">
-        <v>-494200</v>
+        <v>-503300</v>
       </c>
       <c r="I15" s="3">
-        <v>-1011000</v>
+        <v>-1029600</v>
       </c>
       <c r="J15" s="3">
-        <v>-654600</v>
+        <v>-666600</v>
       </c>
       <c r="K15" s="3">
         <v>-1218400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3290600</v>
+        <v>3351100</v>
       </c>
       <c r="E17" s="3">
-        <v>8989000</v>
+        <v>9154300</v>
       </c>
       <c r="F17" s="3">
-        <v>12016400</v>
+        <v>12237300</v>
       </c>
       <c r="G17" s="3">
-        <v>11309800</v>
+        <v>11517700</v>
       </c>
       <c r="H17" s="3">
-        <v>10584600</v>
+        <v>10779200</v>
       </c>
       <c r="I17" s="3">
-        <v>11504400</v>
+        <v>11715900</v>
       </c>
       <c r="J17" s="3">
-        <v>11712800</v>
+        <v>11928100</v>
       </c>
       <c r="K17" s="3">
         <v>11933800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10094600</v>
+        <v>10280100</v>
       </c>
       <c r="E18" s="3">
-        <v>7752600</v>
+        <v>7895100</v>
       </c>
       <c r="F18" s="3">
-        <v>9283700</v>
+        <v>9454400</v>
       </c>
       <c r="G18" s="3">
-        <v>9476300</v>
+        <v>9650500</v>
       </c>
       <c r="H18" s="3">
-        <v>9374200</v>
+        <v>9546500</v>
       </c>
       <c r="I18" s="3">
-        <v>9024000</v>
+        <v>9189900</v>
       </c>
       <c r="J18" s="3">
-        <v>9209700</v>
+        <v>9379000</v>
       </c>
       <c r="K18" s="3">
         <v>9164000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3969800</v>
+        <v>-4042800</v>
       </c>
       <c r="E20" s="3">
-        <v>-3971900</v>
+        <v>-4044900</v>
       </c>
       <c r="F20" s="3">
-        <v>-3170000</v>
+        <v>-3228300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2694300</v>
+        <v>-2743800</v>
       </c>
       <c r="H20" s="3">
-        <v>-3045900</v>
+        <v>-3101900</v>
       </c>
       <c r="I20" s="3">
-        <v>-3418800</v>
+        <v>-3481600</v>
       </c>
       <c r="J20" s="3">
-        <v>-1990400</v>
+        <v>-2027000</v>
       </c>
       <c r="K20" s="3">
         <v>-1797900</v>
@@ -1161,19 +1161,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6878800</v>
+        <v>6988000</v>
       </c>
       <c r="E21" s="3">
-        <v>4745600</v>
+        <v>4810800</v>
       </c>
       <c r="F21" s="3">
-        <v>6718000</v>
+        <v>6827700</v>
       </c>
       <c r="G21" s="3">
-        <v>7613800</v>
+        <v>7734700</v>
       </c>
       <c r="H21" s="3">
-        <v>7002600</v>
+        <v>7115900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6124700</v>
+        <v>6237300</v>
       </c>
       <c r="E23" s="3">
-        <v>3780700</v>
+        <v>3850200</v>
       </c>
       <c r="F23" s="3">
-        <v>6113800</v>
+        <v>6226200</v>
       </c>
       <c r="G23" s="3">
-        <v>6782000</v>
+        <v>6906700</v>
       </c>
       <c r="H23" s="3">
-        <v>6328300</v>
+        <v>6444600</v>
       </c>
       <c r="I23" s="3">
-        <v>5605200</v>
+        <v>5708200</v>
       </c>
       <c r="J23" s="3">
-        <v>7219300</v>
+        <v>7352000</v>
       </c>
       <c r="K23" s="3">
         <v>7366100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1889000</v>
+        <v>1923700</v>
       </c>
       <c r="E24" s="3">
-        <v>1261100</v>
+        <v>1284300</v>
       </c>
       <c r="F24" s="3">
-        <v>1788200</v>
+        <v>1821100</v>
       </c>
       <c r="G24" s="3">
-        <v>1908200</v>
+        <v>1943200</v>
       </c>
       <c r="H24" s="3">
-        <v>1969800</v>
+        <v>2006100</v>
       </c>
       <c r="I24" s="3">
-        <v>1684700</v>
+        <v>1715700</v>
       </c>
       <c r="J24" s="3">
-        <v>2074000</v>
+        <v>2112100</v>
       </c>
       <c r="K24" s="3">
         <v>2161700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4235800</v>
+        <v>4313600</v>
       </c>
       <c r="E26" s="3">
-        <v>2519500</v>
+        <v>2565800</v>
       </c>
       <c r="F26" s="3">
-        <v>4325600</v>
+        <v>4405100</v>
       </c>
       <c r="G26" s="3">
-        <v>4873900</v>
+        <v>4963500</v>
       </c>
       <c r="H26" s="3">
-        <v>4358500</v>
+        <v>4438600</v>
       </c>
       <c r="I26" s="3">
-        <v>3920500</v>
+        <v>3992600</v>
       </c>
       <c r="J26" s="3">
-        <v>5145300</v>
+        <v>5239900</v>
       </c>
       <c r="K26" s="3">
         <v>5204400</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4235100</v>
+        <v>4312900</v>
       </c>
       <c r="E27" s="3">
-        <v>2518800</v>
+        <v>2565200</v>
       </c>
       <c r="F27" s="3">
-        <v>4315300</v>
+        <v>4394600</v>
       </c>
       <c r="G27" s="3">
-        <v>4862900</v>
+        <v>4952300</v>
       </c>
       <c r="H27" s="3">
-        <v>4348200</v>
+        <v>4428100</v>
       </c>
       <c r="I27" s="3">
-        <v>3912900</v>
+        <v>3984900</v>
       </c>
       <c r="J27" s="3">
-        <v>5135000</v>
+        <v>5229400</v>
       </c>
       <c r="K27" s="3">
         <v>5191600</v>
@@ -1473,19 +1473,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-11700</v>
+        <v>-11900</v>
       </c>
       <c r="E29" s="3">
-        <v>-67200</v>
+        <v>-68400</v>
       </c>
       <c r="F29" s="3">
-        <v>-235100</v>
+        <v>-239400</v>
       </c>
       <c r="G29" s="3">
-        <v>-476400</v>
+        <v>-485100</v>
       </c>
       <c r="H29" s="3">
-        <v>42500</v>
+        <v>43300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3969800</v>
+        <v>4042800</v>
       </c>
       <c r="E32" s="3">
-        <v>3971900</v>
+        <v>4044900</v>
       </c>
       <c r="F32" s="3">
-        <v>3170000</v>
+        <v>3228300</v>
       </c>
       <c r="G32" s="3">
-        <v>2694300</v>
+        <v>2743800</v>
       </c>
       <c r="H32" s="3">
-        <v>3045900</v>
+        <v>3101900</v>
       </c>
       <c r="I32" s="3">
-        <v>3418800</v>
+        <v>3481600</v>
       </c>
       <c r="J32" s="3">
-        <v>1990400</v>
+        <v>2027000</v>
       </c>
       <c r="K32" s="3">
         <v>1797900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4223400</v>
+        <v>4301100</v>
       </c>
       <c r="E33" s="3">
-        <v>2451700</v>
+        <v>2496700</v>
       </c>
       <c r="F33" s="3">
-        <v>4080200</v>
+        <v>4155200</v>
       </c>
       <c r="G33" s="3">
-        <v>4386600</v>
+        <v>4467200</v>
       </c>
       <c r="H33" s="3">
-        <v>4390700</v>
+        <v>4471400</v>
       </c>
       <c r="I33" s="3">
-        <v>3912900</v>
+        <v>3984900</v>
       </c>
       <c r="J33" s="3">
-        <v>5135000</v>
+        <v>5229400</v>
       </c>
       <c r="K33" s="3">
         <v>5191600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4223400</v>
+        <v>4301100</v>
       </c>
       <c r="E35" s="3">
-        <v>2451700</v>
+        <v>2496700</v>
       </c>
       <c r="F35" s="3">
-        <v>4080200</v>
+        <v>4155200</v>
       </c>
       <c r="G35" s="3">
-        <v>4386600</v>
+        <v>4467200</v>
       </c>
       <c r="H35" s="3">
-        <v>4390700</v>
+        <v>4471400</v>
       </c>
       <c r="I35" s="3">
-        <v>3912900</v>
+        <v>3984900</v>
       </c>
       <c r="J35" s="3">
-        <v>5135000</v>
+        <v>5229400</v>
       </c>
       <c r="K35" s="3">
         <v>5191600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100925000</v>
+        <v>102781000</v>
       </c>
       <c r="E41" s="3">
-        <v>58859400</v>
+        <v>59941400</v>
       </c>
       <c r="F41" s="3">
-        <v>46762100</v>
+        <v>47621700</v>
       </c>
       <c r="G41" s="3">
-        <v>103604000</v>
+        <v>105508000</v>
       </c>
       <c r="H41" s="3">
-        <v>42032200</v>
+        <v>42804800</v>
       </c>
       <c r="I41" s="3">
-        <v>40971200</v>
+        <v>41724300</v>
       </c>
       <c r="J41" s="3">
-        <v>48782000</v>
+        <v>49678800</v>
       </c>
       <c r="K41" s="3">
         <v>37971700</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>75504300</v>
+        <v>76892400</v>
       </c>
       <c r="E42" s="3">
-        <v>161861000</v>
+        <v>164836000</v>
       </c>
       <c r="F42" s="3">
-        <v>139905000</v>
+        <v>142477000</v>
       </c>
       <c r="G42" s="3">
-        <v>99769600</v>
+        <v>101604000</v>
       </c>
       <c r="H42" s="3">
-        <v>93692100</v>
+        <v>95414500</v>
       </c>
       <c r="I42" s="3">
-        <v>115630000</v>
+        <v>117756000</v>
       </c>
       <c r="J42" s="3">
-        <v>107365000</v>
+        <v>109339000</v>
       </c>
       <c r="K42" s="3">
         <v>86736000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1351600</v>
+        <v>1376500</v>
       </c>
       <c r="E47" s="3">
-        <v>1483200</v>
+        <v>1510500</v>
       </c>
       <c r="F47" s="3">
-        <v>2026700</v>
+        <v>2064000</v>
       </c>
       <c r="G47" s="3">
-        <v>1749800</v>
+        <v>1782000</v>
       </c>
       <c r="H47" s="3">
-        <v>1540800</v>
+        <v>1569100</v>
       </c>
       <c r="I47" s="3">
-        <v>2928000</v>
+        <v>2981900</v>
       </c>
       <c r="J47" s="3">
-        <v>3728600</v>
+        <v>3797100</v>
       </c>
       <c r="K47" s="3">
         <v>3274300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1873900</v>
+        <v>1908300</v>
       </c>
       <c r="E48" s="3">
-        <v>2065100</v>
+        <v>2103100</v>
       </c>
       <c r="F48" s="3">
-        <v>1318700</v>
+        <v>1343000</v>
       </c>
       <c r="G48" s="3">
-        <v>1256300</v>
+        <v>1279400</v>
       </c>
       <c r="H48" s="3">
-        <v>1346800</v>
+        <v>1371600</v>
       </c>
       <c r="I48" s="3">
-        <v>1511300</v>
+        <v>1539100</v>
       </c>
       <c r="J48" s="3">
-        <v>1522300</v>
+        <v>1550300</v>
       </c>
       <c r="K48" s="3">
         <v>1558500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2826600</v>
+        <v>2878600</v>
       </c>
       <c r="E49" s="3">
-        <v>3001400</v>
+        <v>3056500</v>
       </c>
       <c r="F49" s="3">
-        <v>3331700</v>
+        <v>3393000</v>
       </c>
       <c r="G49" s="3">
-        <v>6758000</v>
+        <v>6882300</v>
       </c>
       <c r="H49" s="3">
-        <v>4777200</v>
+        <v>4865100</v>
       </c>
       <c r="I49" s="3">
-        <v>5258400</v>
+        <v>5355100</v>
       </c>
       <c r="J49" s="3">
-        <v>5697000</v>
+        <v>5801800</v>
       </c>
       <c r="K49" s="3">
         <v>5681100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1603200</v>
+        <v>1632600</v>
       </c>
       <c r="E52" s="3">
-        <v>1455800</v>
+        <v>1482600</v>
       </c>
       <c r="F52" s="3">
-        <v>2184400</v>
+        <v>2224500</v>
       </c>
       <c r="G52" s="3">
-        <v>30890300</v>
+        <v>31458200</v>
       </c>
       <c r="H52" s="3">
-        <v>5925300</v>
+        <v>6034200</v>
       </c>
       <c r="I52" s="3">
-        <v>427000</v>
+        <v>434900</v>
       </c>
       <c r="J52" s="3">
-        <v>5803300</v>
+        <v>5910000</v>
       </c>
       <c r="K52" s="3">
         <v>298000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>670909000</v>
+        <v>683242000</v>
       </c>
       <c r="E54" s="3">
-        <v>714383000</v>
+        <v>727516000</v>
       </c>
       <c r="F54" s="3">
-        <v>672471000</v>
+        <v>684834000</v>
       </c>
       <c r="G54" s="3">
-        <v>646457000</v>
+        <v>658341000</v>
       </c>
       <c r="H54" s="3">
-        <v>615027000</v>
+        <v>626334000</v>
       </c>
       <c r="I54" s="3">
-        <v>627051000</v>
+        <v>638579000</v>
       </c>
       <c r="J54" s="3">
-        <v>609938000</v>
+        <v>621150000</v>
       </c>
       <c r="K54" s="3">
         <v>551737000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5926700</v>
+        <v>6035600</v>
       </c>
       <c r="E57" s="3">
-        <v>6256300</v>
+        <v>6371300</v>
       </c>
       <c r="F57" s="3">
-        <v>5461300</v>
+        <v>5561700</v>
       </c>
       <c r="G57" s="3">
-        <v>4725100</v>
+        <v>4812000</v>
       </c>
       <c r="H57" s="3">
-        <v>5723100</v>
+        <v>5828300</v>
       </c>
       <c r="I57" s="3">
-        <v>1112400</v>
+        <v>1132900</v>
       </c>
       <c r="J57" s="3">
-        <v>1138400</v>
+        <v>1159400</v>
       </c>
       <c r="K57" s="3">
         <v>954000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>287200</v>
+        <v>292500</v>
       </c>
       <c r="E59" s="3">
-        <v>239200</v>
+        <v>243600</v>
       </c>
       <c r="F59" s="3">
-        <v>178200</v>
+        <v>181500</v>
       </c>
       <c r="G59" s="3">
-        <v>205600</v>
+        <v>209400</v>
       </c>
       <c r="H59" s="3">
-        <v>165200</v>
+        <v>168200</v>
       </c>
       <c r="I59" s="3">
-        <v>2181600</v>
+        <v>2221700</v>
       </c>
       <c r="J59" s="3">
-        <v>2448900</v>
+        <v>2494000</v>
       </c>
       <c r="K59" s="3">
         <v>2814800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>69262400</v>
+        <v>70535700</v>
       </c>
       <c r="E61" s="3">
-        <v>82020400</v>
+        <v>83528300</v>
       </c>
       <c r="F61" s="3">
-        <v>88890200</v>
+        <v>90524300</v>
       </c>
       <c r="G61" s="3">
-        <v>83056100</v>
+        <v>84582900</v>
       </c>
       <c r="H61" s="3">
-        <v>74004700</v>
+        <v>75365200</v>
       </c>
       <c r="I61" s="3">
-        <v>78520800</v>
+        <v>79964300</v>
       </c>
       <c r="J61" s="3">
-        <v>76993700</v>
+        <v>78409100</v>
       </c>
       <c r="K61" s="3">
         <v>67960600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1978100</v>
+        <v>2014400</v>
       </c>
       <c r="E62" s="3">
-        <v>2231000</v>
+        <v>2272000</v>
       </c>
       <c r="F62" s="3">
-        <v>1973300</v>
+        <v>2009500</v>
       </c>
       <c r="G62" s="3">
-        <v>2768300</v>
+        <v>2819200</v>
       </c>
       <c r="H62" s="3">
-        <v>969800</v>
+        <v>987700</v>
       </c>
       <c r="I62" s="3">
-        <v>1019200</v>
+        <v>1037900</v>
       </c>
       <c r="J62" s="3">
-        <v>947200</v>
+        <v>964600</v>
       </c>
       <c r="K62" s="3">
         <v>899700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>627273000</v>
+        <v>638804000</v>
       </c>
       <c r="E66" s="3">
-        <v>672377000</v>
+        <v>684737000</v>
       </c>
       <c r="F66" s="3">
-        <v>630811000</v>
+        <v>642407000</v>
       </c>
       <c r="G66" s="3">
-        <v>605837000</v>
+        <v>616974000</v>
       </c>
       <c r="H66" s="3">
-        <v>574617000</v>
+        <v>585180000</v>
       </c>
       <c r="I66" s="3">
-        <v>587423000</v>
+        <v>598222000</v>
       </c>
       <c r="J66" s="3">
-        <v>570700000</v>
+        <v>581192000</v>
       </c>
       <c r="K66" s="3">
         <v>516574000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25021900</v>
+        <v>25481900</v>
       </c>
       <c r="E72" s="3">
-        <v>22836200</v>
+        <v>23256000</v>
       </c>
       <c r="F72" s="3">
-        <v>22433800</v>
+        <v>22846200</v>
       </c>
       <c r="G72" s="3">
-        <v>21801200</v>
+        <v>22202000</v>
       </c>
       <c r="H72" s="3">
-        <v>20492100</v>
+        <v>20868800</v>
       </c>
       <c r="I72" s="3">
-        <v>19212400</v>
+        <v>19565600</v>
       </c>
       <c r="J72" s="3">
-        <v>18748400</v>
+        <v>19093100</v>
       </c>
       <c r="K72" s="3">
         <v>17565600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43636000</v>
+        <v>44438200</v>
       </c>
       <c r="E76" s="3">
-        <v>42006100</v>
+        <v>42778300</v>
       </c>
       <c r="F76" s="3">
-        <v>41660700</v>
+        <v>42426500</v>
       </c>
       <c r="G76" s="3">
-        <v>40620200</v>
+        <v>41367000</v>
       </c>
       <c r="H76" s="3">
-        <v>40410500</v>
+        <v>41153400</v>
       </c>
       <c r="I76" s="3">
-        <v>39628500</v>
+        <v>40357000</v>
       </c>
       <c r="J76" s="3">
-        <v>39237100</v>
+        <v>39958400</v>
       </c>
       <c r="K76" s="3">
         <v>34540900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4223400</v>
+        <v>4301100</v>
       </c>
       <c r="E81" s="3">
-        <v>2451700</v>
+        <v>2496700</v>
       </c>
       <c r="F81" s="3">
-        <v>4080200</v>
+        <v>4155200</v>
       </c>
       <c r="G81" s="3">
-        <v>4386600</v>
+        <v>4467200</v>
       </c>
       <c r="H81" s="3">
-        <v>4390700</v>
+        <v>4471400</v>
       </c>
       <c r="I81" s="3">
-        <v>3912900</v>
+        <v>3984900</v>
       </c>
       <c r="J81" s="3">
-        <v>5135000</v>
+        <v>5229400</v>
       </c>
       <c r="K81" s="3">
         <v>5191600</v>
@@ -3301,19 +3301,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>745000</v>
+        <v>758700</v>
       </c>
       <c r="E83" s="3">
-        <v>953400</v>
+        <v>970900</v>
       </c>
       <c r="F83" s="3">
-        <v>597000</v>
+        <v>608000</v>
       </c>
       <c r="G83" s="3">
-        <v>821800</v>
+        <v>836900</v>
       </c>
       <c r="H83" s="3">
-        <v>666200</v>
+        <v>678500</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>30035600</v>
+        <v>30587800</v>
       </c>
       <c r="E89" s="3">
-        <v>27609300</v>
+        <v>28116800</v>
       </c>
       <c r="F89" s="3">
-        <v>-3118600</v>
+        <v>-3175900</v>
       </c>
       <c r="G89" s="3">
-        <v>7241900</v>
+        <v>7375100</v>
       </c>
       <c r="H89" s="3">
-        <v>16481800</v>
+        <v>16784800</v>
       </c>
       <c r="I89" s="3">
-        <v>7430400</v>
+        <v>7567000</v>
       </c>
       <c r="J89" s="3">
-        <v>14719700</v>
+        <v>14990200</v>
       </c>
       <c r="K89" s="3">
         <v>4032500</v>
@@ -3606,10 +3606,10 @@
         <v>5</v>
       </c>
       <c r="I91" s="3">
-        <v>-231000</v>
+        <v>-235200</v>
       </c>
       <c r="J91" s="3">
-        <v>-220000</v>
+        <v>-224100</v>
       </c>
       <c r="K91" s="3">
         <v>-264400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>7030800</v>
+        <v>7160100</v>
       </c>
       <c r="E94" s="3">
-        <v>-7858100</v>
+        <v>-8002600</v>
       </c>
       <c r="F94" s="3">
-        <v>-141200</v>
+        <v>-143800</v>
       </c>
       <c r="G94" s="3">
-        <v>113800</v>
+        <v>115900</v>
       </c>
       <c r="H94" s="3">
-        <v>-8793700</v>
+        <v>-8955300</v>
       </c>
       <c r="I94" s="3">
-        <v>-9876600</v>
+        <v>-10058200</v>
       </c>
       <c r="J94" s="3">
-        <v>-6700500</v>
+        <v>-6823600</v>
       </c>
       <c r="K94" s="3">
         <v>-1377000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1942400</v>
+        <v>-1978100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1960900</v>
+        <v>-1997000</v>
       </c>
       <c r="F96" s="3">
-        <v>-3064400</v>
+        <v>-3120800</v>
       </c>
       <c r="G96" s="3">
-        <v>-3127500</v>
+        <v>-3185000</v>
       </c>
       <c r="H96" s="3">
-        <v>-3006200</v>
+        <v>-3061400</v>
       </c>
       <c r="I96" s="3">
-        <v>-3128200</v>
+        <v>-3185700</v>
       </c>
       <c r="J96" s="3">
-        <v>-2579200</v>
+        <v>-2626600</v>
       </c>
       <c r="K96" s="3">
         <v>-2734800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6629200</v>
+        <v>-6751100</v>
       </c>
       <c r="E100" s="3">
-        <v>-296100</v>
+        <v>-301500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1892400</v>
+        <v>-1927200</v>
       </c>
       <c r="G100" s="3">
-        <v>1795700</v>
+        <v>1828800</v>
       </c>
       <c r="H100" s="3">
-        <v>-4621000</v>
+        <v>-4705900</v>
       </c>
       <c r="I100" s="3">
-        <v>1342000</v>
+        <v>1366700</v>
       </c>
       <c r="J100" s="3">
-        <v>1400300</v>
+        <v>1426000</v>
       </c>
       <c r="K100" s="3">
         <v>1997300</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-734100</v>
+        <v>-747600</v>
       </c>
       <c r="E101" s="3">
-        <v>-1427700</v>
+        <v>-1453900</v>
       </c>
       <c r="F101" s="3">
-        <v>2860900</v>
+        <v>2913500</v>
       </c>
       <c r="G101" s="3">
-        <v>2442800</v>
+        <v>2487700</v>
       </c>
       <c r="H101" s="3">
-        <v>-1814300</v>
+        <v>-1847600</v>
       </c>
       <c r="I101" s="3">
-        <v>-991800</v>
+        <v>-1010000</v>
       </c>
       <c r="J101" s="3">
-        <v>5007500</v>
+        <v>5099600</v>
       </c>
       <c r="K101" s="3">
         <v>433800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>29703200</v>
+        <v>30249200</v>
       </c>
       <c r="E102" s="3">
-        <v>18027400</v>
+        <v>18358800</v>
       </c>
       <c r="F102" s="3">
-        <v>-2291300</v>
+        <v>-2333400</v>
       </c>
       <c r="G102" s="3">
-        <v>11594200</v>
+        <v>11807400</v>
       </c>
       <c r="H102" s="3">
-        <v>1252900</v>
+        <v>1275900</v>
       </c>
       <c r="I102" s="3">
-        <v>-2096000</v>
+        <v>-2134500</v>
       </c>
       <c r="J102" s="3">
-        <v>14427000</v>
+        <v>14692200</v>
       </c>
       <c r="K102" s="3">
         <v>5086500</v>

--- a/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANZBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>ANZBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42643</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42277</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41912</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41547</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41182</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40816</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13631200</v>
+        <v>15622100</v>
       </c>
       <c r="E8" s="3">
-        <v>17049300</v>
+        <v>12922300</v>
       </c>
       <c r="F8" s="3">
-        <v>21691700</v>
+        <v>16162700</v>
       </c>
       <c r="G8" s="3">
-        <v>21168200</v>
+        <v>20563700</v>
       </c>
       <c r="H8" s="3">
-        <v>20325800</v>
+        <v>20067400</v>
       </c>
       <c r="I8" s="3">
-        <v>20905800</v>
+        <v>19268700</v>
       </c>
       <c r="J8" s="3">
+        <v>19818600</v>
+      </c>
+      <c r="K8" s="3">
         <v>21307100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21097900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20700200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21605600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22089400</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,48 +986,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-445300</v>
+        <v>-382500</v>
       </c>
       <c r="E15" s="3">
-        <v>-598900</v>
+        <v>-422200</v>
       </c>
       <c r="F15" s="3">
-        <v>-484400</v>
+        <v>-567700</v>
       </c>
       <c r="G15" s="3">
-        <v>-691000</v>
+        <v>-459200</v>
       </c>
       <c r="H15" s="3">
-        <v>-503300</v>
+        <v>-655100</v>
       </c>
       <c r="I15" s="3">
-        <v>-1029600</v>
+        <v>-477100</v>
       </c>
       <c r="J15" s="3">
+        <v>-976000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-666600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-1218400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-1201100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-511500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-476000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3351100</v>
+        <v>5626400</v>
       </c>
       <c r="E17" s="3">
-        <v>9154300</v>
+        <v>3176800</v>
       </c>
       <c r="F17" s="3">
-        <v>12237300</v>
+        <v>8678200</v>
       </c>
       <c r="G17" s="3">
-        <v>11517700</v>
+        <v>11600900</v>
       </c>
       <c r="H17" s="3">
-        <v>10779200</v>
+        <v>10918700</v>
       </c>
       <c r="I17" s="3">
-        <v>11715900</v>
+        <v>10218600</v>
       </c>
       <c r="J17" s="3">
+        <v>11106600</v>
+      </c>
+      <c r="K17" s="3">
         <v>11928100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11933800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12333900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13885400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14642600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10280100</v>
+        <v>9995600</v>
       </c>
       <c r="E18" s="3">
-        <v>7895100</v>
+        <v>9745500</v>
       </c>
       <c r="F18" s="3">
-        <v>9454400</v>
+        <v>7484500</v>
       </c>
       <c r="G18" s="3">
-        <v>9650500</v>
+        <v>8962700</v>
       </c>
       <c r="H18" s="3">
-        <v>9546500</v>
+        <v>9148700</v>
       </c>
       <c r="I18" s="3">
-        <v>9189900</v>
+        <v>9050100</v>
       </c>
       <c r="J18" s="3">
+        <v>8711900</v>
+      </c>
+      <c r="K18" s="3">
         <v>9379000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9164000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8366300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7720200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7446800</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,67 +1148,71 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4042800</v>
+        <v>-3326400</v>
       </c>
       <c r="E20" s="3">
-        <v>-4044900</v>
+        <v>-3832600</v>
       </c>
       <c r="F20" s="3">
-        <v>-3228300</v>
+        <v>-3834600</v>
       </c>
       <c r="G20" s="3">
-        <v>-2743800</v>
+        <v>-3060400</v>
       </c>
       <c r="H20" s="3">
-        <v>-3101900</v>
+        <v>-2601100</v>
       </c>
       <c r="I20" s="3">
-        <v>-3481600</v>
+        <v>-2940600</v>
       </c>
       <c r="J20" s="3">
+        <v>-3300600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2027000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1797900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1802700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2064500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1880000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6988000</v>
+        <v>7317400</v>
       </c>
       <c r="E21" s="3">
-        <v>4810800</v>
+        <v>6611900</v>
       </c>
       <c r="F21" s="3">
-        <v>6827700</v>
+        <v>4544400</v>
       </c>
       <c r="G21" s="3">
-        <v>7734700</v>
+        <v>6462400</v>
       </c>
       <c r="H21" s="3">
-        <v>7115900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
+        <v>7318500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>6734500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1193,9 +1229,12 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6237300</v>
+        <v>6669300</v>
       </c>
       <c r="E23" s="3">
-        <v>3850200</v>
+        <v>5913000</v>
       </c>
       <c r="F23" s="3">
-        <v>6226200</v>
+        <v>3649900</v>
       </c>
       <c r="G23" s="3">
-        <v>6906700</v>
+        <v>5902400</v>
       </c>
       <c r="H23" s="3">
-        <v>6444600</v>
+        <v>6547500</v>
       </c>
       <c r="I23" s="3">
-        <v>5708200</v>
+        <v>6109500</v>
       </c>
       <c r="J23" s="3">
+        <v>5411400</v>
+      </c>
+      <c r="K23" s="3">
         <v>7352000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7366100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6563600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5655800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5566800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1923700</v>
+        <v>1945400</v>
       </c>
       <c r="E24" s="3">
-        <v>1284300</v>
+        <v>1823600</v>
       </c>
       <c r="F24" s="3">
-        <v>1821100</v>
+        <v>1217500</v>
       </c>
       <c r="G24" s="3">
-        <v>1943200</v>
+        <v>1726400</v>
       </c>
       <c r="H24" s="3">
-        <v>2006100</v>
+        <v>1842200</v>
       </c>
       <c r="I24" s="3">
-        <v>1715700</v>
+        <v>1901700</v>
       </c>
       <c r="J24" s="3">
+        <v>1626500</v>
+      </c>
+      <c r="K24" s="3">
         <v>2112100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2161700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1993600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1646400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1675400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4313600</v>
+        <v>4723900</v>
       </c>
       <c r="E26" s="3">
-        <v>2565800</v>
+        <v>4089300</v>
       </c>
       <c r="F26" s="3">
-        <v>4405100</v>
+        <v>2432400</v>
       </c>
       <c r="G26" s="3">
-        <v>4963500</v>
+        <v>4176000</v>
       </c>
       <c r="H26" s="3">
-        <v>4438600</v>
+        <v>4705300</v>
       </c>
       <c r="I26" s="3">
-        <v>3992600</v>
+        <v>4207800</v>
       </c>
       <c r="J26" s="3">
+        <v>3784900</v>
+      </c>
+      <c r="K26" s="3">
         <v>5239900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5204400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4570000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4009400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3891400</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4312900</v>
+        <v>4723200</v>
       </c>
       <c r="E27" s="3">
-        <v>2565200</v>
+        <v>4088600</v>
       </c>
       <c r="F27" s="3">
-        <v>4394600</v>
+        <v>2431700</v>
       </c>
       <c r="G27" s="3">
-        <v>4952300</v>
+        <v>4166100</v>
       </c>
       <c r="H27" s="3">
-        <v>4428100</v>
+        <v>4694800</v>
       </c>
       <c r="I27" s="3">
-        <v>3984900</v>
+        <v>4197800</v>
       </c>
       <c r="J27" s="3">
+        <v>3777600</v>
+      </c>
+      <c r="K27" s="3">
         <v>5229400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5191600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4558400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3997400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3876900</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,29 +1523,32 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-11900</v>
+        <v>-12600</v>
       </c>
       <c r="E29" s="3">
-        <v>-68400</v>
+        <v>-11200</v>
       </c>
       <c r="F29" s="3">
-        <v>-239400</v>
+        <v>-64800</v>
       </c>
       <c r="G29" s="3">
-        <v>-485100</v>
+        <v>-227000</v>
       </c>
       <c r="H29" s="3">
-        <v>43300</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+        <v>-459900</v>
+      </c>
+      <c r="I29" s="3">
+        <v>41000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4042800</v>
+        <v>3326400</v>
       </c>
       <c r="E32" s="3">
-        <v>4044900</v>
+        <v>3832600</v>
       </c>
       <c r="F32" s="3">
-        <v>3228300</v>
+        <v>3834600</v>
       </c>
       <c r="G32" s="3">
-        <v>2743800</v>
+        <v>3060400</v>
       </c>
       <c r="H32" s="3">
-        <v>3101900</v>
+        <v>2601100</v>
       </c>
       <c r="I32" s="3">
-        <v>3481600</v>
+        <v>2940600</v>
       </c>
       <c r="J32" s="3">
+        <v>3300600</v>
+      </c>
+      <c r="K32" s="3">
         <v>2027000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1797900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1802700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2064500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1880000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4301100</v>
+        <v>4710600</v>
       </c>
       <c r="E33" s="3">
-        <v>2496700</v>
+        <v>4077400</v>
       </c>
       <c r="F33" s="3">
-        <v>4155200</v>
+        <v>2366900</v>
       </c>
       <c r="G33" s="3">
-        <v>4467200</v>
+        <v>3939100</v>
       </c>
       <c r="H33" s="3">
-        <v>4471400</v>
+        <v>4234900</v>
       </c>
       <c r="I33" s="3">
-        <v>3984900</v>
+        <v>4238900</v>
       </c>
       <c r="J33" s="3">
+        <v>3777600</v>
+      </c>
+      <c r="K33" s="3">
         <v>5229400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5191600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4558400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3997400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3876900</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4301100</v>
+        <v>4710600</v>
       </c>
       <c r="E35" s="3">
-        <v>2496700</v>
+        <v>4077400</v>
       </c>
       <c r="F35" s="3">
-        <v>4155200</v>
+        <v>2366900</v>
       </c>
       <c r="G35" s="3">
-        <v>4467200</v>
+        <v>3939100</v>
       </c>
       <c r="H35" s="3">
-        <v>4471400</v>
+        <v>4234900</v>
       </c>
       <c r="I35" s="3">
-        <v>3984900</v>
+        <v>4238900</v>
       </c>
       <c r="J35" s="3">
+        <v>3777600</v>
+      </c>
+      <c r="K35" s="3">
         <v>5229400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5191600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4558400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3997400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3876900</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42643</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42277</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41912</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41547</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41182</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40816</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,86 +1903,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>102781000</v>
+        <v>107722000</v>
       </c>
       <c r="E41" s="3">
-        <v>59941400</v>
+        <v>97435300</v>
       </c>
       <c r="F41" s="3">
-        <v>47621700</v>
+        <v>56824100</v>
       </c>
       <c r="G41" s="3">
-        <v>105508000</v>
+        <v>45145100</v>
       </c>
       <c r="H41" s="3">
-        <v>42804800</v>
+        <v>100021000</v>
       </c>
       <c r="I41" s="3">
-        <v>41724300</v>
+        <v>40578800</v>
       </c>
       <c r="J41" s="3">
+        <v>39554400</v>
+      </c>
+      <c r="K41" s="3">
         <v>49678800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37971700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>95665400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>39025000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29336000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>76892400</v>
+        <v>101973000</v>
       </c>
       <c r="E42" s="3">
-        <v>164836000</v>
+        <v>72893500</v>
       </c>
       <c r="F42" s="3">
-        <v>142477000</v>
+        <v>156264000</v>
       </c>
       <c r="G42" s="3">
-        <v>101604000</v>
+        <v>135068000</v>
       </c>
       <c r="H42" s="3">
-        <v>95414500</v>
+        <v>96319700</v>
       </c>
       <c r="I42" s="3">
-        <v>117756000</v>
+        <v>90452400</v>
       </c>
       <c r="J42" s="3">
+        <v>111632000</v>
+      </c>
+      <c r="K42" s="3">
         <v>109339000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>86736000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>98412500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>49876600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>47841000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,126 +2152,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1376500</v>
+        <v>1443200</v>
       </c>
       <c r="E47" s="3">
-        <v>1510500</v>
+        <v>1304900</v>
       </c>
       <c r="F47" s="3">
-        <v>2064000</v>
+        <v>1431900</v>
       </c>
       <c r="G47" s="3">
-        <v>1782000</v>
+        <v>1956600</v>
       </c>
       <c r="H47" s="3">
-        <v>1569100</v>
+        <v>1689300</v>
       </c>
       <c r="I47" s="3">
-        <v>2981900</v>
+        <v>1487500</v>
       </c>
       <c r="J47" s="3">
+        <v>2826800</v>
+      </c>
+      <c r="K47" s="3">
         <v>3797100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3274300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2981300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2490400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2549000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1908300</v>
+        <v>2390700</v>
       </c>
       <c r="E48" s="3">
-        <v>2103100</v>
+        <v>1809100</v>
       </c>
       <c r="F48" s="3">
-        <v>1343000</v>
+        <v>1993700</v>
       </c>
       <c r="G48" s="3">
-        <v>1279400</v>
+        <v>1273100</v>
       </c>
       <c r="H48" s="3">
-        <v>1371600</v>
+        <v>1212900</v>
       </c>
       <c r="I48" s="3">
-        <v>1539100</v>
+        <v>1300200</v>
       </c>
       <c r="J48" s="3">
+        <v>1459000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1550300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1558500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4694400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1495700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1541900</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2878600</v>
+        <v>2565400</v>
       </c>
       <c r="E49" s="3">
-        <v>3056500</v>
+        <v>2728900</v>
       </c>
       <c r="F49" s="3">
-        <v>3393000</v>
+        <v>2897600</v>
       </c>
       <c r="G49" s="3">
-        <v>6882300</v>
+        <v>3216500</v>
       </c>
       <c r="H49" s="3">
-        <v>4865100</v>
+        <v>6524400</v>
       </c>
       <c r="I49" s="3">
-        <v>5355100</v>
+        <v>4612000</v>
       </c>
       <c r="J49" s="3">
+        <v>5076600</v>
+      </c>
+      <c r="K49" s="3">
         <v>5801800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5681100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16681900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5010500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5053100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1632600</v>
+        <v>2239200</v>
       </c>
       <c r="E52" s="3">
-        <v>1482600</v>
+        <v>1547700</v>
       </c>
       <c r="F52" s="3">
-        <v>2224500</v>
+        <v>1405500</v>
       </c>
       <c r="G52" s="3">
-        <v>31458200</v>
+        <v>2108800</v>
       </c>
       <c r="H52" s="3">
-        <v>6034200</v>
+        <v>29822200</v>
       </c>
       <c r="I52" s="3">
-        <v>434900</v>
+        <v>5720400</v>
       </c>
       <c r="J52" s="3">
+        <v>412200</v>
+      </c>
+      <c r="K52" s="3">
         <v>5910000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>298000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1045600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>555400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>434600</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>683242000</v>
+        <v>718427000</v>
       </c>
       <c r="E54" s="3">
-        <v>727516000</v>
+        <v>647710000</v>
       </c>
       <c r="F54" s="3">
-        <v>684834000</v>
+        <v>689681000</v>
       </c>
       <c r="G54" s="3">
-        <v>658341000</v>
+        <v>649218000</v>
       </c>
       <c r="H54" s="3">
-        <v>626334000</v>
+        <v>624104000</v>
       </c>
       <c r="I54" s="3">
-        <v>638579000</v>
+        <v>593761000</v>
       </c>
       <c r="J54" s="3">
+        <v>605369000</v>
+      </c>
+      <c r="K54" s="3">
         <v>621150000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>551737000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>508336000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>454305000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>438417000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,47 +2527,51 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6035600</v>
+        <v>6507800</v>
       </c>
       <c r="E57" s="3">
-        <v>6371300</v>
+        <v>5721700</v>
       </c>
       <c r="F57" s="3">
-        <v>5561700</v>
+        <v>6040000</v>
       </c>
       <c r="G57" s="3">
-        <v>4812000</v>
+        <v>5272400</v>
       </c>
       <c r="H57" s="3">
-        <v>5828300</v>
+        <v>4561800</v>
       </c>
       <c r="I57" s="3">
-        <v>1132900</v>
+        <v>5525200</v>
       </c>
       <c r="J57" s="3">
+        <v>1073900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1159400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>954000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8260000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>696200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>650100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2475,48 +2608,54 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>292500</v>
+        <v>548500</v>
       </c>
       <c r="E59" s="3">
-        <v>243600</v>
+        <v>277300</v>
       </c>
       <c r="F59" s="3">
-        <v>181500</v>
+        <v>230900</v>
       </c>
       <c r="G59" s="3">
-        <v>209400</v>
+        <v>172000</v>
       </c>
       <c r="H59" s="3">
-        <v>168200</v>
+        <v>198500</v>
       </c>
       <c r="I59" s="3">
-        <v>2221700</v>
+        <v>159500</v>
       </c>
       <c r="J59" s="3">
+        <v>2106200</v>
+      </c>
+      <c r="K59" s="3">
         <v>2494000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2814800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5984400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3394600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3828300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>70535700</v>
+        <v>62023800</v>
       </c>
       <c r="E61" s="3">
-        <v>83528300</v>
+        <v>66867400</v>
       </c>
       <c r="F61" s="3">
-        <v>90524300</v>
+        <v>79184300</v>
       </c>
       <c r="G61" s="3">
-        <v>84582900</v>
+        <v>85816500</v>
       </c>
       <c r="H61" s="3">
-        <v>75365200</v>
+        <v>80184100</v>
       </c>
       <c r="I61" s="3">
-        <v>79964300</v>
+        <v>71445700</v>
       </c>
       <c r="J61" s="3">
+        <v>75805700</v>
+      </c>
+      <c r="K61" s="3">
         <v>78409100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>67960600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>61121500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>53071000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>49735500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2014400</v>
+        <v>1656900</v>
       </c>
       <c r="E62" s="3">
-        <v>2272000</v>
+        <v>1909700</v>
       </c>
       <c r="F62" s="3">
-        <v>2009500</v>
+        <v>2153800</v>
       </c>
       <c r="G62" s="3">
-        <v>2819200</v>
+        <v>1905000</v>
       </c>
       <c r="H62" s="3">
-        <v>987700</v>
+        <v>2672600</v>
       </c>
       <c r="I62" s="3">
-        <v>1037900</v>
+        <v>936300</v>
       </c>
       <c r="J62" s="3">
+        <v>983900</v>
+      </c>
+      <c r="K62" s="3">
         <v>964600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>899700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1915500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>118200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>127700</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>638804000</v>
+        <v>674816000</v>
       </c>
       <c r="E66" s="3">
-        <v>684737000</v>
+        <v>605583000</v>
       </c>
       <c r="F66" s="3">
-        <v>642407000</v>
+        <v>649127000</v>
       </c>
       <c r="G66" s="3">
-        <v>616974000</v>
+        <v>608998000</v>
       </c>
       <c r="H66" s="3">
-        <v>585180000</v>
+        <v>584888000</v>
       </c>
       <c r="I66" s="3">
-        <v>598222000</v>
+        <v>554747000</v>
       </c>
       <c r="J66" s="3">
+        <v>567111000</v>
+      </c>
+      <c r="K66" s="3">
         <v>581192000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>516574000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>475405000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>425176000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>410912000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2910,20 +3077,23 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>622400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1259600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>616200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>632000</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25481900</v>
+        <v>26317100</v>
       </c>
       <c r="E72" s="3">
-        <v>23256000</v>
+        <v>24156700</v>
       </c>
       <c r="F72" s="3">
-        <v>22846200</v>
+        <v>22046500</v>
       </c>
       <c r="G72" s="3">
-        <v>22202000</v>
+        <v>21658100</v>
       </c>
       <c r="H72" s="3">
-        <v>20868800</v>
+        <v>21047400</v>
       </c>
       <c r="I72" s="3">
-        <v>19565600</v>
+        <v>19783500</v>
       </c>
       <c r="J72" s="3">
+        <v>18548100</v>
+      </c>
+      <c r="K72" s="3">
         <v>19093100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17565600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15981200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14046000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13018000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44438200</v>
+        <v>43610700</v>
       </c>
       <c r="E76" s="3">
-        <v>42778300</v>
+        <v>42127100</v>
       </c>
       <c r="F76" s="3">
-        <v>42426500</v>
+        <v>40553600</v>
       </c>
       <c r="G76" s="3">
-        <v>41367000</v>
+        <v>40220100</v>
       </c>
       <c r="H76" s="3">
-        <v>41153400</v>
+        <v>39215700</v>
       </c>
       <c r="I76" s="3">
-        <v>40357000</v>
+        <v>39013200</v>
       </c>
       <c r="J76" s="3">
+        <v>38258200</v>
+      </c>
+      <c r="K76" s="3">
         <v>39958400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34540900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31671100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28512300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26872600</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42643</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42277</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41912</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41547</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41182</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40816</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4301100</v>
+        <v>4710600</v>
       </c>
       <c r="E81" s="3">
-        <v>2496700</v>
+        <v>4077400</v>
       </c>
       <c r="F81" s="3">
-        <v>4155200</v>
+        <v>2366900</v>
       </c>
       <c r="G81" s="3">
-        <v>4467200</v>
+        <v>3939100</v>
       </c>
       <c r="H81" s="3">
-        <v>4471400</v>
+        <v>4234900</v>
       </c>
       <c r="I81" s="3">
-        <v>3984900</v>
+        <v>4238900</v>
       </c>
       <c r="J81" s="3">
+        <v>3777600</v>
+      </c>
+      <c r="K81" s="3">
         <v>5229400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5191600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4558400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3997400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3876900</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,28 +3492,29 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>758700</v>
+        <v>667000</v>
       </c>
       <c r="E83" s="3">
-        <v>970900</v>
+        <v>719300</v>
       </c>
       <c r="F83" s="3">
-        <v>608000</v>
+        <v>920400</v>
       </c>
       <c r="G83" s="3">
-        <v>836900</v>
+        <v>576300</v>
       </c>
       <c r="H83" s="3">
-        <v>678500</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
+        <v>793400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>643200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -3333,9 +3531,12 @@
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>30587800</v>
+        <v>13350500</v>
       </c>
       <c r="E89" s="3">
-        <v>28116800</v>
+        <v>28997000</v>
       </c>
       <c r="F89" s="3">
-        <v>-3175900</v>
+        <v>26654600</v>
       </c>
       <c r="G89" s="3">
-        <v>7375100</v>
+        <v>-3010700</v>
       </c>
       <c r="H89" s="3">
-        <v>16784800</v>
+        <v>6991500</v>
       </c>
       <c r="I89" s="3">
-        <v>7567000</v>
+        <v>15911900</v>
       </c>
       <c r="J89" s="3">
+        <v>7173500</v>
+      </c>
+      <c r="K89" s="3">
         <v>14990200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4032500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11690400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4500400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13642000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,8 +3804,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3605,27 +3825,30 @@
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>-235200</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
+        <v>-223000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-224100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-264400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-257400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-225700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-231500</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>7160100</v>
+        <v>-1202300</v>
       </c>
       <c r="E94" s="3">
-        <v>-8002600</v>
+        <v>6787700</v>
       </c>
       <c r="F94" s="3">
-        <v>-143800</v>
+        <v>-7586400</v>
       </c>
       <c r="G94" s="3">
-        <v>115900</v>
+        <v>-136300</v>
       </c>
       <c r="H94" s="3">
-        <v>-8955300</v>
+        <v>109800</v>
       </c>
       <c r="I94" s="3">
-        <v>-10058200</v>
+        <v>-8489600</v>
       </c>
       <c r="J94" s="3">
+        <v>-9535100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6823600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1377000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5500600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-159200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1836500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1978100</v>
+        <v>-2503900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1997000</v>
+        <v>-1875300</v>
       </c>
       <c r="F96" s="3">
-        <v>-3120800</v>
+        <v>-1893100</v>
       </c>
       <c r="G96" s="3">
-        <v>-3185000</v>
+        <v>-2958500</v>
       </c>
       <c r="H96" s="3">
-        <v>-3061400</v>
+        <v>-3019300</v>
       </c>
       <c r="I96" s="3">
-        <v>-3185700</v>
+        <v>-2902200</v>
       </c>
       <c r="J96" s="3">
+        <v>-3020000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2626600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2734800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2332700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1569900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1533200</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6751100</v>
+        <v>-1551700</v>
       </c>
       <c r="E100" s="3">
-        <v>-301500</v>
+        <v>-6400000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1927200</v>
+        <v>-285900</v>
       </c>
       <c r="G100" s="3">
-        <v>1828800</v>
+        <v>-1827000</v>
       </c>
       <c r="H100" s="3">
-        <v>-4705900</v>
+        <v>1733700</v>
       </c>
       <c r="I100" s="3">
-        <v>1366700</v>
+        <v>-4461200</v>
       </c>
       <c r="J100" s="3">
+        <v>1295600</v>
+      </c>
+      <c r="K100" s="3">
         <v>1426000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1997300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2961800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4713400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5387600</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-747600</v>
+        <v>567700</v>
       </c>
       <c r="E101" s="3">
-        <v>-1453900</v>
+        <v>-708700</v>
       </c>
       <c r="F101" s="3">
-        <v>2913500</v>
+        <v>-1378300</v>
       </c>
       <c r="G101" s="3">
-        <v>2487700</v>
+        <v>2761900</v>
       </c>
       <c r="H101" s="3">
-        <v>-1847600</v>
+        <v>2358300</v>
       </c>
       <c r="I101" s="3">
-        <v>-1010000</v>
+        <v>-1751500</v>
       </c>
       <c r="J101" s="3">
+        <v>-957500</v>
+      </c>
+      <c r="K101" s="3">
         <v>5099600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>433800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>824300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-968600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>410700</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>30249200</v>
+        <v>11164200</v>
       </c>
       <c r="E102" s="3">
-        <v>18358800</v>
+        <v>28676100</v>
       </c>
       <c r="F102" s="3">
-        <v>-2333400</v>
+        <v>17404000</v>
       </c>
       <c r="G102" s="3">
-        <v>11807400</v>
+        <v>-2212100</v>
       </c>
       <c r="H102" s="3">
-        <v>1275900</v>
+        <v>11193300</v>
       </c>
       <c r="I102" s="3">
-        <v>-2134500</v>
+        <v>1209600</v>
       </c>
       <c r="J102" s="3">
+        <v>-2023500</v>
+      </c>
+      <c r="K102" s="3">
         <v>14692200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5086500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4052300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8086000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6828600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
